--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -871,13 +871,17 @@
         <v>132.365</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -912,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +957,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1203,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1244,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1285,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1326,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1408,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1449,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1490,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1437,8 +1531,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,8 +1572,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1654,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1695,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1606,14 +1730,22 @@
         <v>129.2516666666666</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1641,14 +1773,22 @@
         <v>129.1899999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1676,14 +1816,22 @@
         <v>129.1233333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1711,14 +1859,22 @@
         <v>129.0433333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>128</v>
+      </c>
+      <c r="K38" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1746,14 +1902,22 @@
         <v>128.9233333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +1951,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1986,22 @@
         <v>128.7266666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +2035,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2076,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +2117,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2158,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2199,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2240,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2322,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2486,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2527,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2609,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2691,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2814,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2855,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2937,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2978,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +3019,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3060,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +3101,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3183,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3224,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3265,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3306,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3347,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3388,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3429,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3076,18 +3464,18 @@
         <v>127.105</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>125</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3123,7 +3511,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,15 +3546,15 @@
         <v>126.9983333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3197,15 +3587,15 @@
         <v>126.9366666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>125</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,15 +3628,15 @@
         <v>126.9166666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>125</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,15 +3669,15 @@
         <v>126.8966666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>125</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3320,15 +3710,15 @@
         <v>126.855</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>125</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,9 +3757,11 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>123</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="K84" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,15 +3794,15 @@
         <v>126.7466666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,9 +3841,11 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K86" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,9 +3884,11 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>123</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>125.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,9 +3927,11 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="K88" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,9 +3970,11 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>123</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>124.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,9 +4013,11 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>125.6</v>
+      </c>
+      <c r="K90" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,9 +4056,11 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K91" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,15 +4093,15 @@
         <v>126.5516666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,7 +4142,9 @@
       <c r="J93" t="n">
         <v>123.9</v>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3779,7 +4185,9 @@
       <c r="J94" t="n">
         <v>124</v>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3820,7 +4228,9 @@
       <c r="J95" t="n">
         <v>124</v>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3859,9 +4269,11 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>123</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K96" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,7 +4314,9 @@
       <c r="J97" t="n">
         <v>123</v>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,9 +4355,11 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>124</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>120.8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,15 +4392,15 @@
         <v>126.1533333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>125</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,15 +4433,15 @@
         <v>126.1766666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>125</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,15 +4474,15 @@
         <v>126.095</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>125</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,15 +4515,15 @@
         <v>126.04</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4140,15 +4556,15 @@
         <v>126</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,15 +4597,15 @@
         <v>125.9183333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>125</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,15 +4638,15 @@
         <v>125.885</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,15 +4679,15 @@
         <v>125.8783333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,15 +4720,15 @@
         <v>125.845</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>126</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,15 +4761,15 @@
         <v>125.82</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>126</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,15 +4802,15 @@
         <v>125.79</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,15 +4843,15 @@
         <v>125.7833333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>126</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,15 +4884,15 @@
         <v>125.7766666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,15 +4925,15 @@
         <v>125.79</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,15 +4966,15 @@
         <v>125.8033333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>127</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,7 +5013,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,7 +5054,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4675,7 +5095,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,7 +5136,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4789,16 +5215,20 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>129.8</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4826,11 +5256,17 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +5300,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +5338,17 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5379,17 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4966,11 +5420,17 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5001,11 +5461,17 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5036,11 +5502,17 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5543,17 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5106,11 +5584,17 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +5625,17 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5179,10 +5669,16 @@
         <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>1.035061633281972</v>
       </c>
     </row>
     <row r="131">

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>130.4</v>
       </c>
       <c r="F2" t="n">
-        <v>21.1864</v>
+        <v>12.3897</v>
       </c>
       <c r="G2" t="n">
-        <v>135.1683333333334</v>
+        <v>135.3616666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="C3" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="D3" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="F3" t="n">
-        <v>6.6742</v>
+        <v>21.1864</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0916666666667</v>
+        <v>135.1683333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="C4" t="n">
-        <v>130.3</v>
+        <v>130.9</v>
       </c>
       <c r="D4" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="E4" t="n">
-        <v>130.3</v>
+        <v>130.9</v>
       </c>
       <c r="F4" t="n">
-        <v>10830.1717</v>
+        <v>6.6742</v>
       </c>
       <c r="G4" t="n">
-        <v>134.9633333333333</v>
+        <v>135.0916666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>131</v>
+      </c>
+      <c r="C5" t="n">
         <v>130.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>129.8</v>
-      </c>
       <c r="D5" t="n">
-        <v>130.9</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
-        <v>128.4</v>
+        <v>130.3</v>
       </c>
       <c r="F5" t="n">
-        <v>46250.5491</v>
+        <v>10830.1717</v>
       </c>
       <c r="G5" t="n">
-        <v>134.81</v>
+        <v>134.9633333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>129.8</v>
+        <v>130.3</v>
       </c>
       <c r="C6" t="n">
         <v>129.8</v>
       </c>
       <c r="D6" t="n">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="E6" t="n">
-        <v>127</v>
+        <v>128.4</v>
       </c>
       <c r="F6" t="n">
-        <v>18574.4359</v>
+        <v>46250.5491</v>
       </c>
       <c r="G6" t="n">
-        <v>134.49</v>
+        <v>134.81</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>128</v>
+        <v>129.8</v>
       </c>
       <c r="C7" t="n">
-        <v>130</v>
+        <v>129.8</v>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>130.8</v>
       </c>
       <c r="E7" t="n">
-        <v>126.5</v>
+        <v>127</v>
       </c>
       <c r="F7" t="n">
-        <v>35284.64</v>
+        <v>18574.4359</v>
       </c>
       <c r="G7" t="n">
-        <v>134.1233333333333</v>
+        <v>134.49</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="C8" t="n">
-        <v>126.4</v>
+        <v>130</v>
       </c>
       <c r="D8" t="n">
-        <v>127.5</v>
+        <v>130</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="F8" t="n">
-        <v>5578.299</v>
+        <v>35284.64</v>
       </c>
       <c r="G8" t="n">
-        <v>133.8066666666667</v>
+        <v>134.1233333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>126</v>
+        <v>127.5</v>
       </c>
       <c r="C9" t="n">
-        <v>126</v>
+        <v>126.4</v>
       </c>
       <c r="D9" t="n">
-        <v>126</v>
+        <v>127.5</v>
       </c>
       <c r="E9" t="n">
-        <v>126</v>
+        <v>126.4</v>
       </c>
       <c r="F9" t="n">
-        <v>374.9613</v>
+        <v>5578.299</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4733333333333</v>
+        <v>133.8066666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D10" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" t="n">
-        <v>752</v>
+        <v>374.9613</v>
       </c>
       <c r="G10" t="n">
-        <v>133.22</v>
+        <v>133.4733333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>128</v>
       </c>
       <c r="C11" t="n">
-        <v>128.9</v>
+        <v>130</v>
       </c>
       <c r="D11" t="n">
-        <v>128.9</v>
+        <v>130</v>
       </c>
       <c r="E11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" t="n">
-        <v>2518.5389</v>
+        <v>752</v>
       </c>
       <c r="G11" t="n">
-        <v>133.0016666666667</v>
+        <v>133.22</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>129</v>
+        <v>128.9</v>
       </c>
       <c r="D12" t="n">
-        <v>129</v>
+        <v>128.9</v>
       </c>
       <c r="E12" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" t="n">
-        <v>135.3297</v>
+        <v>2518.5389</v>
       </c>
       <c r="G12" t="n">
-        <v>132.8016666666666</v>
+        <v>133.0016666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>129</v>
       </c>
       <c r="C13" t="n">
-        <v>129.8</v>
+        <v>129</v>
       </c>
       <c r="D13" t="n">
-        <v>129.8</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
         <v>129</v>
       </c>
       <c r="F13" t="n">
-        <v>1940.1226</v>
+        <v>135.3297</v>
       </c>
       <c r="G13" t="n">
-        <v>132.5816666666666</v>
+        <v>132.8016666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,35 +853,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>129.8</v>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>129.8</v>
       </c>
       <c r="E14" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>376</v>
+        <v>1940.1226</v>
       </c>
       <c r="G14" t="n">
-        <v>132.365</v>
+        <v>132.5816666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>129.8</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -895,19 +891,19 @@
         <v>128</v>
       </c>
       <c r="C15" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" t="n">
-        <v>129.9</v>
+        <v>128</v>
       </c>
       <c r="E15" t="n">
         <v>128</v>
       </c>
       <c r="F15" t="n">
-        <v>12702.5842</v>
+        <v>376</v>
       </c>
       <c r="G15" t="n">
-        <v>132.1466666666666</v>
+        <v>132.365</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -916,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -933,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>127.2</v>
+        <v>128</v>
       </c>
       <c r="C16" t="n">
-        <v>128.9</v>
+        <v>129</v>
       </c>
       <c r="D16" t="n">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="E16" t="n">
-        <v>126.1</v>
+        <v>128</v>
       </c>
       <c r="F16" t="n">
-        <v>6005.6286</v>
+        <v>12702.5842</v>
       </c>
       <c r="G16" t="n">
-        <v>131.8716666666666</v>
+        <v>132.1466666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -957,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -974,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>127.1</v>
+        <v>127.2</v>
       </c>
       <c r="C17" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="D17" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="E17" t="n">
-        <v>127.1</v>
+        <v>126.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10976.0437</v>
+        <v>6005.6286</v>
       </c>
       <c r="G17" t="n">
-        <v>131.6383333333333</v>
+        <v>131.8716666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -998,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1015,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>127.7</v>
+        <v>127.1</v>
       </c>
       <c r="C18" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="E18" t="n">
-        <v>127.7</v>
+        <v>127.1</v>
       </c>
       <c r="F18" t="n">
-        <v>712</v>
+        <v>10976.0437</v>
       </c>
       <c r="G18" t="n">
-        <v>131.4466666666667</v>
+        <v>131.6383333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1056,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>128.7</v>
+        <v>127.7</v>
       </c>
       <c r="C19" t="n">
         <v>128.7</v>
@@ -1065,13 +1037,13 @@
         <v>128.7</v>
       </c>
       <c r="E19" t="n">
-        <v>128.7</v>
+        <v>127.7</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8926</v>
+        <v>712</v>
       </c>
       <c r="G19" t="n">
-        <v>131.305</v>
+        <v>131.4466666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1080,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1097,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>127.2</v>
+        <v>128.7</v>
       </c>
       <c r="C20" t="n">
         <v>128.7</v>
       </c>
       <c r="D20" t="n">
-        <v>129.8</v>
+        <v>128.7</v>
       </c>
       <c r="E20" t="n">
-        <v>127</v>
+        <v>128.7</v>
       </c>
       <c r="F20" t="n">
-        <v>14440.6569</v>
+        <v>401.8926</v>
       </c>
       <c r="G20" t="n">
-        <v>131.1683333333333</v>
+        <v>131.305</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1121,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1141,19 +1101,19 @@
         <v>127.2</v>
       </c>
       <c r="C21" t="n">
-        <v>126.2</v>
+        <v>128.7</v>
       </c>
       <c r="D21" t="n">
-        <v>127.2</v>
+        <v>129.8</v>
       </c>
       <c r="E21" t="n">
-        <v>126.2</v>
+        <v>127</v>
       </c>
       <c r="F21" t="n">
-        <v>3883.458</v>
+        <v>14440.6569</v>
       </c>
       <c r="G21" t="n">
-        <v>130.9883333333333</v>
+        <v>131.1683333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1162,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1191,10 +1145,10 @@
         <v>126.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3081.1327</v>
+        <v>3883.458</v>
       </c>
       <c r="G22" t="n">
-        <v>130.8416666666666</v>
+        <v>130.9883333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1203,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1220,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>127.5</v>
+        <v>127.2</v>
       </c>
       <c r="C23" t="n">
-        <v>128.5</v>
+        <v>126.2</v>
       </c>
       <c r="D23" t="n">
-        <v>128.5</v>
+        <v>127.2</v>
       </c>
       <c r="E23" t="n">
-        <v>127.5</v>
+        <v>126.2</v>
       </c>
       <c r="F23" t="n">
-        <v>3997</v>
+        <v>3081.1327</v>
       </c>
       <c r="G23" t="n">
-        <v>130.7166666666666</v>
+        <v>130.8416666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1244,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1261,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>128</v>
+        <v>127.5</v>
       </c>
       <c r="C24" t="n">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="D24" t="n">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="E24" t="n">
-        <v>127.2</v>
+        <v>127.5</v>
       </c>
       <c r="F24" t="n">
-        <v>2407.1744</v>
+        <v>3997</v>
       </c>
       <c r="G24" t="n">
-        <v>130.6</v>
+        <v>130.7166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1285,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1305,7 +1241,7 @@
         <v>128</v>
       </c>
       <c r="C25" t="n">
-        <v>127.2</v>
+        <v>128</v>
       </c>
       <c r="D25" t="n">
         <v>128</v>
@@ -1314,10 +1250,10 @@
         <v>127.2</v>
       </c>
       <c r="F25" t="n">
-        <v>1515</v>
+        <v>2407.1744</v>
       </c>
       <c r="G25" t="n">
-        <v>130.4966666666666</v>
+        <v>130.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1326,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1343,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="C26" t="n">
         <v>127.2</v>
@@ -1355,10 +1285,10 @@
         <v>127.2</v>
       </c>
       <c r="F26" t="n">
-        <v>6588.7285</v>
+        <v>1515</v>
       </c>
       <c r="G26" t="n">
-        <v>130.35</v>
+        <v>130.4966666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1367,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1384,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>127.2</v>
+        <v>127.5</v>
       </c>
       <c r="C27" t="n">
         <v>127.2</v>
       </c>
       <c r="D27" t="n">
+        <v>128</v>
+      </c>
+      <c r="E27" t="n">
         <v>127.2</v>
       </c>
-      <c r="E27" t="n">
-        <v>127</v>
-      </c>
       <c r="F27" t="n">
-        <v>5772.782</v>
+        <v>6588.7285</v>
       </c>
       <c r="G27" t="n">
-        <v>130.23</v>
+        <v>130.35</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1408,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1425,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>126.2</v>
+        <v>127.2</v>
       </c>
       <c r="C28" t="n">
-        <v>126.2</v>
+        <v>127.2</v>
       </c>
       <c r="D28" t="n">
-        <v>126.2</v>
+        <v>127.2</v>
       </c>
       <c r="E28" t="n">
-        <v>126.2</v>
+        <v>127</v>
       </c>
       <c r="F28" t="n">
-        <v>6135.9839</v>
+        <v>5772.782</v>
       </c>
       <c r="G28" t="n">
-        <v>130.0966666666667</v>
+        <v>130.23</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1449,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1466,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>127</v>
+        <v>126.2</v>
       </c>
       <c r="C29" t="n">
-        <v>126</v>
+        <v>126.2</v>
       </c>
       <c r="D29" t="n">
-        <v>127</v>
+        <v>126.2</v>
       </c>
       <c r="E29" t="n">
-        <v>126</v>
+        <v>126.2</v>
       </c>
       <c r="F29" t="n">
-        <v>6168.5911</v>
+        <v>6135.9839</v>
       </c>
       <c r="G29" t="n">
-        <v>129.93</v>
+        <v>130.0966666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1490,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1519,10 +1425,10 @@
         <v>126</v>
       </c>
       <c r="F30" t="n">
-        <v>11022.1271</v>
+        <v>6168.5911</v>
       </c>
       <c r="G30" t="n">
-        <v>129.78</v>
+        <v>129.93</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1531,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1548,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="n">
-        <v>125.2</v>
+        <v>126</v>
       </c>
       <c r="D31" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" t="n">
-        <v>125.2</v>
+        <v>126</v>
       </c>
       <c r="F31" t="n">
-        <v>38249.5314</v>
+        <v>11022.1271</v>
       </c>
       <c r="G31" t="n">
-        <v>129.6566666666666</v>
+        <v>129.78</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1572,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1589,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" t="n">
-        <v>125</v>
+        <v>125.2</v>
       </c>
       <c r="D32" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" t="n">
-        <v>125</v>
+        <v>125.2</v>
       </c>
       <c r="F32" t="n">
-        <v>9004.7618</v>
+        <v>38249.5314</v>
       </c>
       <c r="G32" t="n">
-        <v>129.4983333333333</v>
+        <v>129.6566666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1613,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1633,19 +1521,19 @@
         <v>125</v>
       </c>
       <c r="C33" t="n">
-        <v>124.5</v>
+        <v>125</v>
       </c>
       <c r="D33" t="n">
         <v>125</v>
       </c>
       <c r="E33" t="n">
-        <v>124.5</v>
+        <v>125</v>
       </c>
       <c r="F33" t="n">
-        <v>18610.7136</v>
+        <v>9004.7618</v>
       </c>
       <c r="G33" t="n">
-        <v>129.3716666666666</v>
+        <v>129.4983333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1654,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1671,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="n">
-        <v>128.4</v>
+        <v>124.5</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4</v>
+        <v>125</v>
       </c>
       <c r="E34" t="n">
-        <v>125.9</v>
+        <v>124.5</v>
       </c>
       <c r="F34" t="n">
-        <v>25959.9531</v>
+        <v>18610.7136</v>
       </c>
       <c r="G34" t="n">
-        <v>129.3</v>
+        <v>129.3716666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1695,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1712,40 +1588,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" t="n">
-        <v>127.9</v>
+        <v>128.4</v>
       </c>
       <c r="D35" t="n">
-        <v>128</v>
+        <v>128.4</v>
       </c>
       <c r="E35" t="n">
-        <v>127</v>
+        <v>125.9</v>
       </c>
       <c r="F35" t="n">
-        <v>12527.7071</v>
+        <v>25959.9531</v>
       </c>
       <c r="G35" t="n">
-        <v>129.2516666666666</v>
+        <v>129.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1755,40 +1623,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>127.9</v>
+        <v>128</v>
       </c>
       <c r="C36" t="n">
         <v>127.9</v>
       </c>
       <c r="D36" t="n">
-        <v>127.9</v>
+        <v>128</v>
       </c>
       <c r="E36" t="n">
-        <v>127.9</v>
+        <v>127</v>
       </c>
       <c r="F36" t="n">
-        <v>6595.4266</v>
+        <v>12527.7071</v>
       </c>
       <c r="G36" t="n">
-        <v>129.1899999999999</v>
+        <v>129.2516666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1798,40 +1658,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>128</v>
+        <v>127.9</v>
       </c>
       <c r="C37" t="n">
-        <v>128</v>
+        <v>127.9</v>
       </c>
       <c r="D37" t="n">
-        <v>128</v>
+        <v>127.9</v>
       </c>
       <c r="E37" t="n">
-        <v>128</v>
+        <v>127.9</v>
       </c>
       <c r="F37" t="n">
-        <v>80.05419999999999</v>
+        <v>6595.4266</v>
       </c>
       <c r="G37" t="n">
-        <v>129.1233333333333</v>
+        <v>129.1899999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="K37" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1841,40 +1693,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>127.2</v>
+        <v>128</v>
       </c>
       <c r="C38" t="n">
-        <v>127.2</v>
+        <v>128</v>
       </c>
       <c r="D38" t="n">
-        <v>127.2</v>
+        <v>128</v>
       </c>
       <c r="E38" t="n">
-        <v>127.2</v>
+        <v>128</v>
       </c>
       <c r="F38" t="n">
-        <v>2240.8962</v>
+        <v>80.05419999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>129.0433333333333</v>
+        <v>129.1233333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>128</v>
-      </c>
-      <c r="K38" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1884,40 +1728,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>127.1</v>
+        <v>127.2</v>
       </c>
       <c r="C39" t="n">
-        <v>126.1</v>
+        <v>127.2</v>
       </c>
       <c r="D39" t="n">
-        <v>127.1</v>
+        <v>127.2</v>
       </c>
       <c r="E39" t="n">
-        <v>126.1</v>
+        <v>127.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2116.7923</v>
+        <v>2240.8962</v>
       </c>
       <c r="G39" t="n">
-        <v>128.9233333333333</v>
+        <v>129.0433333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1927,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>127</v>
+        <v>127.1</v>
       </c>
       <c r="C40" t="n">
-        <v>123.5</v>
+        <v>126.1</v>
       </c>
       <c r="D40" t="n">
-        <v>127</v>
+        <v>127.1</v>
       </c>
       <c r="E40" t="n">
-        <v>123.5</v>
+        <v>126.1</v>
       </c>
       <c r="F40" t="n">
-        <v>35719.2853</v>
+        <v>2116.7923</v>
       </c>
       <c r="G40" t="n">
-        <v>128.7633333333333</v>
+        <v>128.9233333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1951,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1968,40 +1798,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>125.6</v>
+        <v>127</v>
       </c>
       <c r="C41" t="n">
-        <v>129.9</v>
+        <v>123.5</v>
       </c>
       <c r="D41" t="n">
-        <v>129.9</v>
+        <v>127</v>
       </c>
       <c r="E41" t="n">
-        <v>125</v>
+        <v>123.5</v>
       </c>
       <c r="F41" t="n">
-        <v>7663.1212</v>
+        <v>35719.2853</v>
       </c>
       <c r="G41" t="n">
-        <v>128.7266666666666</v>
+        <v>128.7633333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2011,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>127.7</v>
+        <v>125.6</v>
       </c>
       <c r="C42" t="n">
-        <v>128.7</v>
+        <v>129.9</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7</v>
+        <v>129.9</v>
       </c>
       <c r="E42" t="n">
-        <v>126.6</v>
+        <v>125</v>
       </c>
       <c r="F42" t="n">
-        <v>2575.9999</v>
+        <v>7663.1212</v>
       </c>
       <c r="G42" t="n">
-        <v>128.6883333333332</v>
+        <v>128.7266666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2035,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2055,19 +1871,19 @@
         <v>127.7</v>
       </c>
       <c r="C43" t="n">
-        <v>127.8</v>
+        <v>128.7</v>
       </c>
       <c r="D43" t="n">
-        <v>127.8</v>
+        <v>128.7</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7</v>
+        <v>126.6</v>
       </c>
       <c r="F43" t="n">
-        <v>1588.9998</v>
+        <v>2575.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>128.6183333333333</v>
+        <v>128.6883333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2076,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2093,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="C44" t="n">
-        <v>129.9</v>
+        <v>127.8</v>
       </c>
       <c r="D44" t="n">
-        <v>129.9</v>
+        <v>127.8</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="F44" t="n">
-        <v>14801.6287</v>
+        <v>1588.9998</v>
       </c>
       <c r="G44" t="n">
-        <v>128.5649999999999</v>
+        <v>128.6183333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2117,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2137,19 +1941,19 @@
         <v>127</v>
       </c>
       <c r="C45" t="n">
-        <v>126.9</v>
+        <v>129.9</v>
       </c>
       <c r="D45" t="n">
-        <v>127.9</v>
+        <v>129.9</v>
       </c>
       <c r="E45" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" t="n">
-        <v>14940.0884</v>
+        <v>14801.6287</v>
       </c>
       <c r="G45" t="n">
-        <v>128.4983333333332</v>
+        <v>128.5649999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2158,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2175,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C46" t="n">
-        <v>128.2</v>
+        <v>126.9</v>
       </c>
       <c r="D46" t="n">
-        <v>128.2</v>
+        <v>127.9</v>
       </c>
       <c r="E46" t="n">
         <v>126</v>
       </c>
       <c r="F46" t="n">
-        <v>5656</v>
+        <v>14940.0884</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4683333333332</v>
+        <v>128.4983333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2199,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2216,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C47" t="n">
-        <v>128</v>
+        <v>128.2</v>
       </c>
       <c r="D47" t="n">
-        <v>128</v>
+        <v>128.2</v>
       </c>
       <c r="E47" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>5656</v>
       </c>
       <c r="G47" t="n">
-        <v>128.4283333333333</v>
+        <v>128.4683333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2240,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2257,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="C48" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="D48" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="E48" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="F48" t="n">
-        <v>1189</v>
+        <v>200</v>
       </c>
       <c r="G48" t="n">
-        <v>128.3866666666666</v>
+        <v>128.4283333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2281,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2298,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="C49" t="n">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="D49" t="n">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="E49" t="n">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1545</v>
+        <v>1189</v>
       </c>
       <c r="G49" t="n">
-        <v>128.3433333333332</v>
+        <v>128.3866666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2322,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2342,19 +2116,19 @@
         <v>127.4</v>
       </c>
       <c r="C50" t="n">
-        <v>128.1</v>
+        <v>127.4</v>
       </c>
       <c r="D50" t="n">
-        <v>128.1</v>
+        <v>127.4</v>
       </c>
       <c r="E50" t="n">
         <v>127.4</v>
       </c>
       <c r="F50" t="n">
-        <v>6386.5883</v>
+        <v>1545</v>
       </c>
       <c r="G50" t="n">
-        <v>128.3116666666666</v>
+        <v>128.3433333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2363,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2380,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>128.1</v>
+        <v>127.4</v>
       </c>
       <c r="C51" t="n">
         <v>128.1</v>
@@ -2389,13 +2157,13 @@
         <v>128.1</v>
       </c>
       <c r="E51" t="n">
-        <v>128.1</v>
+        <v>127.4</v>
       </c>
       <c r="F51" t="n">
-        <v>827</v>
+        <v>6386.5883</v>
       </c>
       <c r="G51" t="n">
-        <v>128.2716666666666</v>
+        <v>128.3116666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2404,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2433,10 +2195,10 @@
         <v>128.1</v>
       </c>
       <c r="F52" t="n">
-        <v>2961.7012</v>
+        <v>827</v>
       </c>
       <c r="G52" t="n">
-        <v>128.2349999999999</v>
+        <v>128.2716666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2445,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2474,10 +2230,10 @@
         <v>128.1</v>
       </c>
       <c r="F53" t="n">
-        <v>2489.1525</v>
+        <v>2961.7012</v>
       </c>
       <c r="G53" t="n">
-        <v>128.2283333333333</v>
+        <v>128.2349999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2486,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>127</v>
+        <v>128.1</v>
       </c>
       <c r="C54" t="n">
-        <v>127</v>
+        <v>128.1</v>
       </c>
       <c r="D54" t="n">
-        <v>127</v>
+        <v>128.1</v>
       </c>
       <c r="E54" t="n">
-        <v>127</v>
+        <v>128.1</v>
       </c>
       <c r="F54" t="n">
-        <v>136.8418</v>
+        <v>2489.1525</v>
       </c>
       <c r="G54" t="n">
-        <v>128.1616666666666</v>
+        <v>128.2283333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2527,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2544,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>125.3</v>
+        <v>127</v>
       </c>
       <c r="C55" t="n">
-        <v>125.3</v>
+        <v>127</v>
       </c>
       <c r="D55" t="n">
-        <v>125.3</v>
+        <v>127</v>
       </c>
       <c r="E55" t="n">
-        <v>125.3</v>
+        <v>127</v>
       </c>
       <c r="F55" t="n">
-        <v>2971.8705</v>
+        <v>136.8418</v>
       </c>
       <c r="G55" t="n">
-        <v>128.0683333333333</v>
+        <v>128.1616666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2568,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2585,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>127</v>
+        <v>125.3</v>
       </c>
       <c r="C56" t="n">
-        <v>127</v>
+        <v>125.3</v>
       </c>
       <c r="D56" t="n">
-        <v>127</v>
+        <v>125.3</v>
       </c>
       <c r="E56" t="n">
-        <v>127</v>
+        <v>125.3</v>
       </c>
       <c r="F56" t="n">
-        <v>5873.9678</v>
+        <v>2971.8705</v>
       </c>
       <c r="G56" t="n">
-        <v>128.0216666666666</v>
+        <v>128.0683333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2609,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2638,10 +2370,10 @@
         <v>127</v>
       </c>
       <c r="F57" t="n">
-        <v>3748.9788</v>
+        <v>5873.9678</v>
       </c>
       <c r="G57" t="n">
-        <v>127.9666666666666</v>
+        <v>128.0216666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2650,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2667,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C58" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E58" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" t="n">
-        <v>7911.8489</v>
+        <v>3748.9788</v>
       </c>
       <c r="G58" t="n">
-        <v>127.9283333333333</v>
+        <v>127.9666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2691,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" t="n">
-        <v>128.9</v>
+        <v>128</v>
       </c>
       <c r="D59" t="n">
-        <v>128.9</v>
+        <v>129</v>
       </c>
       <c r="E59" t="n">
-        <v>126.2</v>
+        <v>128</v>
       </c>
       <c r="F59" t="n">
-        <v>11933.7177</v>
+        <v>7911.8489</v>
       </c>
       <c r="G59" t="n">
-        <v>127.9049999999999</v>
+        <v>127.9283333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2732,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2749,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" t="n">
-        <v>126</v>
+        <v>128.9</v>
       </c>
       <c r="D60" t="n">
-        <v>126</v>
+        <v>128.9</v>
       </c>
       <c r="E60" t="n">
-        <v>126</v>
+        <v>126.2</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>11933.7177</v>
       </c>
       <c r="G60" t="n">
-        <v>127.8333333333333</v>
+        <v>127.9049999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2773,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2790,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>125.1</v>
+        <v>126</v>
       </c>
       <c r="C61" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E61" t="n">
-        <v>124.1</v>
+        <v>126</v>
       </c>
       <c r="F61" t="n">
-        <v>7207.5645</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>127.7766666666666</v>
+        <v>127.8333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2814,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>127</v>
+        <v>125.1</v>
       </c>
       <c r="C62" t="n">
         <v>127</v>
@@ -2840,13 +2542,13 @@
         <v>127</v>
       </c>
       <c r="E62" t="n">
-        <v>127</v>
+        <v>124.1</v>
       </c>
       <c r="F62" t="n">
-        <v>7567.1719</v>
+        <v>7207.5645</v>
       </c>
       <c r="G62" t="n">
-        <v>127.7199999999999</v>
+        <v>127.7766666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2855,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2884,10 +2580,10 @@
         <v>127</v>
       </c>
       <c r="F63" t="n">
-        <v>735</v>
+        <v>7567.1719</v>
       </c>
       <c r="G63" t="n">
-        <v>127.6549999999999</v>
+        <v>127.7199999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2896,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2913,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>124.9</v>
+        <v>127</v>
       </c>
       <c r="C64" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D64" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E64" t="n">
-        <v>123.2</v>
+        <v>127</v>
       </c>
       <c r="F64" t="n">
-        <v>5058.8652</v>
+        <v>735</v>
       </c>
       <c r="G64" t="n">
-        <v>127.5833333333333</v>
+        <v>127.6549999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2937,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2954,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>126.8</v>
+        <v>124.9</v>
       </c>
       <c r="C65" t="n">
-        <v>126.8</v>
+        <v>126</v>
       </c>
       <c r="D65" t="n">
-        <v>126.8</v>
+        <v>126</v>
       </c>
       <c r="E65" t="n">
-        <v>126.8</v>
+        <v>123.2</v>
       </c>
       <c r="F65" t="n">
-        <v>25</v>
+        <v>5058.8652</v>
       </c>
       <c r="G65" t="n">
-        <v>127.5333333333333</v>
+        <v>127.5833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2978,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2995,38 +2673,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>125.7</v>
+        <v>126.8</v>
       </c>
       <c r="C66" t="n">
-        <v>126.7</v>
+        <v>126.8</v>
       </c>
       <c r="D66" t="n">
-        <v>126.7</v>
+        <v>126.8</v>
       </c>
       <c r="E66" t="n">
-        <v>125.7</v>
+        <v>126.8</v>
       </c>
       <c r="F66" t="n">
-        <v>568</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>127.4816666666666</v>
+        <v>127.5333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>126</v>
+      </c>
       <c r="K66" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3036,22 +2712,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>125</v>
+        <v>125.7</v>
       </c>
       <c r="C67" t="n">
-        <v>125</v>
+        <v>126.7</v>
       </c>
       <c r="D67" t="n">
-        <v>125</v>
+        <v>126.7</v>
       </c>
       <c r="E67" t="n">
-        <v>125</v>
+        <v>125.7</v>
       </c>
       <c r="F67" t="n">
-        <v>500.9882</v>
+        <v>568</v>
       </c>
       <c r="G67" t="n">
-        <v>127.3983333333333</v>
+        <v>127.4816666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3061,11 +2737,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -3077,22 +2753,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D68" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E68" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" t="n">
-        <v>479</v>
+        <v>500.9882</v>
       </c>
       <c r="G68" t="n">
-        <v>127.4083333333333</v>
+        <v>127.3983333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3102,7 +2778,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3130,10 +2806,10 @@
         <v>126</v>
       </c>
       <c r="F69" t="n">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="G69" t="n">
-        <v>127.4249999999999</v>
+        <v>127.4083333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3143,7 +2819,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3159,22 +2835,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>126</v>
+      </c>
+      <c r="C70" t="n">
         <v>127</v>
       </c>
-      <c r="C70" t="n">
-        <v>128</v>
-      </c>
       <c r="D70" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F70" t="n">
-        <v>1464.8705</v>
+        <v>499</v>
       </c>
       <c r="G70" t="n">
-        <v>127.3916666666666</v>
+        <v>127.4249999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3184,7 +2860,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3200,7 +2876,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" t="n">
         <v>128</v>
@@ -3209,13 +2885,13 @@
         <v>128</v>
       </c>
       <c r="E71" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1789</v>
+        <v>1464.8705</v>
       </c>
       <c r="G71" t="n">
-        <v>127.3766666666666</v>
+        <v>127.3916666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3225,7 +2901,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3241,22 +2917,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C72" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D72" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F72" t="n">
-        <v>145</v>
+        <v>0.1789</v>
       </c>
       <c r="G72" t="n">
-        <v>127.3266666666666</v>
+        <v>127.3766666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3266,7 +2942,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3282,22 +2958,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>126.1</v>
+        <v>126</v>
       </c>
       <c r="C73" t="n">
-        <v>126.1</v>
+        <v>126</v>
       </c>
       <c r="D73" t="n">
-        <v>126.1</v>
+        <v>126</v>
       </c>
       <c r="E73" t="n">
-        <v>126.1</v>
+        <v>126</v>
       </c>
       <c r="F73" t="n">
-        <v>2869.282</v>
+        <v>145</v>
       </c>
       <c r="G73" t="n">
-        <v>127.2649999999999</v>
+        <v>127.3266666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3307,7 +2983,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3323,7 +2999,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>124.2</v>
+        <v>126.1</v>
       </c>
       <c r="C74" t="n">
         <v>126.1</v>
@@ -3332,13 +3008,13 @@
         <v>126.1</v>
       </c>
       <c r="E74" t="n">
-        <v>124.2</v>
+        <v>126.1</v>
       </c>
       <c r="F74" t="n">
-        <v>9927.509700000001</v>
+        <v>2869.282</v>
       </c>
       <c r="G74" t="n">
-        <v>127.2333333333333</v>
+        <v>127.2649999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3348,7 +3024,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3364,7 +3040,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>125.1</v>
+        <v>124.2</v>
       </c>
       <c r="C75" t="n">
         <v>126.1</v>
@@ -3373,13 +3049,13 @@
         <v>126.1</v>
       </c>
       <c r="E75" t="n">
-        <v>125.1</v>
+        <v>124.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4610</v>
+        <v>9927.509700000001</v>
       </c>
       <c r="G75" t="n">
-        <v>127.185</v>
+        <v>127.2333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3389,7 +3065,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3405,22 +3081,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>127</v>
+        <v>125.1</v>
       </c>
       <c r="C76" t="n">
         <v>126.1</v>
       </c>
       <c r="D76" t="n">
-        <v>127</v>
+        <v>126.1</v>
       </c>
       <c r="E76" t="n">
-        <v>126.1</v>
+        <v>125.1</v>
       </c>
       <c r="F76" t="n">
-        <v>1164.5388</v>
+        <v>4610</v>
       </c>
       <c r="G76" t="n">
-        <v>127.1383333333333</v>
+        <v>127.185</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3430,7 +3106,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3446,32 +3122,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C77" t="n">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="D77" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E77" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1708.0863</v>
+        <v>1164.5388</v>
       </c>
       <c r="G77" t="n">
-        <v>127.105</v>
+        <v>127.1383333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>126.1</v>
+      </c>
       <c r="K77" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3499,10 +3177,10 @@
         <v>125</v>
       </c>
       <c r="F78" t="n">
-        <v>1189</v>
+        <v>1708.0863</v>
       </c>
       <c r="G78" t="n">
-        <v>127.06</v>
+        <v>127.105</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3512,7 +3190,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3528,32 +3206,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>124.3</v>
+        <v>125</v>
       </c>
       <c r="C79" t="n">
+        <v>126</v>
+      </c>
+      <c r="D79" t="n">
+        <v>126</v>
+      </c>
+      <c r="E79" t="n">
         <v>125</v>
       </c>
-      <c r="D79" t="n">
-        <v>125</v>
-      </c>
-      <c r="E79" t="n">
-        <v>124.3</v>
-      </c>
       <c r="F79" t="n">
-        <v>4124.3437</v>
+        <v>1189</v>
       </c>
       <c r="G79" t="n">
-        <v>126.9983333333333</v>
+        <v>127.06</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>126</v>
+      </c>
       <c r="K79" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3569,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>125</v>
+        <v>124.3</v>
       </c>
       <c r="C80" t="n">
         <v>125</v>
@@ -3578,13 +3258,13 @@
         <v>125</v>
       </c>
       <c r="E80" t="n">
-        <v>125</v>
+        <v>124.3</v>
       </c>
       <c r="F80" t="n">
-        <v>9103.3109</v>
+        <v>4124.3437</v>
       </c>
       <c r="G80" t="n">
-        <v>126.9366666666667</v>
+        <v>126.9983333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3594,7 +3274,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3622,20 +3302,22 @@
         <v>125</v>
       </c>
       <c r="F81" t="n">
-        <v>6866.9229</v>
+        <v>9103.3109</v>
       </c>
       <c r="G81" t="n">
-        <v>126.9166666666667</v>
+        <v>126.9366666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>125</v>
+      </c>
       <c r="K81" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3663,20 +3345,22 @@
         <v>125</v>
       </c>
       <c r="F82" t="n">
-        <v>12556.6195</v>
+        <v>6866.9229</v>
       </c>
       <c r="G82" t="n">
-        <v>126.8966666666667</v>
+        <v>126.9166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>125</v>
+      </c>
       <c r="K82" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3695,29 +3379,31 @@
         <v>125</v>
       </c>
       <c r="C83" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E83" t="n">
-        <v>121.3</v>
+        <v>125</v>
       </c>
       <c r="F83" t="n">
-        <v>15462.3186</v>
+        <v>12556.6195</v>
       </c>
       <c r="G83" t="n">
-        <v>126.855</v>
+        <v>126.8966666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>125</v>
+      </c>
       <c r="K83" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3733,34 +3419,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C84" t="n">
-        <v>124.7</v>
+        <v>126</v>
       </c>
       <c r="D84" t="n">
-        <v>124.7</v>
+        <v>126</v>
       </c>
       <c r="E84" t="n">
-        <v>121</v>
+        <v>121.3</v>
       </c>
       <c r="F84" t="n">
-        <v>22705.2206</v>
+        <v>15462.3186</v>
       </c>
       <c r="G84" t="n">
-        <v>126.8</v>
+        <v>126.855</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>126</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3776,32 +3460,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>123.5</v>
+        <v>123</v>
       </c>
       <c r="C85" t="n">
-        <v>124</v>
+        <v>124.7</v>
       </c>
       <c r="D85" t="n">
-        <v>124</v>
+        <v>124.7</v>
       </c>
       <c r="E85" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F85" t="n">
-        <v>550</v>
+        <v>22705.2206</v>
       </c>
       <c r="G85" t="n">
-        <v>126.7466666666667</v>
+        <v>126.8</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>126</v>
+      </c>
       <c r="K85" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3817,34 +3503,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>125.9</v>
+        <v>123.5</v>
       </c>
       <c r="C86" t="n">
-        <v>125.9</v>
+        <v>124</v>
       </c>
       <c r="D86" t="n">
-        <v>125.9</v>
+        <v>124</v>
       </c>
       <c r="E86" t="n">
-        <v>125.9</v>
+        <v>123</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>550</v>
       </c>
       <c r="G86" t="n">
-        <v>126.725</v>
+        <v>126.7466666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>124</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3860,22 +3544,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>123</v>
+        <v>125.9</v>
       </c>
       <c r="C87" t="n">
-        <v>123</v>
+        <v>125.9</v>
       </c>
       <c r="D87" t="n">
-        <v>123</v>
+        <v>125.9</v>
       </c>
       <c r="E87" t="n">
-        <v>123</v>
+        <v>125.9</v>
       </c>
       <c r="F87" t="n">
-        <v>2226.6263</v>
+        <v>4</v>
       </c>
       <c r="G87" t="n">
-        <v>126.655</v>
+        <v>126.725</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3884,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>125.9</v>
+        <v>124</v>
       </c>
       <c r="K87" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3903,22 +3587,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>123.4</v>
+        <v>123</v>
       </c>
       <c r="C88" t="n">
-        <v>124.8</v>
+        <v>123</v>
       </c>
       <c r="D88" t="n">
-        <v>124.8</v>
+        <v>123</v>
       </c>
       <c r="E88" t="n">
-        <v>123.4</v>
+        <v>123</v>
       </c>
       <c r="F88" t="n">
-        <v>2758.0915</v>
+        <v>2226.6263</v>
       </c>
       <c r="G88" t="n">
-        <v>126.6316666666667</v>
+        <v>126.655</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -3927,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>123</v>
+        <v>125.9</v>
       </c>
       <c r="K88" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3946,34 +3630,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2758.0915</v>
+      </c>
+      <c r="G89" t="n">
+        <v>126.6316666666667</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>123</v>
       </c>
-      <c r="C89" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="D89" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="E89" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>20353.0797</v>
-      </c>
-      <c r="G89" t="n">
-        <v>126.625</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>124.8</v>
-      </c>
       <c r="K89" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3989,22 +3673,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>123.5</v>
+        <v>123</v>
       </c>
       <c r="C90" t="n">
-        <v>124</v>
+        <v>125.6</v>
       </c>
       <c r="D90" t="n">
-        <v>124.5</v>
+        <v>125.6</v>
       </c>
       <c r="E90" t="n">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="F90" t="n">
-        <v>24317.2775</v>
+        <v>20353.0797</v>
       </c>
       <c r="G90" t="n">
-        <v>126.5916666666667</v>
+        <v>126.625</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -4013,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>125.6</v>
+        <v>124.8</v>
       </c>
       <c r="K90" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4032,22 +3716,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>121.7</v>
+        <v>123.5</v>
       </c>
       <c r="C91" t="n">
-        <v>123.9</v>
+        <v>124</v>
       </c>
       <c r="D91" t="n">
-        <v>124</v>
+        <v>124.5</v>
       </c>
       <c r="E91" t="n">
-        <v>121.7</v>
+        <v>120.6</v>
       </c>
       <c r="F91" t="n">
-        <v>5992.0515</v>
+        <v>24317.2775</v>
       </c>
       <c r="G91" t="n">
-        <v>126.57</v>
+        <v>126.5916666666667</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -4056,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>124</v>
+        <v>125.6</v>
       </c>
       <c r="K91" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4075,32 +3759,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>123.9</v>
+        <v>121.7</v>
       </c>
       <c r="C92" t="n">
         <v>123.9</v>
       </c>
       <c r="D92" t="n">
-        <v>123.9</v>
+        <v>124</v>
       </c>
       <c r="E92" t="n">
-        <v>123.9</v>
+        <v>121.7</v>
       </c>
       <c r="F92" t="n">
-        <v>762.2328</v>
+        <v>5992.0515</v>
       </c>
       <c r="G92" t="n">
-        <v>126.5516666666667</v>
+        <v>126.57</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>124</v>
+      </c>
       <c r="K92" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4119,19 +3805,19 @@
         <v>123.9</v>
       </c>
       <c r="C93" t="n">
-        <v>124</v>
+        <v>123.9</v>
       </c>
       <c r="D93" t="n">
-        <v>124</v>
+        <v>123.9</v>
       </c>
       <c r="E93" t="n">
         <v>123.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2934.3926</v>
+        <v>762.2328</v>
       </c>
       <c r="G93" t="n">
-        <v>126.5433333333333</v>
+        <v>126.5516666666667</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -4143,7 +3829,7 @@
         <v>123.9</v>
       </c>
       <c r="K93" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4159,7 +3845,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>124</v>
+        <v>123.9</v>
       </c>
       <c r="C94" t="n">
         <v>124</v>
@@ -4168,13 +3854,13 @@
         <v>124</v>
       </c>
       <c r="E94" t="n">
-        <v>124</v>
+        <v>123.9</v>
       </c>
       <c r="F94" t="n">
-        <v>3821.0851</v>
+        <v>2934.3926</v>
       </c>
       <c r="G94" t="n">
-        <v>126.47</v>
+        <v>126.5433333333333</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4183,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>124</v>
+        <v>123.9</v>
       </c>
       <c r="K94" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4214,10 +3900,10 @@
         <v>124</v>
       </c>
       <c r="F95" t="n">
-        <v>5295.6057</v>
+        <v>3821.0851</v>
       </c>
       <c r="G95" t="n">
-        <v>126.405</v>
+        <v>126.47</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -4229,7 +3915,7 @@
         <v>124</v>
       </c>
       <c r="K95" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4245,22 +3931,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D96" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E96" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F96" t="n">
-        <v>31.4151</v>
+        <v>5295.6057</v>
       </c>
       <c r="G96" t="n">
-        <v>126.3233333333333</v>
+        <v>126.405</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4272,7 +3958,7 @@
         <v>124</v>
       </c>
       <c r="K96" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4291,19 +3977,19 @@
         <v>123</v>
       </c>
       <c r="C97" t="n">
-        <v>120.8</v>
+        <v>123</v>
       </c>
       <c r="D97" t="n">
         <v>123</v>
       </c>
       <c r="E97" t="n">
-        <v>120.8</v>
+        <v>123</v>
       </c>
       <c r="F97" t="n">
-        <v>33771.9406</v>
+        <v>31.4151</v>
       </c>
       <c r="G97" t="n">
-        <v>126.2033333333333</v>
+        <v>126.3233333333333</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4312,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K97" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4331,22 +4017,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" t="n">
-        <v>125.3</v>
+        <v>120.8</v>
       </c>
       <c r="D98" t="n">
-        <v>125.4</v>
+        <v>123</v>
       </c>
       <c r="E98" t="n">
-        <v>124</v>
+        <v>120.8</v>
       </c>
       <c r="F98" t="n">
-        <v>2059</v>
+        <v>33771.9406</v>
       </c>
       <c r="G98" t="n">
-        <v>126.1716666666667</v>
+        <v>126.2033333333333</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4355,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>120.8</v>
+        <v>123</v>
       </c>
       <c r="K98" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4374,22 +4060,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" t="n">
-        <v>125</v>
+        <v>125.3</v>
       </c>
       <c r="D99" t="n">
-        <v>125</v>
+        <v>125.4</v>
       </c>
       <c r="E99" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F99" t="n">
-        <v>825.7637</v>
+        <v>2059</v>
       </c>
       <c r="G99" t="n">
-        <v>126.1533333333334</v>
+        <v>126.1716666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4399,7 +4085,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4418,19 +4104,19 @@
         <v>125</v>
       </c>
       <c r="C100" t="n">
-        <v>124.9</v>
+        <v>125</v>
       </c>
       <c r="D100" t="n">
         <v>125</v>
       </c>
       <c r="E100" t="n">
-        <v>124.9</v>
+        <v>125</v>
       </c>
       <c r="F100" t="n">
-        <v>17045.9589</v>
+        <v>825.7637</v>
       </c>
       <c r="G100" t="n">
-        <v>126.1766666666667</v>
+        <v>126.1533333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4440,7 +4126,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4459,19 +4145,19 @@
         <v>125</v>
       </c>
       <c r="C101" t="n">
-        <v>125</v>
+        <v>124.9</v>
       </c>
       <c r="D101" t="n">
         <v>125</v>
       </c>
       <c r="E101" t="n">
-        <v>125</v>
+        <v>124.9</v>
       </c>
       <c r="F101" t="n">
-        <v>10192.3436</v>
+        <v>17045.9589</v>
       </c>
       <c r="G101" t="n">
-        <v>126.095</v>
+        <v>126.1766666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4481,7 +4167,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4497,22 +4183,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="C102" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="D102" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="E102" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="F102" t="n">
-        <v>7.1096</v>
+        <v>10192.3436</v>
       </c>
       <c r="G102" t="n">
-        <v>126.04</v>
+        <v>126.095</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4522,7 +4208,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4538,7 +4224,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>122.5</v>
+        <v>125.4</v>
       </c>
       <c r="C103" t="n">
         <v>125.4</v>
@@ -4547,13 +4233,13 @@
         <v>125.4</v>
       </c>
       <c r="E103" t="n">
-        <v>121</v>
+        <v>125.4</v>
       </c>
       <c r="F103" t="n">
-        <v>16390.7324</v>
+        <v>7.1096</v>
       </c>
       <c r="G103" t="n">
-        <v>126</v>
+        <v>126.04</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4563,7 +4249,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4579,22 +4265,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>125</v>
+        <v>122.5</v>
       </c>
       <c r="C104" t="n">
-        <v>125</v>
+        <v>125.4</v>
       </c>
       <c r="D104" t="n">
-        <v>125</v>
+        <v>125.4</v>
       </c>
       <c r="E104" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F104" t="n">
-        <v>7949.6468</v>
+        <v>16390.7324</v>
       </c>
       <c r="G104" t="n">
-        <v>125.9183333333333</v>
+        <v>126</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4604,7 +4290,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4620,22 +4306,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>124.9</v>
+        <v>125</v>
       </c>
       <c r="C105" t="n">
-        <v>124.9</v>
+        <v>125</v>
       </c>
       <c r="D105" t="n">
-        <v>124.9</v>
+        <v>125</v>
       </c>
       <c r="E105" t="n">
-        <v>124.9</v>
+        <v>125</v>
       </c>
       <c r="F105" t="n">
-        <v>754.4882</v>
+        <v>7949.6468</v>
       </c>
       <c r="G105" t="n">
-        <v>125.885</v>
+        <v>125.9183333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4645,7 +4331,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4661,22 +4347,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>125.4</v>
+        <v>124.9</v>
       </c>
       <c r="C106" t="n">
-        <v>127.8</v>
+        <v>124.9</v>
       </c>
       <c r="D106" t="n">
-        <v>127.8</v>
+        <v>124.9</v>
       </c>
       <c r="E106" t="n">
-        <v>125.4</v>
+        <v>124.9</v>
       </c>
       <c r="F106" t="n">
-        <v>1789</v>
+        <v>754.4882</v>
       </c>
       <c r="G106" t="n">
-        <v>125.8783333333333</v>
+        <v>125.885</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4686,7 +4372,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4702,22 +4388,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>125.4</v>
       </c>
       <c r="C107" t="n">
-        <v>126</v>
+        <v>127.8</v>
       </c>
       <c r="D107" t="n">
-        <v>126</v>
+        <v>127.8</v>
       </c>
       <c r="E107" t="n">
-        <v>126</v>
+        <v>125.4</v>
       </c>
       <c r="F107" t="n">
-        <v>335</v>
+        <v>1789</v>
       </c>
       <c r="G107" t="n">
-        <v>125.845</v>
+        <v>125.8783333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4727,7 +4413,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4758,7 +4444,7 @@
         <v>335</v>
       </c>
       <c r="G108" t="n">
-        <v>125.82</v>
+        <v>125.845</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4768,7 +4454,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4784,22 +4470,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>125.6</v>
+        <v>126</v>
       </c>
       <c r="C109" t="n">
-        <v>125.6</v>
+        <v>126</v>
       </c>
       <c r="D109" t="n">
-        <v>126.6</v>
+        <v>126</v>
       </c>
       <c r="E109" t="n">
-        <v>125.6</v>
+        <v>126</v>
       </c>
       <c r="F109" t="n">
-        <v>1204.9999</v>
+        <v>335</v>
       </c>
       <c r="G109" t="n">
-        <v>125.79</v>
+        <v>125.82</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4809,7 +4495,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4825,22 +4511,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>126</v>
+        <v>125.6</v>
       </c>
       <c r="C110" t="n">
-        <v>127.7</v>
+        <v>125.6</v>
       </c>
       <c r="D110" t="n">
-        <v>127.7</v>
+        <v>126.6</v>
       </c>
       <c r="E110" t="n">
-        <v>125</v>
+        <v>125.6</v>
       </c>
       <c r="F110" t="n">
-        <v>6996.6867</v>
+        <v>1204.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>125.7833333333333</v>
+        <v>125.79</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4850,7 +4536,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4866,7 +4552,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>127.7</v>
+        <v>126</v>
       </c>
       <c r="C111" t="n">
         <v>127.7</v>
@@ -4875,13 +4561,13 @@
         <v>127.7</v>
       </c>
       <c r="E111" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="F111" t="n">
-        <v>2309.4784</v>
+        <v>6996.6867</v>
       </c>
       <c r="G111" t="n">
-        <v>125.7766666666667</v>
+        <v>125.7833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4891,7 +4577,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4907,22 +4593,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>127.5</v>
+        <v>127.7</v>
       </c>
       <c r="C112" t="n">
-        <v>128.9</v>
+        <v>127.7</v>
       </c>
       <c r="D112" t="n">
-        <v>128.9</v>
+        <v>127.7</v>
       </c>
       <c r="E112" t="n">
-        <v>127.5</v>
+        <v>127.7</v>
       </c>
       <c r="F112" t="n">
-        <v>7665.988751357641</v>
+        <v>2309.4784</v>
       </c>
       <c r="G112" t="n">
-        <v>125.79</v>
+        <v>125.7766666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4932,7 +4618,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4948,7 +4634,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="C113" t="n">
         <v>128.9</v>
@@ -4957,13 +4643,13 @@
         <v>128.9</v>
       </c>
       <c r="E113" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="F113" t="n">
-        <v>748.0741</v>
+        <v>7665.988751357641</v>
       </c>
       <c r="G113" t="n">
-        <v>125.8033333333333</v>
+        <v>125.79</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4973,7 +4659,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4989,22 +4675,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>127.7</v>
+        <v>127</v>
       </c>
       <c r="C114" t="n">
-        <v>127.7</v>
+        <v>128.9</v>
       </c>
       <c r="D114" t="n">
-        <v>127.7</v>
+        <v>128.9</v>
       </c>
       <c r="E114" t="n">
-        <v>127.7</v>
+        <v>127</v>
       </c>
       <c r="F114" t="n">
-        <v>400</v>
+        <v>748.0741</v>
       </c>
       <c r="G114" t="n">
-        <v>125.815</v>
+        <v>125.8033333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5014,7 +4700,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5033,19 +4719,19 @@
         <v>127.7</v>
       </c>
       <c r="C115" t="n">
-        <v>128.9</v>
+        <v>127.7</v>
       </c>
       <c r="D115" t="n">
-        <v>128.9</v>
+        <v>127.7</v>
       </c>
       <c r="E115" t="n">
         <v>127.7</v>
       </c>
       <c r="F115" t="n">
-        <v>3673.631</v>
+        <v>400</v>
       </c>
       <c r="G115" t="n">
-        <v>125.875</v>
+        <v>125.815</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5055,7 +4741,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5071,7 +4757,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>128.9</v>
+        <v>127.7</v>
       </c>
       <c r="C116" t="n">
         <v>128.9</v>
@@ -5080,13 +4766,13 @@
         <v>128.9</v>
       </c>
       <c r="E116" t="n">
-        <v>128.9</v>
+        <v>127.7</v>
       </c>
       <c r="F116" t="n">
-        <v>10498.9587</v>
+        <v>3673.631</v>
       </c>
       <c r="G116" t="n">
-        <v>125.9066666666666</v>
+        <v>125.875</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5096,7 +4782,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5112,22 +4798,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>128.7</v>
+        <v>128.9</v>
       </c>
       <c r="C117" t="n">
-        <v>128.7</v>
+        <v>128.9</v>
       </c>
       <c r="D117" t="n">
-        <v>128.7</v>
+        <v>128.9</v>
       </c>
       <c r="E117" t="n">
-        <v>128.7</v>
+        <v>128.9</v>
       </c>
       <c r="F117" t="n">
-        <v>1536.4608</v>
+        <v>10498.9587</v>
       </c>
       <c r="G117" t="n">
-        <v>125.935</v>
+        <v>125.9066666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5137,7 +4823,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5165,10 +4851,10 @@
         <v>128.7</v>
       </c>
       <c r="F118" t="n">
-        <v>410.123</v>
+        <v>1536.4608</v>
       </c>
       <c r="G118" t="n">
-        <v>125.9466666666666</v>
+        <v>125.935</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5178,7 +4864,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5194,22 +4880,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>127</v>
+        <v>128.7</v>
       </c>
       <c r="C119" t="n">
-        <v>126.6</v>
+        <v>128.7</v>
       </c>
       <c r="D119" t="n">
-        <v>127</v>
+        <v>128.7</v>
       </c>
       <c r="E119" t="n">
-        <v>126.6</v>
+        <v>128.7</v>
       </c>
       <c r="F119" t="n">
-        <v>353.7645</v>
+        <v>410.123</v>
       </c>
       <c r="G119" t="n">
-        <v>125.9083333333333</v>
+        <v>125.9466666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5219,7 +4905,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5235,22 +4921,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" t="n">
-        <v>128</v>
+        <v>126.6</v>
       </c>
       <c r="D120" t="n">
-        <v>128.7</v>
+        <v>127</v>
       </c>
       <c r="E120" t="n">
-        <v>128</v>
+        <v>126.6</v>
       </c>
       <c r="F120" t="n">
-        <v>514</v>
+        <v>353.7645</v>
       </c>
       <c r="G120" t="n">
-        <v>125.9416666666666</v>
+        <v>125.9083333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5260,7 +4946,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5279,7 +4965,7 @@
         <v>128</v>
       </c>
       <c r="C121" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="D121" t="n">
         <v>128.7</v>
@@ -5288,10 +4974,10 @@
         <v>128</v>
       </c>
       <c r="F121" t="n">
-        <v>635.4807</v>
+        <v>514</v>
       </c>
       <c r="G121" t="n">
-        <v>125.97</v>
+        <v>125.9416666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5301,7 +4987,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5317,7 +5003,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="C122" t="n">
         <v>128.7</v>
@@ -5326,13 +5012,13 @@
         <v>128.7</v>
       </c>
       <c r="E122" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="F122" t="n">
-        <v>2467.4124</v>
+        <v>635.4807</v>
       </c>
       <c r="G122" t="n">
-        <v>125.9983333333333</v>
+        <v>125.97</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5342,7 +5028,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5358,22 +5044,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>128.8</v>
+        <v>128.7</v>
       </c>
       <c r="C123" t="n">
-        <v>128.8</v>
+        <v>128.7</v>
       </c>
       <c r="D123" t="n">
-        <v>128.8</v>
+        <v>128.7</v>
       </c>
       <c r="E123" t="n">
-        <v>128.8</v>
+        <v>128.7</v>
       </c>
       <c r="F123" t="n">
-        <v>5961.7885</v>
+        <v>2467.4124</v>
       </c>
       <c r="G123" t="n">
-        <v>126.0283333333333</v>
+        <v>125.9983333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5383,7 +5069,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5411,10 +5097,10 @@
         <v>128.8</v>
       </c>
       <c r="F124" t="n">
-        <v>56</v>
+        <v>5961.7885</v>
       </c>
       <c r="G124" t="n">
-        <v>126.075</v>
+        <v>126.0283333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5424,7 +5110,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5452,10 +5138,10 @@
         <v>128.8</v>
       </c>
       <c r="F125" t="n">
-        <v>11487.9045</v>
+        <v>56</v>
       </c>
       <c r="G125" t="n">
-        <v>126.1083333333333</v>
+        <v>126.075</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5465,7 +5151,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5481,22 +5167,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>129</v>
+        <v>128.8</v>
       </c>
       <c r="C126" t="n">
-        <v>132</v>
+        <v>128.8</v>
       </c>
       <c r="D126" t="n">
-        <v>132</v>
+        <v>128.8</v>
       </c>
       <c r="E126" t="n">
-        <v>129</v>
+        <v>128.8</v>
       </c>
       <c r="F126" t="n">
-        <v>18109.426</v>
+        <v>11487.9045</v>
       </c>
       <c r="G126" t="n">
-        <v>126.1966666666666</v>
+        <v>126.1083333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5506,7 +5192,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5522,22 +5208,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C127" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D127" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E127" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F127" t="n">
-        <v>24531.17083691177</v>
+        <v>18109.426</v>
       </c>
       <c r="G127" t="n">
-        <v>126.38</v>
+        <v>126.1966666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5547,7 +5233,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5563,22 +5249,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C128" t="n">
-        <v>136.5</v>
+        <v>136</v>
       </c>
       <c r="D128" t="n">
-        <v>136.5</v>
+        <v>136</v>
       </c>
       <c r="E128" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="F128" t="n">
-        <v>12609.1132</v>
+        <v>24531.17083691177</v>
       </c>
       <c r="G128" t="n">
-        <v>126.5383333333333</v>
+        <v>126.38</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5588,7 +5274,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5604,22 +5290,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>135</v>
+      </c>
+      <c r="C129" t="n">
         <v>136.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>136.4</v>
       </c>
       <c r="D129" t="n">
         <v>136.5</v>
       </c>
       <c r="E129" t="n">
-        <v>136.4</v>
+        <v>134.9</v>
       </c>
       <c r="F129" t="n">
-        <v>13823.8166</v>
+        <v>12609.1132</v>
       </c>
       <c r="G129" t="n">
-        <v>126.695</v>
+        <v>126.5383333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5629,7 +5315,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5645,22 +5331,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C130" t="n">
         <v>136.4</v>
       </c>
-      <c r="C130" t="n">
-        <v>135</v>
-      </c>
       <c r="D130" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E130" t="n">
         <v>136.4</v>
       </c>
-      <c r="E130" t="n">
-        <v>135</v>
-      </c>
       <c r="F130" t="n">
-        <v>3525.8631</v>
+        <v>13823.8166</v>
       </c>
       <c r="G130" t="n">
-        <v>126.8116666666666</v>
+        <v>126.695</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5670,7 +5356,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>129.8</v>
+        <v>126</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5678,7 +5364,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>1.035061633281972</v>
+        <v>1.077539682539683</v>
       </c>
     </row>
     <row r="131">
@@ -5686,22 +5372,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C131" t="n">
         <v>135</v>
       </c>
-      <c r="C131" t="n">
-        <v>134</v>
-      </c>
       <c r="D131" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E131" t="n">
         <v>135</v>
       </c>
-      <c r="E131" t="n">
-        <v>134</v>
-      </c>
       <c r="F131" t="n">
-        <v>8426.9476</v>
+        <v>3525.8631</v>
       </c>
       <c r="G131" t="n">
-        <v>126.9116666666666</v>
+        <v>126.8116666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5716,6 +5402,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>135</v>
+      </c>
+      <c r="C132" t="n">
+        <v>134</v>
+      </c>
+      <c r="D132" t="n">
+        <v>135</v>
+      </c>
+      <c r="E132" t="n">
+        <v>134</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8426.9476</v>
+      </c>
+      <c r="G132" t="n">
+        <v>126.9116666666666</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>12.3897</v>
       </c>
       <c r="G2" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="H2" t="n">
         <v>135.3616666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>21.1864</v>
       </c>
       <c r="G3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>135.1683333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6.6742</v>
       </c>
       <c r="G4" t="n">
+        <v>130.26</v>
+      </c>
+      <c r="H4" t="n">
         <v>135.0916666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10830.1717</v>
       </c>
       <c r="G5" t="n">
+        <v>130.2800000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>134.9633333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>46250.5491</v>
       </c>
       <c r="G6" t="n">
+        <v>130.2666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>134.81</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>18574.4359</v>
       </c>
       <c r="G7" t="n">
+        <v>130.2200000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>134.49</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>35284.64</v>
       </c>
       <c r="G8" t="n">
+        <v>130.2000000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>134.1233333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5578.299</v>
       </c>
       <c r="G9" t="n">
+        <v>130.0600000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>133.8066666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>374.9613</v>
       </c>
       <c r="G10" t="n">
+        <v>129.7266666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>133.4733333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>752</v>
       </c>
       <c r="G11" t="n">
+        <v>129.6666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>133.22</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2518.5389</v>
       </c>
       <c r="G12" t="n">
+        <v>129.6066666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>133.0016666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>135.3297</v>
       </c>
       <c r="G13" t="n">
+        <v>129.5200000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>132.8016666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1940.1226</v>
       </c>
       <c r="G14" t="n">
+        <v>129.4866666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>132.5816666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>376</v>
       </c>
       <c r="G15" t="n">
+        <v>129.3333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>132.365</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>12702.5842</v>
       </c>
       <c r="G16" t="n">
+        <v>129.2466666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>132.1466666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>6005.6286</v>
       </c>
       <c r="G17" t="n">
+        <v>129.1466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>131.8716666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10976.0437</v>
       </c>
       <c r="G18" t="n">
+        <v>128.9866666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>131.6383333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>712</v>
       </c>
       <c r="G19" t="n">
+        <v>128.84</v>
+      </c>
+      <c r="H19" t="n">
         <v>131.4466666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>401.8926</v>
       </c>
       <c r="G20" t="n">
+        <v>128.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>131.305</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>14440.6569</v>
       </c>
       <c r="G21" t="n">
+        <v>128.66</v>
+      </c>
+      <c r="H21" t="n">
         <v>131.1683333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3883.458</v>
       </c>
       <c r="G22" t="n">
+        <v>128.42</v>
+      </c>
+      <c r="H22" t="n">
         <v>130.9883333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3081.1327</v>
       </c>
       <c r="G23" t="n">
+        <v>128.1666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>130.8416666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3997</v>
       </c>
       <c r="G24" t="n">
+        <v>128.3066666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>130.7166666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2407.1744</v>
       </c>
       <c r="G25" t="n">
+        <v>128.44</v>
+      </c>
+      <c r="H25" t="n">
         <v>130.6</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1515</v>
       </c>
       <c r="G26" t="n">
+        <v>128.2533333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>130.4966666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>6588.7285</v>
       </c>
       <c r="G27" t="n">
+        <v>128.14</v>
+      </c>
+      <c r="H27" t="n">
         <v>130.35</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>5772.782</v>
       </c>
       <c r="G28" t="n">
+        <v>128.02</v>
+      </c>
+      <c r="H28" t="n">
         <v>130.23</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>6135.9839</v>
       </c>
       <c r="G29" t="n">
+        <v>127.78</v>
+      </c>
+      <c r="H29" t="n">
         <v>130.0966666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>6168.5911</v>
       </c>
       <c r="G30" t="n">
+        <v>127.6466666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>129.93</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>11022.1271</v>
       </c>
       <c r="G31" t="n">
+        <v>127.4466666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>129.78</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>38249.5314</v>
       </c>
       <c r="G32" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>129.6566666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>9004.7618</v>
       </c>
       <c r="G33" t="n">
+        <v>127</v>
+      </c>
+      <c r="H33" t="n">
         <v>129.4983333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>18610.7136</v>
       </c>
       <c r="G34" t="n">
+        <v>126.72</v>
+      </c>
+      <c r="H34" t="n">
         <v>129.3716666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>25959.9531</v>
       </c>
       <c r="G35" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="H35" t="n">
         <v>129.3</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>12527.7071</v>
       </c>
       <c r="G36" t="n">
+        <v>126.6466666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>129.2516666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>6595.4266</v>
       </c>
       <c r="G37" t="n">
+        <v>126.76</v>
+      </c>
+      <c r="H37" t="n">
         <v>129.1899999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>80.05419999999999</v>
       </c>
       <c r="G38" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="H38" t="n">
         <v>129.1233333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>2240.8962</v>
       </c>
       <c r="G39" t="n">
+        <v>126.7933333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>129.0433333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2116.7923</v>
       </c>
       <c r="G40" t="n">
+        <v>126.6666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>128.9233333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>35719.2853</v>
       </c>
       <c r="G41" t="n">
+        <v>126.42</v>
+      </c>
+      <c r="H41" t="n">
         <v>128.7633333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>7663.1212</v>
       </c>
       <c r="G42" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="H42" t="n">
         <v>128.7266666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>2575.9999</v>
       </c>
       <c r="G43" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="H43" t="n">
         <v>128.6883333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1588.9998</v>
       </c>
       <c r="G44" t="n">
+        <v>126.8066666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>128.6183333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>14801.6287</v>
       </c>
       <c r="G45" t="n">
+        <v>127.0666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>128.5649999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>14940.0884</v>
       </c>
       <c r="G46" t="n">
+        <v>127.1266666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>128.4983333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5656</v>
       </c>
       <c r="G47" t="n">
+        <v>127.3266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>128.4683333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>200</v>
       </c>
       <c r="G48" t="n">
+        <v>127.5266666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>128.4283333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1189</v>
       </c>
       <c r="G49" t="n">
+        <v>127.7266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>128.3866666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1545</v>
       </c>
       <c r="G50" t="n">
+        <v>127.66</v>
+      </c>
+      <c r="H50" t="n">
         <v>128.3433333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>6386.5883</v>
       </c>
       <c r="G51" t="n">
+        <v>127.6733333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>128.3116666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>827</v>
       </c>
       <c r="G52" t="n">
+        <v>127.6866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>128.2716666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>2961.7012</v>
       </c>
       <c r="G53" t="n">
+        <v>127.6933333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>128.2349999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2489.1525</v>
       </c>
       <c r="G54" t="n">
+        <v>127.7533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>128.2283333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>136.8418</v>
       </c>
       <c r="G55" t="n">
+        <v>127.8133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>128.1616666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2971.8705</v>
       </c>
       <c r="G56" t="n">
+        <v>127.9333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>128.0683333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>5873.9678</v>
       </c>
       <c r="G57" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="H57" t="n">
         <v>128.0216666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>3748.9788</v>
       </c>
       <c r="G58" t="n">
+        <v>127.6266666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>127.9666666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>7911.8489</v>
       </c>
       <c r="G59" t="n">
+        <v>127.6399999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>127.9283333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>11933.7177</v>
       </c>
       <c r="G60" t="n">
+        <v>127.5733333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>127.9049999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>55</v>
       </c>
       <c r="G61" t="n">
+        <v>127.5133333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>127.8333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>7207.5645</v>
       </c>
       <c r="G62" t="n">
+        <v>127.4333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>127.7766666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>7567.1719</v>
       </c>
       <c r="G63" t="n">
+        <v>127.3666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>127.7199999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>735</v>
       </c>
       <c r="G64" t="n">
+        <v>127.3333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>127.6549999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>5058.8652</v>
       </c>
       <c r="G65" t="n">
+        <v>127.2399999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>127.5833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,22 +2885,21 @@
         <v>25</v>
       </c>
       <c r="G66" t="n">
+        <v>127.1533333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>127.5333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>126</v>
-      </c>
-      <c r="K66" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2727,24 +2923,21 @@
         <v>568</v>
       </c>
       <c r="G67" t="n">
+        <v>127.0599999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>127.4816666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>126</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,24 +2961,21 @@
         <v>500.9882</v>
       </c>
       <c r="G68" t="n">
+        <v>126.8533333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>127.3983333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>126</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,24 +2999,21 @@
         <v>479</v>
       </c>
       <c r="G69" t="n">
+        <v>126.78</v>
+      </c>
+      <c r="H69" t="n">
         <v>127.4083333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>126</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,24 +3037,21 @@
         <v>499</v>
       </c>
       <c r="G70" t="n">
+        <v>126.78</v>
+      </c>
+      <c r="H70" t="n">
         <v>127.4249999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>126</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,24 +3075,21 @@
         <v>1464.8705</v>
       </c>
       <c r="G71" t="n">
+        <v>126.96</v>
+      </c>
+      <c r="H71" t="n">
         <v>127.3916666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>126</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,24 +3113,21 @@
         <v>0.1789</v>
       </c>
       <c r="G72" t="n">
+        <v>127.0266666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>127.3766666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>126</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2973,24 +3151,21 @@
         <v>145</v>
       </c>
       <c r="G73" t="n">
+        <v>126.96</v>
+      </c>
+      <c r="H73" t="n">
         <v>127.3266666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>126</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,24 +3189,21 @@
         <v>2869.282</v>
       </c>
       <c r="G74" t="n">
+        <v>126.8333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>127.2649999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>126</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,24 +3227,21 @@
         <v>9927.509700000001</v>
       </c>
       <c r="G75" t="n">
+        <v>126.6466666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>127.2333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>126</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,24 +3265,21 @@
         <v>4610</v>
       </c>
       <c r="G76" t="n">
+        <v>126.6533333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>127.185</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>126</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3137,26 +3303,21 @@
         <v>1164.5388</v>
       </c>
       <c r="G77" t="n">
+        <v>126.5933333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>127.1383333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>126</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,24 +3341,21 @@
         <v>1708.0863</v>
       </c>
       <c r="G78" t="n">
+        <v>126.5266666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>127.105</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>126</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3221,26 +3379,21 @@
         <v>1189</v>
       </c>
       <c r="G79" t="n">
+        <v>126.4599999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>127.06</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>126</v>
-      </c>
-      <c r="K79" t="n">
-        <v>126</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,24 +3417,21 @@
         <v>4124.3437</v>
       </c>
       <c r="G80" t="n">
+        <v>126.3933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>126.9983333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>126</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3305,26 +3455,21 @@
         <v>9103.3109</v>
       </c>
       <c r="G81" t="n">
+        <v>126.2733333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>126.9366666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>125</v>
-      </c>
-      <c r="K81" t="n">
-        <v>126</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,26 +3493,21 @@
         <v>6866.9229</v>
       </c>
       <c r="G82" t="n">
+        <v>126.1599999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>126.9166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>125</v>
-      </c>
-      <c r="K82" t="n">
-        <v>126</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,26 +3531,21 @@
         <v>12556.6195</v>
       </c>
       <c r="G83" t="n">
+        <v>126.1599999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>126.8966666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>125</v>
-      </c>
-      <c r="K83" t="n">
-        <v>126</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,24 +3569,21 @@
         <v>15462.3186</v>
       </c>
       <c r="G84" t="n">
+        <v>126.0933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>126.855</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>126</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,26 +3607,21 @@
         <v>22705.2206</v>
       </c>
       <c r="G85" t="n">
+        <v>125.9399999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>126.8</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>126</v>
-      </c>
-      <c r="K85" t="n">
-        <v>126</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,24 +3645,21 @@
         <v>550</v>
       </c>
       <c r="G86" t="n">
+        <v>125.6733333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>126.7466666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>126</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,26 +3683,21 @@
         <v>4</v>
       </c>
       <c r="G87" t="n">
+        <v>125.5333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>126.725</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>124</v>
-      </c>
-      <c r="K87" t="n">
-        <v>126</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,26 +3721,21 @@
         <v>2226.6263</v>
       </c>
       <c r="G88" t="n">
+        <v>125.3333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>126.655</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>126</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,26 +3759,21 @@
         <v>2758.0915</v>
       </c>
       <c r="G89" t="n">
+        <v>125.2466666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>126.6316666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>123</v>
-      </c>
-      <c r="K89" t="n">
-        <v>126</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,26 +3797,21 @@
         <v>20353.0797</v>
       </c>
       <c r="G90" t="n">
+        <v>125.2133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>126.625</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>126</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3731,26 +3835,21 @@
         <v>24317.2775</v>
       </c>
       <c r="G91" t="n">
+        <v>125.0733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>126.5916666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>126</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,26 +3873,21 @@
         <v>5992.0515</v>
       </c>
       <c r="G92" t="n">
+        <v>124.9266666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>126.57</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>124</v>
-      </c>
-      <c r="K92" t="n">
-        <v>126</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3817,26 +3911,21 @@
         <v>762.2328</v>
       </c>
       <c r="G93" t="n">
+        <v>124.7866666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>126.5516666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>126</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,26 +3949,27 @@
         <v>2934.3926</v>
       </c>
       <c r="G94" t="n">
+        <v>124.6533333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>126.5433333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
         <v>123.9</v>
       </c>
-      <c r="K94" t="n">
-        <v>126</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3903,26 +3993,27 @@
         <v>3821.0851</v>
       </c>
       <c r="G95" t="n">
+        <v>124.5866666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>126.47</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
         <v>124</v>
       </c>
-      <c r="K95" t="n">
-        <v>126</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,26 +4037,27 @@
         <v>5295.6057</v>
       </c>
       <c r="G96" t="n">
+        <v>124.52</v>
+      </c>
+      <c r="H96" t="n">
         <v>126.405</v>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
         <v>124</v>
       </c>
-      <c r="K96" t="n">
-        <v>126</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,26 +4081,27 @@
         <v>31.4151</v>
       </c>
       <c r="G97" t="n">
+        <v>124.3866666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>126.3233333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
         <v>124</v>
       </c>
-      <c r="K97" t="n">
-        <v>126</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,26 +4125,27 @@
         <v>33771.9406</v>
       </c>
       <c r="G98" t="n">
+        <v>124.1066666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>126.2033333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
         <v>123</v>
       </c>
-      <c r="K98" t="n">
-        <v>126</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,24 +4169,27 @@
         <v>2059</v>
       </c>
       <c r="G99" t="n">
+        <v>124.06</v>
+      </c>
+      <c r="H99" t="n">
         <v>126.1716666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>126</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>120.8</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,24 +4213,27 @@
         <v>825.7637</v>
       </c>
       <c r="G100" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="H100" t="n">
         <v>126.1533333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>126</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>125.3</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,24 +4257,27 @@
         <v>17045.9589</v>
       </c>
       <c r="G101" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="H101" t="n">
         <v>126.1766666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="n">
-        <v>126</v>
-      </c>
-      <c r="L101" t="inlineStr">
+        <v>125</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,24 +4301,27 @@
         <v>10192.3436</v>
       </c>
       <c r="G102" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="H102" t="n">
         <v>126.095</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="n">
-        <v>126</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>124.9</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,24 +4345,27 @@
         <v>7.1096</v>
       </c>
       <c r="G103" t="n">
+        <v>124.24</v>
+      </c>
+      <c r="H103" t="n">
         <v>126.04</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
-        <v>126</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>125</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,24 +4389,27 @@
         <v>16390.7324</v>
       </c>
       <c r="G104" t="n">
+        <v>124.28</v>
+      </c>
+      <c r="H104" t="n">
         <v>126</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
-        <v>126</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>125.4</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,24 +4433,27 @@
         <v>7949.6468</v>
       </c>
       <c r="G105" t="n">
+        <v>124.24</v>
+      </c>
+      <c r="H105" t="n">
         <v>125.9183333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
-        <v>126</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>125.4</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,24 +4477,27 @@
         <v>754.4882</v>
       </c>
       <c r="G106" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="H106" t="n">
         <v>125.885</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>126</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>125</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,24 +4521,27 @@
         <v>1789</v>
       </c>
       <c r="G107" t="n">
+        <v>124.56</v>
+      </c>
+      <c r="H107" t="n">
         <v>125.8783333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>126</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>124.9</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,24 +4565,27 @@
         <v>335</v>
       </c>
       <c r="G108" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="H108" t="n">
         <v>125.845</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
-        <v>126</v>
-      </c>
-      <c r="L108" t="inlineStr">
+        <v>127.8</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,24 +4609,27 @@
         <v>335</v>
       </c>
       <c r="G109" t="n">
+        <v>124.8333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>125.82</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
         <v>126</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,24 +4653,27 @@
         <v>1204.9999</v>
       </c>
       <c r="G110" t="n">
+        <v>124.94</v>
+      </c>
+      <c r="H110" t="n">
         <v>125.79</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
         <v>126</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,24 +4697,27 @@
         <v>6996.6867</v>
       </c>
       <c r="G111" t="n">
+        <v>125.1866666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>125.7833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
-        <v>126</v>
-      </c>
-      <c r="L111" t="inlineStr">
+        <v>125.6</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,24 +4741,27 @@
         <v>2309.4784</v>
       </c>
       <c r="G112" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="H112" t="n">
         <v>125.7766666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
-        <v>126</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>127.7</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,24 +4785,27 @@
         <v>7665.988751357641</v>
       </c>
       <c r="G113" t="n">
+        <v>126.04</v>
+      </c>
+      <c r="H113" t="n">
         <v>125.79</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
-        <v>126</v>
-      </c>
-      <c r="L113" t="inlineStr">
+        <v>127.7</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,24 +4829,27 @@
         <v>748.0741</v>
       </c>
       <c r="G114" t="n">
+        <v>126.28</v>
+      </c>
+      <c r="H114" t="n">
         <v>125.8033333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="n">
-        <v>126</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>128.9</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,24 +4873,27 @@
         <v>400</v>
       </c>
       <c r="G115" t="n">
+        <v>126.46</v>
+      </c>
+      <c r="H115" t="n">
         <v>125.815</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="n">
-        <v>126</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>128.9</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,24 +4917,27 @@
         <v>3673.631</v>
       </c>
       <c r="G116" t="n">
+        <v>126.7266666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>125.875</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="n">
-        <v>126</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>127.7</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,24 +4961,27 @@
         <v>10498.9587</v>
       </c>
       <c r="G117" t="n">
+        <v>126.9866666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>125.9066666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
-        <v>126</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>128.9</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,24 +5005,27 @@
         <v>1536.4608</v>
       </c>
       <c r="G118" t="n">
+        <v>127.2066666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>125.935</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>126</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>128.9</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4895,24 +5049,27 @@
         <v>410.123</v>
       </c>
       <c r="G119" t="n">
+        <v>127.4266666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>125.9466666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>126</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>128.7</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,24 +5093,27 @@
         <v>353.7645</v>
       </c>
       <c r="G120" t="n">
+        <v>127.5333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>125.9083333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>126</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>128.7</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4977,24 +5137,27 @@
         <v>514</v>
       </c>
       <c r="G121" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="H121" t="n">
         <v>125.9416666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>126</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>126.6</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,24 +5181,27 @@
         <v>635.4807</v>
       </c>
       <c r="G122" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H122" t="n">
         <v>125.97</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>126</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>128</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,24 +5225,27 @@
         <v>2467.4124</v>
       </c>
       <c r="G123" t="n">
+        <v>127.98</v>
+      </c>
+      <c r="H123" t="n">
         <v>125.9983333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>126</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>128.7</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,24 +5269,27 @@
         <v>5961.7885</v>
       </c>
       <c r="G124" t="n">
+        <v>128.1666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>126.0283333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>126</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>128.7</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,24 +5313,27 @@
         <v>56</v>
       </c>
       <c r="G125" t="n">
+        <v>128.38</v>
+      </c>
+      <c r="H125" t="n">
         <v>126.075</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>126</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>128.8</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,24 +5357,27 @@
         <v>11487.9045</v>
       </c>
       <c r="G126" t="n">
+        <v>128.4533333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>126.1083333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>126</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>128.8</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5223,24 +5401,25 @@
         <v>18109.426</v>
       </c>
       <c r="G127" t="n">
+        <v>128.74</v>
+      </c>
+      <c r="H127" t="n">
         <v>126.1966666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>126</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,24 +5443,25 @@
         <v>24531.17083691177</v>
       </c>
       <c r="G128" t="n">
+        <v>129.2133333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>126.38</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>126</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5305,24 +5485,25 @@
         <v>12609.1132</v>
       </c>
       <c r="G129" t="n">
+        <v>129.72</v>
+      </c>
+      <c r="H129" t="n">
         <v>126.5383333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>126</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5346,25 +5527,26 @@
         <v>13823.8166</v>
       </c>
       <c r="G130" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="H130" t="n">
         <v>126.695</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>126</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1.077539682539683</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5387,18 +5569,25 @@
         <v>3525.8631</v>
       </c>
       <c r="G131" t="n">
+        <v>130.7066666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>126.8116666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,18 +5611,445 @@
         <v>8426.9476</v>
       </c>
       <c r="G132" t="n">
+        <v>131.0466666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>126.9116666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>134</v>
+      </c>
+      <c r="C133" t="n">
+        <v>134</v>
+      </c>
+      <c r="D133" t="n">
+        <v>134</v>
+      </c>
+      <c r="E133" t="n">
+        <v>134</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3305.39552238806</v>
+      </c>
+      <c r="G133" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="H133" t="n">
+        <v>127.045</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>134</v>
+      </c>
+      <c r="C134" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>134</v>
+      </c>
+      <c r="E134" t="n">
+        <v>132</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3136.2139</v>
+      </c>
+      <c r="G134" t="n">
+        <v>131.6933333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>127.1616666666666</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>134</v>
+      </c>
+      <c r="D135" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>133</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2471.2747</v>
+      </c>
+      <c r="G135" t="n">
+        <v>132.1866666666666</v>
+      </c>
+      <c r="H135" t="n">
+        <v>127.2933333333333</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="n">
+        <v>134</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2629</v>
+      </c>
+      <c r="G136" t="n">
+        <v>132.5866666666666</v>
+      </c>
+      <c r="H136" t="n">
+        <v>127.425</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>134</v>
+      </c>
+      <c r="C137" t="n">
+        <v>133</v>
+      </c>
+      <c r="D137" t="n">
+        <v>134</v>
+      </c>
+      <c r="E137" t="n">
+        <v>133</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5993.1725</v>
+      </c>
+      <c r="G137" t="n">
+        <v>132.8733333333333</v>
+      </c>
+      <c r="H137" t="n">
+        <v>127.5399999999999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>17660.493</v>
+      </c>
+      <c r="G138" t="n">
+        <v>133.2666666666667</v>
+      </c>
+      <c r="H138" t="n">
+        <v>127.6833333333333</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>171.427</v>
+      </c>
+      <c r="G139" t="n">
+        <v>133.7066666666666</v>
+      </c>
+      <c r="H139" t="n">
+        <v>127.8399999999999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3006.9139</v>
+      </c>
+      <c r="G140" t="n">
+        <v>134.0933333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>128</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8855.4354</v>
+      </c>
+      <c r="G141" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>128.1649999999999</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>135</v>
+      </c>
+      <c r="D142" t="n">
+        <v>135</v>
+      </c>
+      <c r="E142" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11035.1996</v>
+      </c>
+      <c r="G142" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="H142" t="n">
+        <v>128.3316666666666</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130.4</v>
+        <v>132.6</v>
       </c>
       <c r="C2" t="n">
-        <v>130.4</v>
+        <v>134.5</v>
       </c>
       <c r="D2" t="n">
-        <v>130.4</v>
+        <v>134.5</v>
       </c>
       <c r="E2" t="n">
-        <v>130.4</v>
+        <v>132.6</v>
       </c>
       <c r="F2" t="n">
-        <v>12.3897</v>
+        <v>3712.1236</v>
       </c>
       <c r="G2" t="n">
-        <v>130.2</v>
+        <v>594533.0542048541</v>
       </c>
       <c r="H2" t="n">
-        <v>135.3616666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>130.4</v>
+        <v>133.8</v>
       </c>
       <c r="C3" t="n">
-        <v>130.4</v>
+        <v>132.1</v>
       </c>
       <c r="D3" t="n">
-        <v>130.4</v>
+        <v>133.8</v>
       </c>
       <c r="E3" t="n">
-        <v>130.4</v>
+        <v>132.1</v>
       </c>
       <c r="F3" t="n">
-        <v>21.1864</v>
+        <v>23847.8473</v>
       </c>
       <c r="G3" t="n">
-        <v>130.2</v>
+        <v>570685.206904854</v>
       </c>
       <c r="H3" t="n">
-        <v>135.1683333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>130.9</v>
+        <v>132</v>
       </c>
       <c r="C4" t="n">
-        <v>130.9</v>
+        <v>132.7</v>
       </c>
       <c r="D4" t="n">
-        <v>130.9</v>
+        <v>132.7</v>
       </c>
       <c r="E4" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="F4" t="n">
-        <v>6.6742</v>
+        <v>69093.6727</v>
       </c>
       <c r="G4" t="n">
-        <v>130.26</v>
+        <v>639778.879604854</v>
       </c>
       <c r="H4" t="n">
-        <v>135.0916666666667</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>132.1</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>131</v>
+        <v>130.8</v>
       </c>
       <c r="C5" t="n">
-        <v>130.3</v>
+        <v>130.8</v>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>130.8</v>
       </c>
       <c r="E5" t="n">
-        <v>130.3</v>
+        <v>129.5</v>
       </c>
       <c r="F5" t="n">
-        <v>10830.1717</v>
+        <v>46554.819</v>
       </c>
       <c r="G5" t="n">
-        <v>130.2800000000001</v>
+        <v>593224.060604854</v>
       </c>
       <c r="H5" t="n">
-        <v>134.9633333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +583,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>130.3</v>
+        <v>133.7</v>
       </c>
       <c r="C6" t="n">
-        <v>129.8</v>
+        <v>131.6</v>
       </c>
       <c r="D6" t="n">
-        <v>130.9</v>
+        <v>133.7</v>
       </c>
       <c r="E6" t="n">
-        <v>128.4</v>
+        <v>130.1</v>
       </c>
       <c r="F6" t="n">
-        <v>46250.5491</v>
+        <v>10997.39461323308</v>
       </c>
       <c r="G6" t="n">
-        <v>130.2666666666667</v>
+        <v>604221.4552180871</v>
       </c>
       <c r="H6" t="n">
-        <v>134.81</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>130.8</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +624,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>129.8</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
-        <v>129.8</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>130.8</v>
+        <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F7" t="n">
-        <v>18574.4359</v>
+        <v>2360.9998</v>
       </c>
       <c r="G7" t="n">
-        <v>130.2200000000001</v>
+        <v>606582.4550180871</v>
       </c>
       <c r="H7" t="n">
-        <v>134.49</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>131.6</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +665,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>133.6</v>
       </c>
       <c r="C8" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>133.6</v>
       </c>
       <c r="E8" t="n">
-        <v>126.5</v>
+        <v>132</v>
       </c>
       <c r="F8" t="n">
-        <v>35284.64</v>
+        <v>6711.6604</v>
       </c>
       <c r="G8" t="n">
-        <v>130.2000000000001</v>
+        <v>606582.4550180871</v>
       </c>
       <c r="H8" t="n">
-        <v>134.1233333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +704,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127.5</v>
+        <v>132</v>
       </c>
       <c r="C9" t="n">
-        <v>126.4</v>
+        <v>133.3</v>
       </c>
       <c r="D9" t="n">
-        <v>127.5</v>
+        <v>133.3</v>
       </c>
       <c r="E9" t="n">
-        <v>126.4</v>
+        <v>132</v>
       </c>
       <c r="F9" t="n">
-        <v>5578.299</v>
+        <v>5712.7564</v>
       </c>
       <c r="G9" t="n">
-        <v>130.0600000000001</v>
+        <v>612295.211418087</v>
       </c>
       <c r="H9" t="n">
-        <v>133.8066666666667</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +745,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126</v>
+        <v>133.1</v>
       </c>
       <c r="C10" t="n">
-        <v>126</v>
+        <v>133.1</v>
       </c>
       <c r="D10" t="n">
-        <v>126</v>
+        <v>133.1</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>133.1</v>
       </c>
       <c r="F10" t="n">
-        <v>374.9613</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>129.7266666666667</v>
+        <v>612291.211418087</v>
       </c>
       <c r="H10" t="n">
-        <v>133.4733333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +784,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128</v>
+        <v>133.3</v>
       </c>
       <c r="C11" t="n">
-        <v>130</v>
+        <v>132.1</v>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>133.3</v>
       </c>
       <c r="E11" t="n">
-        <v>128</v>
+        <v>128.1</v>
       </c>
       <c r="F11" t="n">
-        <v>752</v>
+        <v>9457.756600000001</v>
       </c>
       <c r="G11" t="n">
-        <v>129.6666666666667</v>
+        <v>602833.454818087</v>
       </c>
       <c r="H11" t="n">
-        <v>133.22</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +823,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>128</v>
+        <v>132.1</v>
       </c>
       <c r="C12" t="n">
-        <v>128.9</v>
+        <v>131</v>
       </c>
       <c r="D12" t="n">
-        <v>128.9</v>
+        <v>134.9</v>
       </c>
       <c r="E12" t="n">
-        <v>127</v>
+        <v>128.1</v>
       </c>
       <c r="F12" t="n">
-        <v>2518.5389</v>
+        <v>37705.65368206079</v>
       </c>
       <c r="G12" t="n">
-        <v>129.6066666666667</v>
+        <v>565127.8011360263</v>
       </c>
       <c r="H12" t="n">
-        <v>133.0016666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +862,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D13" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" t="n">
-        <v>135.3297</v>
+        <v>3493.7111</v>
       </c>
       <c r="G13" t="n">
-        <v>129.5200000000001</v>
+        <v>568621.5122360262</v>
       </c>
       <c r="H13" t="n">
-        <v>132.8016666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +901,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
-        <v>129.8</v>
+        <v>133.1</v>
       </c>
       <c r="D14" t="n">
-        <v>129.8</v>
+        <v>133.1</v>
       </c>
       <c r="E14" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
-        <v>1940.1226</v>
+        <v>14013.075</v>
       </c>
       <c r="G14" t="n">
-        <v>129.4866666666668</v>
+        <v>582634.5872360262</v>
       </c>
       <c r="H14" t="n">
-        <v>132.5816666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,74 +940,70 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128</v>
+        <v>133.9</v>
       </c>
       <c r="C15" t="n">
-        <v>128</v>
+        <v>130.9</v>
       </c>
       <c r="D15" t="n">
-        <v>128</v>
+        <v>133.9</v>
       </c>
       <c r="E15" t="n">
-        <v>128</v>
+        <v>130.9</v>
       </c>
       <c r="F15" t="n">
-        <v>376</v>
+        <v>248.0732</v>
       </c>
       <c r="G15" t="n">
-        <v>129.3333333333334</v>
+        <v>582386.5140360262</v>
       </c>
       <c r="H15" t="n">
-        <v>132.365</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>128</v>
+        <v>130.7</v>
       </c>
       <c r="C16" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" t="n">
-        <v>129.9</v>
+        <v>131.7</v>
       </c>
       <c r="E16" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F16" t="n">
-        <v>12702.5842</v>
+        <v>11100.742</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2466666666667</v>
+        <v>571285.7720360262</v>
       </c>
       <c r="H16" t="n">
-        <v>132.1466666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1012,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>127.2</v>
+        <v>130.1</v>
       </c>
       <c r="C17" t="n">
-        <v>128.9</v>
+        <v>130.4</v>
       </c>
       <c r="D17" t="n">
-        <v>128.9</v>
+        <v>130.4</v>
       </c>
       <c r="E17" t="n">
-        <v>126.1</v>
+        <v>130.1</v>
       </c>
       <c r="F17" t="n">
-        <v>6005.6286</v>
+        <v>21342.3757</v>
       </c>
       <c r="G17" t="n">
-        <v>129.1466666666667</v>
+        <v>592628.1477360262</v>
       </c>
       <c r="H17" t="n">
-        <v>131.8716666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1047,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>127.1</v>
+        <v>130.4</v>
       </c>
       <c r="C18" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" t="n">
-        <v>128</v>
+        <v>130.4</v>
       </c>
       <c r="E18" t="n">
-        <v>127.1</v>
+        <v>130</v>
       </c>
       <c r="F18" t="n">
-        <v>10976.0437</v>
+        <v>3647.5248</v>
       </c>
       <c r="G18" t="n">
-        <v>128.9866666666667</v>
+        <v>588980.6229360262</v>
       </c>
       <c r="H18" t="n">
-        <v>131.6383333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1082,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>127.7</v>
+        <v>130</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7</v>
+        <v>130</v>
       </c>
       <c r="D19" t="n">
-        <v>128.7</v>
+        <v>130</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7</v>
+        <v>128</v>
       </c>
       <c r="F19" t="n">
-        <v>712</v>
+        <v>33338.0921</v>
       </c>
       <c r="G19" t="n">
-        <v>128.84</v>
+        <v>588980.6229360262</v>
       </c>
       <c r="H19" t="n">
-        <v>131.4466666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1117,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>128.7</v>
+        <v>130</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7</v>
+        <v>130</v>
       </c>
       <c r="D20" t="n">
-        <v>128.7</v>
+        <v>130</v>
       </c>
       <c r="E20" t="n">
-        <v>128.7</v>
+        <v>130</v>
       </c>
       <c r="F20" t="n">
-        <v>401.8926</v>
+        <v>3268.3237</v>
       </c>
       <c r="G20" t="n">
-        <v>128.7333333333333</v>
+        <v>588980.6229360262</v>
       </c>
       <c r="H20" t="n">
-        <v>131.305</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1152,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>127.2</v>
+        <v>130.3</v>
       </c>
       <c r="C21" t="n">
-        <v>128.7</v>
+        <v>130.5</v>
       </c>
       <c r="D21" t="n">
-        <v>129.8</v>
+        <v>130.5</v>
       </c>
       <c r="E21" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="F21" t="n">
-        <v>14440.6569</v>
+        <v>15245.8628</v>
       </c>
       <c r="G21" t="n">
-        <v>128.66</v>
+        <v>604226.4857360262</v>
       </c>
       <c r="H21" t="n">
-        <v>131.1683333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1187,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>127.2</v>
+        <v>130.5</v>
       </c>
       <c r="C22" t="n">
-        <v>126.2</v>
+        <v>130.3</v>
       </c>
       <c r="D22" t="n">
-        <v>127.2</v>
+        <v>130.5</v>
       </c>
       <c r="E22" t="n">
-        <v>126.2</v>
+        <v>130.3</v>
       </c>
       <c r="F22" t="n">
-        <v>3883.458</v>
+        <v>13082.474</v>
       </c>
       <c r="G22" t="n">
-        <v>128.42</v>
+        <v>591144.0117360262</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9883333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1222,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>127.2</v>
+        <v>130.2</v>
       </c>
       <c r="C23" t="n">
-        <v>126.2</v>
+        <v>128.5</v>
       </c>
       <c r="D23" t="n">
-        <v>127.2</v>
+        <v>130.4</v>
       </c>
       <c r="E23" t="n">
-        <v>126.2</v>
+        <v>128.5</v>
       </c>
       <c r="F23" t="n">
-        <v>3081.1327</v>
+        <v>12574.4947</v>
       </c>
       <c r="G23" t="n">
-        <v>128.1666666666667</v>
+        <v>578569.5170360261</v>
       </c>
       <c r="H23" t="n">
-        <v>130.8416666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1257,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>127.5</v>
+        <v>131</v>
       </c>
       <c r="C24" t="n">
-        <v>128.5</v>
+        <v>131</v>
       </c>
       <c r="D24" t="n">
-        <v>128.5</v>
+        <v>131</v>
       </c>
       <c r="E24" t="n">
-        <v>127.5</v>
+        <v>131</v>
       </c>
       <c r="F24" t="n">
-        <v>3997</v>
+        <v>3.9307</v>
       </c>
       <c r="G24" t="n">
-        <v>128.3066666666667</v>
+        <v>578573.4477360261</v>
       </c>
       <c r="H24" t="n">
-        <v>130.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1292,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>128.6</v>
       </c>
       <c r="C25" t="n">
-        <v>128</v>
+        <v>130.9</v>
       </c>
       <c r="D25" t="n">
-        <v>128</v>
+        <v>130.9</v>
       </c>
       <c r="E25" t="n">
-        <v>127.2</v>
+        <v>128.6</v>
       </c>
       <c r="F25" t="n">
-        <v>2407.1744</v>
+        <v>25869.2523</v>
       </c>
       <c r="G25" t="n">
-        <v>128.44</v>
+        <v>552704.1954360261</v>
       </c>
       <c r="H25" t="n">
-        <v>130.6</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1327,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>128</v>
+        <v>129.8</v>
       </c>
       <c r="C26" t="n">
-        <v>127.2</v>
+        <v>129.8</v>
       </c>
       <c r="D26" t="n">
-        <v>128</v>
+        <v>130.9</v>
       </c>
       <c r="E26" t="n">
-        <v>127.2</v>
+        <v>129.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1515</v>
+        <v>2206.9195</v>
       </c>
       <c r="G26" t="n">
-        <v>128.2533333333334</v>
+        <v>550497.2759360261</v>
       </c>
       <c r="H26" t="n">
-        <v>130.4966666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1362,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>127.5</v>
+        <v>130.3</v>
       </c>
       <c r="C27" t="n">
-        <v>127.2</v>
+        <v>130.3</v>
       </c>
       <c r="D27" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="E27" t="n">
-        <v>127.2</v>
+        <v>130.3</v>
       </c>
       <c r="F27" t="n">
-        <v>6588.7285</v>
+        <v>54.4817</v>
       </c>
       <c r="G27" t="n">
-        <v>128.14</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H27" t="n">
-        <v>130.35</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1397,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>127.2</v>
+        <v>129.9</v>
       </c>
       <c r="C28" t="n">
-        <v>127.2</v>
+        <v>130.3</v>
       </c>
       <c r="D28" t="n">
-        <v>127.2</v>
+        <v>130.3</v>
       </c>
       <c r="E28" t="n">
-        <v>127</v>
+        <v>129.9</v>
       </c>
       <c r="F28" t="n">
-        <v>5772.782</v>
+        <v>2134.1622</v>
       </c>
       <c r="G28" t="n">
-        <v>128.02</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H28" t="n">
-        <v>130.23</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1432,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>126.2</v>
+        <v>130.3</v>
       </c>
       <c r="C29" t="n">
-        <v>126.2</v>
+        <v>130.3</v>
       </c>
       <c r="D29" t="n">
-        <v>126.2</v>
+        <v>130.3</v>
       </c>
       <c r="E29" t="n">
-        <v>126.2</v>
+        <v>130.3</v>
       </c>
       <c r="F29" t="n">
-        <v>6135.9839</v>
+        <v>4570</v>
       </c>
       <c r="G29" t="n">
-        <v>127.78</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H29" t="n">
-        <v>130.0966666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1467,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="C30" t="n">
-        <v>126</v>
+        <v>130.3</v>
       </c>
       <c r="D30" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="E30" t="n">
-        <v>126</v>
+        <v>130.3</v>
       </c>
       <c r="F30" t="n">
-        <v>6168.5911</v>
+        <v>14.6505</v>
       </c>
       <c r="G30" t="n">
-        <v>127.6466666666667</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H30" t="n">
-        <v>129.93</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1502,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>127</v>
+        <v>130.4</v>
       </c>
       <c r="C31" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="D31" t="n">
-        <v>127</v>
+        <v>130.4</v>
       </c>
       <c r="E31" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="F31" t="n">
-        <v>11022.1271</v>
+        <v>12.3897</v>
       </c>
       <c r="G31" t="n">
-        <v>127.4466666666667</v>
+        <v>550564.1473360262</v>
       </c>
       <c r="H31" t="n">
-        <v>129.78</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1537,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="C32" t="n">
-        <v>125.2</v>
+        <v>130.4</v>
       </c>
       <c r="D32" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="E32" t="n">
-        <v>125.2</v>
+        <v>130.4</v>
       </c>
       <c r="F32" t="n">
-        <v>38249.5314</v>
+        <v>21.1864</v>
       </c>
       <c r="G32" t="n">
-        <v>127.2</v>
+        <v>550564.1473360262</v>
       </c>
       <c r="H32" t="n">
-        <v>129.6566666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1572,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>125</v>
+        <v>130.9</v>
       </c>
       <c r="C33" t="n">
-        <v>125</v>
+        <v>130.9</v>
       </c>
       <c r="D33" t="n">
-        <v>125</v>
+        <v>130.9</v>
       </c>
       <c r="E33" t="n">
-        <v>125</v>
+        <v>130.9</v>
       </c>
       <c r="F33" t="n">
-        <v>9004.7618</v>
+        <v>6.6742</v>
       </c>
       <c r="G33" t="n">
-        <v>127</v>
+        <v>550570.8215360262</v>
       </c>
       <c r="H33" t="n">
-        <v>129.4983333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1607,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C34" t="n">
-        <v>124.5</v>
+        <v>130.3</v>
       </c>
       <c r="D34" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E34" t="n">
-        <v>124.5</v>
+        <v>130.3</v>
       </c>
       <c r="F34" t="n">
-        <v>18610.7136</v>
+        <v>10830.1717</v>
       </c>
       <c r="G34" t="n">
-        <v>126.72</v>
+        <v>539740.6498360262</v>
       </c>
       <c r="H34" t="n">
-        <v>129.3716666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1642,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>126</v>
+        <v>130.3</v>
       </c>
       <c r="C35" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="E35" t="n">
         <v>128.4</v>
       </c>
-      <c r="D35" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>125.9</v>
-      </c>
       <c r="F35" t="n">
-        <v>25959.9531</v>
+        <v>46250.5491</v>
       </c>
       <c r="G35" t="n">
-        <v>126.7</v>
+        <v>493490.1007360262</v>
       </c>
       <c r="H35" t="n">
-        <v>129.3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1677,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>128</v>
+        <v>129.8</v>
       </c>
       <c r="C36" t="n">
-        <v>127.9</v>
+        <v>129.8</v>
       </c>
       <c r="D36" t="n">
-        <v>128</v>
+        <v>130.8</v>
       </c>
       <c r="E36" t="n">
         <v>127</v>
       </c>
       <c r="F36" t="n">
-        <v>12527.7071</v>
+        <v>18574.4359</v>
       </c>
       <c r="G36" t="n">
-        <v>126.6466666666667</v>
+        <v>493490.1007360262</v>
       </c>
       <c r="H36" t="n">
-        <v>129.2516666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1712,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>127.9</v>
+        <v>128</v>
       </c>
       <c r="C37" t="n">
-        <v>127.9</v>
+        <v>130</v>
       </c>
       <c r="D37" t="n">
-        <v>127.9</v>
+        <v>130</v>
       </c>
       <c r="E37" t="n">
-        <v>127.9</v>
+        <v>126.5</v>
       </c>
       <c r="F37" t="n">
-        <v>6595.4266</v>
+        <v>35284.64</v>
       </c>
       <c r="G37" t="n">
-        <v>126.76</v>
+        <v>528774.7407360262</v>
       </c>
       <c r="H37" t="n">
-        <v>129.1899999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1747,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>128</v>
+        <v>127.5</v>
       </c>
       <c r="C38" t="n">
-        <v>128</v>
+        <v>126.4</v>
       </c>
       <c r="D38" t="n">
-        <v>128</v>
+        <v>127.5</v>
       </c>
       <c r="E38" t="n">
-        <v>128</v>
+        <v>126.4</v>
       </c>
       <c r="F38" t="n">
-        <v>80.05419999999999</v>
+        <v>5578.299</v>
       </c>
       <c r="G38" t="n">
-        <v>126.88</v>
+        <v>523196.4417360262</v>
       </c>
       <c r="H38" t="n">
-        <v>129.1233333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1782,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="C39" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="D39" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="E39" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="F39" t="n">
-        <v>2240.8962</v>
+        <v>374.9613</v>
       </c>
       <c r="G39" t="n">
-        <v>126.7933333333333</v>
+        <v>522821.4804360262</v>
       </c>
       <c r="H39" t="n">
-        <v>129.0433333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1817,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>127.1</v>
+        <v>128</v>
       </c>
       <c r="C40" t="n">
-        <v>126.1</v>
+        <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>127.1</v>
+        <v>130</v>
       </c>
       <c r="E40" t="n">
-        <v>126.1</v>
+        <v>128</v>
       </c>
       <c r="F40" t="n">
-        <v>2116.7923</v>
+        <v>752</v>
       </c>
       <c r="G40" t="n">
-        <v>126.6666666666667</v>
+        <v>523573.4804360262</v>
       </c>
       <c r="H40" t="n">
-        <v>128.9233333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1852,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>128</v>
+      </c>
+      <c r="C41" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E41" t="n">
         <v>127</v>
       </c>
-      <c r="C41" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>127</v>
-      </c>
-      <c r="E41" t="n">
-        <v>123.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>35719.2853</v>
+        <v>2518.5389</v>
       </c>
       <c r="G41" t="n">
-        <v>126.42</v>
+        <v>521054.9415360262</v>
       </c>
       <c r="H41" t="n">
-        <v>128.7633333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1887,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>125.6</v>
+        <v>129</v>
       </c>
       <c r="C42" t="n">
-        <v>129.9</v>
+        <v>129</v>
       </c>
       <c r="D42" t="n">
-        <v>129.9</v>
+        <v>129</v>
       </c>
       <c r="E42" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F42" t="n">
-        <v>7663.1212</v>
+        <v>135.3297</v>
       </c>
       <c r="G42" t="n">
-        <v>126.6</v>
+        <v>521190.2712360262</v>
       </c>
       <c r="H42" t="n">
-        <v>128.7266666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1922,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>127.7</v>
+        <v>129</v>
       </c>
       <c r="C43" t="n">
-        <v>128.7</v>
+        <v>129.8</v>
       </c>
       <c r="D43" t="n">
-        <v>128.7</v>
+        <v>129.8</v>
       </c>
       <c r="E43" t="n">
-        <v>126.6</v>
+        <v>129</v>
       </c>
       <c r="F43" t="n">
-        <v>2575.9999</v>
+        <v>1940.1226</v>
       </c>
       <c r="G43" t="n">
-        <v>126.7</v>
+        <v>523130.3938360262</v>
       </c>
       <c r="H43" t="n">
-        <v>128.6883333333332</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1957,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>127.7</v>
+        <v>128</v>
       </c>
       <c r="C44" t="n">
-        <v>127.8</v>
+        <v>128</v>
       </c>
       <c r="D44" t="n">
-        <v>127.8</v>
+        <v>128</v>
       </c>
       <c r="E44" t="n">
-        <v>127.7</v>
+        <v>128</v>
       </c>
       <c r="F44" t="n">
-        <v>1588.9998</v>
+        <v>376</v>
       </c>
       <c r="G44" t="n">
-        <v>126.8066666666666</v>
+        <v>522754.3938360262</v>
       </c>
       <c r="H44" t="n">
-        <v>128.6183333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1992,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" t="n">
-        <v>129.9</v>
+        <v>129</v>
       </c>
       <c r="D45" t="n">
         <v>129.9</v>
       </c>
       <c r="E45" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F45" t="n">
-        <v>14801.6287</v>
+        <v>12702.5842</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0666666666666</v>
+        <v>535456.9780360262</v>
       </c>
       <c r="H45" t="n">
-        <v>128.5649999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2027,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>127</v>
+        <v>127.2</v>
       </c>
       <c r="C46" t="n">
-        <v>126.9</v>
+        <v>128.9</v>
       </c>
       <c r="D46" t="n">
-        <v>127.9</v>
+        <v>128.9</v>
       </c>
       <c r="E46" t="n">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="F46" t="n">
-        <v>14940.0884</v>
+        <v>6005.6286</v>
       </c>
       <c r="G46" t="n">
-        <v>127.1266666666667</v>
+        <v>529451.3494360262</v>
       </c>
       <c r="H46" t="n">
-        <v>128.4983333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2062,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>126</v>
+        <v>127.1</v>
       </c>
       <c r="C47" t="n">
-        <v>128.2</v>
+        <v>128</v>
       </c>
       <c r="D47" t="n">
-        <v>128.2</v>
+        <v>128</v>
       </c>
       <c r="E47" t="n">
-        <v>126</v>
+        <v>127.1</v>
       </c>
       <c r="F47" t="n">
-        <v>5656</v>
+        <v>10976.0437</v>
       </c>
       <c r="G47" t="n">
-        <v>127.3266666666667</v>
+        <v>518475.3057360262</v>
       </c>
       <c r="H47" t="n">
-        <v>128.4683333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2097,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>128</v>
+        <v>127.7</v>
       </c>
       <c r="C48" t="n">
-        <v>128</v>
+        <v>128.7</v>
       </c>
       <c r="D48" t="n">
-        <v>128</v>
+        <v>128.7</v>
       </c>
       <c r="E48" t="n">
-        <v>128</v>
+        <v>127.7</v>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>712</v>
       </c>
       <c r="G48" t="n">
-        <v>127.5266666666667</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H48" t="n">
-        <v>128.4283333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2132,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>127.5</v>
+        <v>128.7</v>
       </c>
       <c r="C49" t="n">
-        <v>127.5</v>
+        <v>128.7</v>
       </c>
       <c r="D49" t="n">
-        <v>127.5</v>
+        <v>128.7</v>
       </c>
       <c r="E49" t="n">
-        <v>127.5</v>
+        <v>128.7</v>
       </c>
       <c r="F49" t="n">
-        <v>1189</v>
+        <v>401.8926</v>
       </c>
       <c r="G49" t="n">
-        <v>127.7266666666667</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H49" t="n">
-        <v>128.3866666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2167,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>127.4</v>
+        <v>127.2</v>
       </c>
       <c r="C50" t="n">
-        <v>127.4</v>
+        <v>128.7</v>
       </c>
       <c r="D50" t="n">
-        <v>127.4</v>
+        <v>129.8</v>
       </c>
       <c r="E50" t="n">
-        <v>127.4</v>
+        <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>1545</v>
+        <v>14440.6569</v>
       </c>
       <c r="G50" t="n">
-        <v>127.66</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H50" t="n">
-        <v>128.3433333333332</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2202,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>127.4</v>
+        <v>127.2</v>
       </c>
       <c r="C51" t="n">
-        <v>128.1</v>
+        <v>126.2</v>
       </c>
       <c r="D51" t="n">
-        <v>128.1</v>
+        <v>127.2</v>
       </c>
       <c r="E51" t="n">
-        <v>127.4</v>
+        <v>126.2</v>
       </c>
       <c r="F51" t="n">
-        <v>6386.5883</v>
+        <v>3883.458</v>
       </c>
       <c r="G51" t="n">
-        <v>127.6733333333333</v>
+        <v>515303.8477360262</v>
       </c>
       <c r="H51" t="n">
-        <v>128.3116666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2237,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>128.1</v>
+        <v>127.2</v>
       </c>
       <c r="C52" t="n">
-        <v>128.1</v>
+        <v>126.2</v>
       </c>
       <c r="D52" t="n">
-        <v>128.1</v>
+        <v>127.2</v>
       </c>
       <c r="E52" t="n">
-        <v>128.1</v>
+        <v>126.2</v>
       </c>
       <c r="F52" t="n">
-        <v>827</v>
+        <v>3081.1327</v>
       </c>
       <c r="G52" t="n">
-        <v>127.6866666666666</v>
+        <v>515303.8477360262</v>
       </c>
       <c r="H52" t="n">
-        <v>128.2716666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2272,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>128.1</v>
+        <v>127.5</v>
       </c>
       <c r="C53" t="n">
-        <v>128.1</v>
+        <v>128.5</v>
       </c>
       <c r="D53" t="n">
-        <v>128.1</v>
+        <v>128.5</v>
       </c>
       <c r="E53" t="n">
-        <v>128.1</v>
+        <v>127.5</v>
       </c>
       <c r="F53" t="n">
-        <v>2961.7012</v>
+        <v>3997</v>
       </c>
       <c r="G53" t="n">
-        <v>127.6933333333333</v>
+        <v>519300.8477360262</v>
       </c>
       <c r="H53" t="n">
-        <v>128.2349999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2307,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>128.1</v>
+        <v>128</v>
       </c>
       <c r="C54" t="n">
-        <v>128.1</v>
+        <v>128</v>
       </c>
       <c r="D54" t="n">
-        <v>128.1</v>
+        <v>128</v>
       </c>
       <c r="E54" t="n">
-        <v>128.1</v>
+        <v>127.2</v>
       </c>
       <c r="F54" t="n">
-        <v>2489.1525</v>
+        <v>2407.1744</v>
       </c>
       <c r="G54" t="n">
-        <v>127.7533333333333</v>
+        <v>516893.6733360262</v>
       </c>
       <c r="H54" t="n">
-        <v>128.2283333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2342,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C55" t="n">
-        <v>127</v>
+        <v>127.2</v>
       </c>
       <c r="D55" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55" t="n">
-        <v>127</v>
+        <v>127.2</v>
       </c>
       <c r="F55" t="n">
-        <v>136.8418</v>
+        <v>1515</v>
       </c>
       <c r="G55" t="n">
-        <v>127.8133333333333</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H55" t="n">
-        <v>128.1616666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2377,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>125.3</v>
+        <v>127.5</v>
       </c>
       <c r="C56" t="n">
-        <v>125.3</v>
+        <v>127.2</v>
       </c>
       <c r="D56" t="n">
-        <v>125.3</v>
+        <v>128</v>
       </c>
       <c r="E56" t="n">
-        <v>125.3</v>
+        <v>127.2</v>
       </c>
       <c r="F56" t="n">
-        <v>2971.8705</v>
+        <v>6588.7285</v>
       </c>
       <c r="G56" t="n">
-        <v>127.9333333333333</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H56" t="n">
-        <v>128.0683333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2412,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>127</v>
+        <v>127.2</v>
       </c>
       <c r="C57" t="n">
-        <v>127</v>
+        <v>127.2</v>
       </c>
       <c r="D57" t="n">
-        <v>127</v>
+        <v>127.2</v>
       </c>
       <c r="E57" t="n">
         <v>127</v>
       </c>
       <c r="F57" t="n">
-        <v>5873.9678</v>
+        <v>5772.782</v>
       </c>
       <c r="G57" t="n">
-        <v>127.74</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H57" t="n">
-        <v>128.0216666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2447,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>127</v>
+        <v>126.2</v>
       </c>
       <c r="C58" t="n">
-        <v>127</v>
+        <v>126.2</v>
       </c>
       <c r="D58" t="n">
-        <v>127</v>
+        <v>126.2</v>
       </c>
       <c r="E58" t="n">
-        <v>127</v>
+        <v>126.2</v>
       </c>
       <c r="F58" t="n">
-        <v>3748.9788</v>
+        <v>6135.9839</v>
       </c>
       <c r="G58" t="n">
-        <v>127.6266666666666</v>
+        <v>509242.6894360262</v>
       </c>
       <c r="H58" t="n">
-        <v>127.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2482,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E59" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" t="n">
-        <v>7911.8489</v>
+        <v>6168.5911</v>
       </c>
       <c r="G59" t="n">
-        <v>127.6399999999999</v>
+        <v>503074.0983360262</v>
       </c>
       <c r="H59" t="n">
-        <v>127.9283333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,33 +2520,30 @@
         <v>127</v>
       </c>
       <c r="C60" t="n">
-        <v>128.9</v>
+        <v>126</v>
       </c>
       <c r="D60" t="n">
-        <v>128.9</v>
+        <v>127</v>
       </c>
       <c r="E60" t="n">
-        <v>126.2</v>
+        <v>126</v>
       </c>
       <c r="F60" t="n">
-        <v>11933.7177</v>
+        <v>11022.1271</v>
       </c>
       <c r="G60" t="n">
-        <v>127.5733333333333</v>
+        <v>503074.0983360262</v>
       </c>
       <c r="H60" t="n">
-        <v>127.9049999999999</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2683,33 +2555,30 @@
         <v>126</v>
       </c>
       <c r="C61" t="n">
-        <v>126</v>
+        <v>125.2</v>
       </c>
       <c r="D61" t="n">
         <v>126</v>
       </c>
       <c r="E61" t="n">
-        <v>126</v>
+        <v>125.2</v>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>38249.5314</v>
       </c>
       <c r="G61" t="n">
-        <v>127.5133333333333</v>
+        <v>464824.5669360262</v>
       </c>
       <c r="H61" t="n">
-        <v>127.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2587,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>125.1</v>
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E62" t="n">
-        <v>124.1</v>
+        <v>125</v>
       </c>
       <c r="F62" t="n">
-        <v>7207.5645</v>
+        <v>9004.7618</v>
       </c>
       <c r="G62" t="n">
-        <v>127.4333333333333</v>
+        <v>455819.8051360262</v>
       </c>
       <c r="H62" t="n">
-        <v>127.7766666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2622,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" t="n">
-        <v>127</v>
+        <v>124.5</v>
       </c>
       <c r="D63" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" t="n">
-        <v>127</v>
+        <v>124.5</v>
       </c>
       <c r="F63" t="n">
-        <v>7567.1719</v>
+        <v>18610.7136</v>
       </c>
       <c r="G63" t="n">
-        <v>127.3666666666666</v>
+        <v>437209.0915360262</v>
       </c>
       <c r="H63" t="n">
-        <v>127.7199999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2657,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" t="n">
-        <v>127</v>
+        <v>128.4</v>
       </c>
       <c r="D64" t="n">
-        <v>127</v>
+        <v>128.4</v>
       </c>
       <c r="E64" t="n">
-        <v>127</v>
+        <v>125.9</v>
       </c>
       <c r="F64" t="n">
-        <v>735</v>
+        <v>25959.9531</v>
       </c>
       <c r="G64" t="n">
-        <v>127.3333333333333</v>
+        <v>463169.0446360262</v>
       </c>
       <c r="H64" t="n">
-        <v>127.6549999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2692,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>124.9</v>
+        <v>128</v>
       </c>
       <c r="C65" t="n">
-        <v>126</v>
+        <v>127.9</v>
       </c>
       <c r="D65" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E65" t="n">
-        <v>123.2</v>
+        <v>127</v>
       </c>
       <c r="F65" t="n">
-        <v>5058.8652</v>
+        <v>12527.7071</v>
       </c>
       <c r="G65" t="n">
-        <v>127.2399999999999</v>
+        <v>450641.3375360262</v>
       </c>
       <c r="H65" t="n">
-        <v>127.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2727,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>126.8</v>
+        <v>127.9</v>
       </c>
       <c r="C66" t="n">
-        <v>126.8</v>
+        <v>127.9</v>
       </c>
       <c r="D66" t="n">
-        <v>126.8</v>
+        <v>127.9</v>
       </c>
       <c r="E66" t="n">
-        <v>126.8</v>
+        <v>127.9</v>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>6595.4266</v>
       </c>
       <c r="G66" t="n">
-        <v>127.1533333333333</v>
+        <v>450641.3375360262</v>
       </c>
       <c r="H66" t="n">
-        <v>127.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2762,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>125.7</v>
+        <v>128</v>
       </c>
       <c r="C67" t="n">
-        <v>126.7</v>
+        <v>128</v>
       </c>
       <c r="D67" t="n">
-        <v>126.7</v>
+        <v>128</v>
       </c>
       <c r="E67" t="n">
-        <v>125.7</v>
+        <v>128</v>
       </c>
       <c r="F67" t="n">
-        <v>568</v>
+        <v>80.05419999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>127.0599999999999</v>
+        <v>450721.3917360262</v>
       </c>
       <c r="H67" t="n">
-        <v>127.4816666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2797,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>125</v>
+        <v>127.2</v>
       </c>
       <c r="C68" t="n">
-        <v>125</v>
+        <v>127.2</v>
       </c>
       <c r="D68" t="n">
-        <v>125</v>
+        <v>127.2</v>
       </c>
       <c r="E68" t="n">
-        <v>125</v>
+        <v>127.2</v>
       </c>
       <c r="F68" t="n">
-        <v>500.9882</v>
+        <v>2240.8962</v>
       </c>
       <c r="G68" t="n">
-        <v>126.8533333333333</v>
+        <v>448480.4955360262</v>
       </c>
       <c r="H68" t="n">
-        <v>127.3983333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2832,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>126</v>
+        <v>127.1</v>
       </c>
       <c r="C69" t="n">
-        <v>127</v>
+        <v>126.1</v>
       </c>
       <c r="D69" t="n">
-        <v>127</v>
+        <v>127.1</v>
       </c>
       <c r="E69" t="n">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="F69" t="n">
-        <v>479</v>
+        <v>2116.7923</v>
       </c>
       <c r="G69" t="n">
-        <v>126.78</v>
+        <v>446363.7032360262</v>
       </c>
       <c r="H69" t="n">
-        <v>127.4083333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2867,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>127</v>
+        <v>123.5</v>
       </c>
       <c r="D70" t="n">
         <v>127</v>
       </c>
       <c r="E70" t="n">
-        <v>126</v>
+        <v>123.5</v>
       </c>
       <c r="F70" t="n">
-        <v>499</v>
+        <v>35719.2853</v>
       </c>
       <c r="G70" t="n">
-        <v>126.78</v>
+        <v>410644.4179360262</v>
       </c>
       <c r="H70" t="n">
-        <v>127.4249999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2902,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>127</v>
+        <v>125.6</v>
       </c>
       <c r="C71" t="n">
-        <v>128</v>
+        <v>129.9</v>
       </c>
       <c r="D71" t="n">
-        <v>128</v>
+        <v>129.9</v>
       </c>
       <c r="E71" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F71" t="n">
-        <v>1464.8705</v>
+        <v>7663.1212</v>
       </c>
       <c r="G71" t="n">
-        <v>126.96</v>
+        <v>418307.5391360262</v>
       </c>
       <c r="H71" t="n">
-        <v>127.3916666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2937,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>128</v>
+        <v>127.7</v>
       </c>
       <c r="C72" t="n">
-        <v>128</v>
+        <v>128.7</v>
       </c>
       <c r="D72" t="n">
-        <v>128</v>
+        <v>128.7</v>
       </c>
       <c r="E72" t="n">
-        <v>128</v>
+        <v>126.6</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1789</v>
+        <v>2575.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>127.0266666666666</v>
+        <v>415731.5392360262</v>
       </c>
       <c r="H72" t="n">
-        <v>127.3766666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2972,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="C73" t="n">
-        <v>126</v>
+        <v>127.8</v>
       </c>
       <c r="D73" t="n">
-        <v>126</v>
+        <v>127.8</v>
       </c>
       <c r="E73" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="F73" t="n">
-        <v>145</v>
+        <v>1588.9998</v>
       </c>
       <c r="G73" t="n">
-        <v>126.96</v>
+        <v>414142.5394360262</v>
       </c>
       <c r="H73" t="n">
-        <v>127.3266666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3007,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>126.1</v>
+        <v>127</v>
       </c>
       <c r="C74" t="n">
-        <v>126.1</v>
+        <v>129.9</v>
       </c>
       <c r="D74" t="n">
-        <v>126.1</v>
+        <v>129.9</v>
       </c>
       <c r="E74" t="n">
-        <v>126.1</v>
+        <v>127</v>
       </c>
       <c r="F74" t="n">
-        <v>2869.282</v>
+        <v>14801.6287</v>
       </c>
       <c r="G74" t="n">
-        <v>126.8333333333333</v>
+        <v>428944.1681360262</v>
       </c>
       <c r="H74" t="n">
-        <v>127.2649999999999</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3042,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>124.2</v>
+        <v>127</v>
       </c>
       <c r="C75" t="n">
-        <v>126.1</v>
+        <v>126.9</v>
       </c>
       <c r="D75" t="n">
-        <v>126.1</v>
+        <v>127.9</v>
       </c>
       <c r="E75" t="n">
-        <v>124.2</v>
+        <v>126</v>
       </c>
       <c r="F75" t="n">
-        <v>9927.509700000001</v>
+        <v>14940.0884</v>
       </c>
       <c r="G75" t="n">
-        <v>126.6466666666666</v>
+        <v>414004.0797360262</v>
       </c>
       <c r="H75" t="n">
-        <v>127.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3077,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>125.1</v>
+        <v>126</v>
       </c>
       <c r="C76" t="n">
-        <v>126.1</v>
+        <v>128.2</v>
       </c>
       <c r="D76" t="n">
-        <v>126.1</v>
+        <v>128.2</v>
       </c>
       <c r="E76" t="n">
-        <v>125.1</v>
+        <v>126</v>
       </c>
       <c r="F76" t="n">
-        <v>4610</v>
+        <v>5656</v>
       </c>
       <c r="G76" t="n">
-        <v>126.6533333333333</v>
+        <v>419660.0797360262</v>
       </c>
       <c r="H76" t="n">
-        <v>127.185</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3112,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C77" t="n">
-        <v>126.1</v>
+        <v>128</v>
       </c>
       <c r="D77" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E77" t="n">
-        <v>126.1</v>
+        <v>128</v>
       </c>
       <c r="F77" t="n">
-        <v>1164.5388</v>
+        <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>126.5933333333333</v>
+        <v>419460.0797360262</v>
       </c>
       <c r="H77" t="n">
-        <v>127.1383333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3147,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>125</v>
+        <v>127.5</v>
       </c>
       <c r="C78" t="n">
-        <v>126</v>
+        <v>127.5</v>
       </c>
       <c r="D78" t="n">
-        <v>126</v>
+        <v>127.5</v>
       </c>
       <c r="E78" t="n">
-        <v>125</v>
+        <v>127.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1708.0863</v>
+        <v>1189</v>
       </c>
       <c r="G78" t="n">
-        <v>126.5266666666666</v>
+        <v>418271.0797360262</v>
       </c>
       <c r="H78" t="n">
-        <v>127.105</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3182,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>125</v>
+        <v>127.4</v>
       </c>
       <c r="C79" t="n">
-        <v>126</v>
+        <v>127.4</v>
       </c>
       <c r="D79" t="n">
-        <v>126</v>
+        <v>127.4</v>
       </c>
       <c r="E79" t="n">
-        <v>125</v>
+        <v>127.4</v>
       </c>
       <c r="F79" t="n">
-        <v>1189</v>
+        <v>1545</v>
       </c>
       <c r="G79" t="n">
-        <v>126.4599999999999</v>
+        <v>416726.0797360262</v>
       </c>
       <c r="H79" t="n">
-        <v>127.06</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3217,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>124.3</v>
+        <v>127.4</v>
       </c>
       <c r="C80" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="D80" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="E80" t="n">
-        <v>124.3</v>
+        <v>127.4</v>
       </c>
       <c r="F80" t="n">
-        <v>4124.3437</v>
+        <v>6386.5883</v>
       </c>
       <c r="G80" t="n">
-        <v>126.3933333333333</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H80" t="n">
-        <v>126.9983333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3252,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="C81" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="D81" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="E81" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="F81" t="n">
-        <v>9103.3109</v>
+        <v>827</v>
       </c>
       <c r="G81" t="n">
-        <v>126.2733333333333</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H81" t="n">
-        <v>126.9366666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3287,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="C82" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="D82" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="E82" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="F82" t="n">
-        <v>6866.9229</v>
+        <v>2961.7012</v>
       </c>
       <c r="G82" t="n">
-        <v>126.1599999999999</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H82" t="n">
-        <v>126.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3322,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="C83" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="D83" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="E83" t="n">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="F83" t="n">
-        <v>12556.6195</v>
+        <v>2489.1525</v>
       </c>
       <c r="G83" t="n">
-        <v>126.1599999999999</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H83" t="n">
-        <v>126.8966666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3357,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D84" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84" t="n">
-        <v>121.3</v>
+        <v>127</v>
       </c>
       <c r="F84" t="n">
-        <v>15462.3186</v>
+        <v>136.8418</v>
       </c>
       <c r="G84" t="n">
-        <v>126.0933333333333</v>
+        <v>422975.8262360262</v>
       </c>
       <c r="H84" t="n">
-        <v>126.855</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3392,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>123</v>
+        <v>125.3</v>
       </c>
       <c r="C85" t="n">
-        <v>124.7</v>
+        <v>125.3</v>
       </c>
       <c r="D85" t="n">
-        <v>124.7</v>
+        <v>125.3</v>
       </c>
       <c r="E85" t="n">
-        <v>121</v>
+        <v>125.3</v>
       </c>
       <c r="F85" t="n">
-        <v>22705.2206</v>
+        <v>2971.8705</v>
       </c>
       <c r="G85" t="n">
-        <v>125.9399999999999</v>
+        <v>420003.9557360262</v>
       </c>
       <c r="H85" t="n">
-        <v>126.8</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3427,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>123.5</v>
+        <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D86" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E86" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F86" t="n">
-        <v>550</v>
+        <v>5873.9678</v>
       </c>
       <c r="G86" t="n">
-        <v>125.6733333333333</v>
+        <v>425877.9235360262</v>
       </c>
       <c r="H86" t="n">
-        <v>126.7466666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3462,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>125.9</v>
+        <v>127</v>
       </c>
       <c r="C87" t="n">
-        <v>125.9</v>
+        <v>127</v>
       </c>
       <c r="D87" t="n">
-        <v>125.9</v>
+        <v>127</v>
       </c>
       <c r="E87" t="n">
-        <v>125.9</v>
+        <v>127</v>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>3748.9788</v>
       </c>
       <c r="G87" t="n">
-        <v>125.5333333333333</v>
+        <v>425877.9235360262</v>
       </c>
       <c r="H87" t="n">
-        <v>126.725</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3497,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C88" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D88" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E88" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F88" t="n">
-        <v>2226.6263</v>
+        <v>7911.8489</v>
       </c>
       <c r="G88" t="n">
-        <v>125.3333333333333</v>
+        <v>433789.7724360262</v>
       </c>
       <c r="H88" t="n">
-        <v>126.655</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3532,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>123.4</v>
+        <v>127</v>
       </c>
       <c r="C89" t="n">
-        <v>124.8</v>
+        <v>128.9</v>
       </c>
       <c r="D89" t="n">
-        <v>124.8</v>
+        <v>128.9</v>
       </c>
       <c r="E89" t="n">
-        <v>123.4</v>
+        <v>126.2</v>
       </c>
       <c r="F89" t="n">
-        <v>2758.0915</v>
+        <v>11933.7177</v>
       </c>
       <c r="G89" t="n">
-        <v>125.2466666666666</v>
+        <v>445723.4901360262</v>
       </c>
       <c r="H89" t="n">
-        <v>126.6316666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3567,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C90" t="n">
-        <v>125.6</v>
+        <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>125.6</v>
+        <v>126</v>
       </c>
       <c r="E90" t="n">
-        <v>120.7</v>
+        <v>126</v>
       </c>
       <c r="F90" t="n">
-        <v>20353.0797</v>
+        <v>55</v>
       </c>
       <c r="G90" t="n">
-        <v>125.2133333333333</v>
+        <v>445668.4901360262</v>
       </c>
       <c r="H90" t="n">
-        <v>126.625</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3602,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>123.5</v>
+        <v>125.1</v>
       </c>
       <c r="C91" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D91" t="n">
-        <v>124.5</v>
+        <v>127</v>
       </c>
       <c r="E91" t="n">
-        <v>120.6</v>
+        <v>124.1</v>
       </c>
       <c r="F91" t="n">
-        <v>24317.2775</v>
+        <v>7207.5645</v>
       </c>
       <c r="G91" t="n">
-        <v>125.0733333333333</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H91" t="n">
-        <v>126.5916666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3637,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>121.7</v>
+        <v>127</v>
       </c>
       <c r="C92" t="n">
-        <v>123.9</v>
+        <v>127</v>
       </c>
       <c r="D92" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E92" t="n">
-        <v>121.7</v>
+        <v>127</v>
       </c>
       <c r="F92" t="n">
-        <v>5992.0515</v>
+        <v>7567.1719</v>
       </c>
       <c r="G92" t="n">
-        <v>124.9266666666666</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H92" t="n">
-        <v>126.57</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3672,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>123.9</v>
+        <v>127</v>
       </c>
       <c r="C93" t="n">
-        <v>123.9</v>
+        <v>127</v>
       </c>
       <c r="D93" t="n">
-        <v>123.9</v>
+        <v>127</v>
       </c>
       <c r="E93" t="n">
-        <v>123.9</v>
+        <v>127</v>
       </c>
       <c r="F93" t="n">
-        <v>762.2328</v>
+        <v>735</v>
       </c>
       <c r="G93" t="n">
-        <v>124.7866666666666</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H93" t="n">
-        <v>126.5516666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,42 +3707,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>123.9</v>
+        <v>124.9</v>
       </c>
       <c r="C94" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D94" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" t="n">
-        <v>123.9</v>
+        <v>123.2</v>
       </c>
       <c r="F94" t="n">
-        <v>2934.3926</v>
+        <v>5058.8652</v>
       </c>
       <c r="G94" t="n">
-        <v>124.6533333333333</v>
+        <v>447817.1894360262</v>
       </c>
       <c r="H94" t="n">
-        <v>126.5433333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>123.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,42 +3742,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>124</v>
+        <v>126.8</v>
       </c>
       <c r="C95" t="n">
-        <v>124</v>
+        <v>126.8</v>
       </c>
       <c r="D95" t="n">
-        <v>124</v>
+        <v>126.8</v>
       </c>
       <c r="E95" t="n">
-        <v>124</v>
+        <v>126.8</v>
       </c>
       <c r="F95" t="n">
-        <v>3821.0851</v>
+        <v>25</v>
       </c>
       <c r="G95" t="n">
-        <v>124.5866666666666</v>
+        <v>447842.1894360262</v>
       </c>
       <c r="H95" t="n">
-        <v>126.47</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,42 +3777,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>124</v>
+        <v>125.7</v>
       </c>
       <c r="C96" t="n">
-        <v>124</v>
+        <v>126.7</v>
       </c>
       <c r="D96" t="n">
-        <v>124</v>
+        <v>126.7</v>
       </c>
       <c r="E96" t="n">
-        <v>124</v>
+        <v>125.7</v>
       </c>
       <c r="F96" t="n">
-        <v>5295.6057</v>
+        <v>568</v>
       </c>
       <c r="G96" t="n">
-        <v>124.52</v>
+        <v>447274.1894360262</v>
       </c>
       <c r="H96" t="n">
-        <v>126.405</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,42 +3812,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C97" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D97" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F97" t="n">
-        <v>31.4151</v>
+        <v>500.9882</v>
       </c>
       <c r="G97" t="n">
-        <v>124.3866666666666</v>
+        <v>446773.2012360261</v>
       </c>
       <c r="H97" t="n">
-        <v>126.3233333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,42 +3847,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C98" t="n">
-        <v>120.8</v>
+        <v>127</v>
       </c>
       <c r="D98" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E98" t="n">
-        <v>120.8</v>
+        <v>126</v>
       </c>
       <c r="F98" t="n">
-        <v>33771.9406</v>
+        <v>479</v>
       </c>
       <c r="G98" t="n">
-        <v>124.1066666666666</v>
+        <v>447252.2012360261</v>
       </c>
       <c r="H98" t="n">
-        <v>126.2033333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,42 +3882,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C99" t="n">
-        <v>125.3</v>
+        <v>127</v>
       </c>
       <c r="D99" t="n">
-        <v>125.4</v>
+        <v>127</v>
       </c>
       <c r="E99" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F99" t="n">
-        <v>2059</v>
+        <v>499</v>
       </c>
       <c r="G99" t="n">
-        <v>124.06</v>
+        <v>447252.2012360261</v>
       </c>
       <c r="H99" t="n">
-        <v>126.1716666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>120.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,42 +3917,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D100" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E100" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F100" t="n">
-        <v>825.7637</v>
+        <v>1464.8705</v>
       </c>
       <c r="G100" t="n">
-        <v>124.08</v>
+        <v>448717.0717360261</v>
       </c>
       <c r="H100" t="n">
-        <v>126.1533333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>125.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,42 +3952,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C101" t="n">
-        <v>124.9</v>
+        <v>128</v>
       </c>
       <c r="D101" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E101" t="n">
-        <v>124.9</v>
+        <v>128</v>
       </c>
       <c r="F101" t="n">
-        <v>17045.9589</v>
+        <v>0.1789</v>
       </c>
       <c r="G101" t="n">
-        <v>124.14</v>
+        <v>448717.0717360261</v>
       </c>
       <c r="H101" t="n">
-        <v>126.1766666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,42 +3987,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D102" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E102" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F102" t="n">
-        <v>10192.3436</v>
+        <v>145</v>
       </c>
       <c r="G102" t="n">
-        <v>124.08</v>
+        <v>448572.0717360261</v>
       </c>
       <c r="H102" t="n">
-        <v>126.095</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>124.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,42 +4022,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="C103" t="n">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="D103" t="n">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="E103" t="n">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="F103" t="n">
-        <v>7.1096</v>
+        <v>2869.282</v>
       </c>
       <c r="G103" t="n">
-        <v>124.24</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H103" t="n">
-        <v>126.04</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,42 +4057,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>122.5</v>
+        <v>124.2</v>
       </c>
       <c r="C104" t="n">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="D104" t="n">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="E104" t="n">
-        <v>121</v>
+        <v>124.2</v>
       </c>
       <c r="F104" t="n">
-        <v>16390.7324</v>
+        <v>9927.509700000001</v>
       </c>
       <c r="G104" t="n">
-        <v>124.28</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H104" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>125.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,42 +4092,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>125</v>
+        <v>125.1</v>
       </c>
       <c r="C105" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="D105" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="E105" t="n">
-        <v>125</v>
+        <v>125.1</v>
       </c>
       <c r="F105" t="n">
-        <v>7949.6468</v>
+        <v>4610</v>
       </c>
       <c r="G105" t="n">
-        <v>124.24</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H105" t="n">
-        <v>125.9183333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>125.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,42 +4127,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>124.9</v>
+        <v>127</v>
       </c>
       <c r="C106" t="n">
-        <v>124.9</v>
+        <v>126.1</v>
       </c>
       <c r="D106" t="n">
-        <v>124.9</v>
+        <v>127</v>
       </c>
       <c r="E106" t="n">
-        <v>124.9</v>
+        <v>126.1</v>
       </c>
       <c r="F106" t="n">
-        <v>754.4882</v>
+        <v>1164.5388</v>
       </c>
       <c r="G106" t="n">
-        <v>124.3</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H106" t="n">
-        <v>125.885</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,42 +4162,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="C107" t="n">
-        <v>127.8</v>
+        <v>126</v>
       </c>
       <c r="D107" t="n">
-        <v>127.8</v>
+        <v>126</v>
       </c>
       <c r="E107" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="F107" t="n">
-        <v>1789</v>
+        <v>1708.0863</v>
       </c>
       <c r="G107" t="n">
-        <v>124.56</v>
+        <v>449733.2674360261</v>
       </c>
       <c r="H107" t="n">
-        <v>125.8783333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>124.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,7 +4197,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" t="n">
         <v>126</v>
@@ -4559,33 +4206,24 @@
         <v>126</v>
       </c>
       <c r="E108" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F108" t="n">
-        <v>335</v>
+        <v>1189</v>
       </c>
       <c r="G108" t="n">
-        <v>124.7</v>
+        <v>449733.2674360261</v>
       </c>
       <c r="H108" t="n">
-        <v>125.845</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>127.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,42 +4232,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>124.3</v>
       </c>
       <c r="C109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" t="n">
-        <v>126</v>
+        <v>124.3</v>
       </c>
       <c r="F109" t="n">
-        <v>335</v>
+        <v>4124.3437</v>
       </c>
       <c r="G109" t="n">
-        <v>124.8333333333333</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H109" t="n">
-        <v>125.82</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,42 +4267,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>125.6</v>
+        <v>125</v>
       </c>
       <c r="C110" t="n">
-        <v>125.6</v>
+        <v>125</v>
       </c>
       <c r="D110" t="n">
-        <v>126.6</v>
+        <v>125</v>
       </c>
       <c r="E110" t="n">
-        <v>125.6</v>
+        <v>125</v>
       </c>
       <c r="F110" t="n">
-        <v>1204.9999</v>
+        <v>9103.3109</v>
       </c>
       <c r="G110" t="n">
-        <v>124.94</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H110" t="n">
-        <v>125.79</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,42 +4302,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="D111" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="E111" t="n">
         <v>125</v>
       </c>
       <c r="F111" t="n">
-        <v>6996.6867</v>
+        <v>6866.9229</v>
       </c>
       <c r="G111" t="n">
-        <v>125.1866666666666</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H111" t="n">
-        <v>125.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>125.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,42 +4337,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="C112" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="D112" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="E112" t="n">
-        <v>127.7</v>
+        <v>125</v>
       </c>
       <c r="F112" t="n">
-        <v>2309.4784</v>
+        <v>12556.6195</v>
       </c>
       <c r="G112" t="n">
-        <v>125.5</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H112" t="n">
-        <v>125.7766666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,42 +4372,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>127.5</v>
+        <v>125</v>
       </c>
       <c r="C113" t="n">
-        <v>128.9</v>
+        <v>126</v>
       </c>
       <c r="D113" t="n">
-        <v>128.9</v>
+        <v>126</v>
       </c>
       <c r="E113" t="n">
-        <v>127.5</v>
+        <v>121.3</v>
       </c>
       <c r="F113" t="n">
-        <v>7665.988751357641</v>
+        <v>15462.3186</v>
       </c>
       <c r="G113" t="n">
-        <v>126.04</v>
+        <v>461071.2423360261</v>
       </c>
       <c r="H113" t="n">
-        <v>125.79</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,42 +4407,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C114" t="n">
-        <v>128.9</v>
+        <v>124.7</v>
       </c>
       <c r="D114" t="n">
-        <v>128.9</v>
+        <v>124.7</v>
       </c>
       <c r="E114" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F114" t="n">
-        <v>748.0741</v>
+        <v>22705.2206</v>
       </c>
       <c r="G114" t="n">
-        <v>126.28</v>
+        <v>438366.0217360261</v>
       </c>
       <c r="H114" t="n">
-        <v>125.8033333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,42 +4442,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>127.7</v>
+        <v>123.5</v>
       </c>
       <c r="C115" t="n">
-        <v>127.7</v>
+        <v>124</v>
       </c>
       <c r="D115" t="n">
-        <v>127.7</v>
+        <v>124</v>
       </c>
       <c r="E115" t="n">
-        <v>127.7</v>
+        <v>123</v>
       </c>
       <c r="F115" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="G115" t="n">
-        <v>126.46</v>
+        <v>437816.0217360261</v>
       </c>
       <c r="H115" t="n">
-        <v>125.815</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,42 +4477,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>127.7</v>
+        <v>125.9</v>
       </c>
       <c r="C116" t="n">
-        <v>128.9</v>
+        <v>125.9</v>
       </c>
       <c r="D116" t="n">
-        <v>128.9</v>
+        <v>125.9</v>
       </c>
       <c r="E116" t="n">
-        <v>127.7</v>
+        <v>125.9</v>
       </c>
       <c r="F116" t="n">
-        <v>3673.631</v>
+        <v>4</v>
       </c>
       <c r="G116" t="n">
-        <v>126.7266666666667</v>
+        <v>437820.0217360261</v>
       </c>
       <c r="H116" t="n">
-        <v>125.875</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,42 +4512,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>128.9</v>
+        <v>123</v>
       </c>
       <c r="C117" t="n">
-        <v>128.9</v>
+        <v>123</v>
       </c>
       <c r="D117" t="n">
-        <v>128.9</v>
+        <v>123</v>
       </c>
       <c r="E117" t="n">
-        <v>128.9</v>
+        <v>123</v>
       </c>
       <c r="F117" t="n">
-        <v>10498.9587</v>
+        <v>2226.6263</v>
       </c>
       <c r="G117" t="n">
-        <v>126.9866666666667</v>
+        <v>435593.3954360261</v>
       </c>
       <c r="H117" t="n">
-        <v>125.9066666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,42 +4547,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>128.7</v>
+        <v>123.4</v>
       </c>
       <c r="C118" t="n">
-        <v>128.7</v>
+        <v>124.8</v>
       </c>
       <c r="D118" t="n">
-        <v>128.7</v>
+        <v>124.8</v>
       </c>
       <c r="E118" t="n">
-        <v>128.7</v>
+        <v>123.4</v>
       </c>
       <c r="F118" t="n">
-        <v>1536.4608</v>
+        <v>2758.0915</v>
       </c>
       <c r="G118" t="n">
-        <v>127.2066666666667</v>
+        <v>438351.4869360261</v>
       </c>
       <c r="H118" t="n">
-        <v>125.935</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,42 +4582,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>128.7</v>
+        <v>123</v>
       </c>
       <c r="C119" t="n">
-        <v>128.7</v>
+        <v>125.6</v>
       </c>
       <c r="D119" t="n">
-        <v>128.7</v>
+        <v>125.6</v>
       </c>
       <c r="E119" t="n">
-        <v>128.7</v>
+        <v>120.7</v>
       </c>
       <c r="F119" t="n">
-        <v>410.123</v>
+        <v>20353.0797</v>
       </c>
       <c r="G119" t="n">
-        <v>127.4266666666667</v>
+        <v>458704.5666360261</v>
       </c>
       <c r="H119" t="n">
-        <v>125.9466666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>128.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,42 +4617,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>127</v>
+        <v>123.5</v>
       </c>
       <c r="C120" t="n">
-        <v>126.6</v>
+        <v>124</v>
       </c>
       <c r="D120" t="n">
-        <v>127</v>
+        <v>124.5</v>
       </c>
       <c r="E120" t="n">
-        <v>126.6</v>
+        <v>120.6</v>
       </c>
       <c r="F120" t="n">
-        <v>353.7645</v>
+        <v>24317.2775</v>
       </c>
       <c r="G120" t="n">
-        <v>127.5333333333333</v>
+        <v>434387.2891360261</v>
       </c>
       <c r="H120" t="n">
-        <v>125.9083333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>128.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,42 +4652,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>128</v>
+        <v>121.7</v>
       </c>
       <c r="C121" t="n">
-        <v>128</v>
+        <v>123.9</v>
       </c>
       <c r="D121" t="n">
-        <v>128.7</v>
+        <v>124</v>
       </c>
       <c r="E121" t="n">
-        <v>128</v>
+        <v>121.7</v>
       </c>
       <c r="F121" t="n">
-        <v>514</v>
+        <v>5992.0515</v>
       </c>
       <c r="G121" t="n">
-        <v>127.74</v>
+        <v>428395.2376360261</v>
       </c>
       <c r="H121" t="n">
-        <v>125.9416666666666</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>126.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,42 +4687,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>128</v>
+        <v>123.9</v>
       </c>
       <c r="C122" t="n">
-        <v>128.7</v>
+        <v>123.9</v>
       </c>
       <c r="D122" t="n">
-        <v>128.7</v>
+        <v>123.9</v>
       </c>
       <c r="E122" t="n">
-        <v>128</v>
+        <v>123.9</v>
       </c>
       <c r="F122" t="n">
-        <v>635.4807</v>
+        <v>762.2328</v>
       </c>
       <c r="G122" t="n">
-        <v>127.8</v>
+        <v>428395.2376360261</v>
       </c>
       <c r="H122" t="n">
-        <v>125.97</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +4722,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>128.7</v>
+        <v>123.9</v>
       </c>
       <c r="C123" t="n">
-        <v>128.7</v>
+        <v>124</v>
       </c>
       <c r="D123" t="n">
-        <v>128.7</v>
+        <v>124</v>
       </c>
       <c r="E123" t="n">
-        <v>128.7</v>
+        <v>123.9</v>
       </c>
       <c r="F123" t="n">
-        <v>2467.4124</v>
+        <v>2934.3926</v>
       </c>
       <c r="G123" t="n">
-        <v>127.98</v>
+        <v>431329.6302360261</v>
       </c>
       <c r="H123" t="n">
-        <v>125.9983333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>128.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +4757,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="C124" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="D124" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="E124" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="F124" t="n">
-        <v>5961.7885</v>
+        <v>3821.0851</v>
       </c>
       <c r="G124" t="n">
-        <v>128.1666666666667</v>
+        <v>431329.6302360261</v>
       </c>
       <c r="H124" t="n">
-        <v>126.0283333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>128.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,42 +4792,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="D125" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="E125" t="n">
-        <v>128.8</v>
+        <v>124</v>
       </c>
       <c r="F125" t="n">
-        <v>56</v>
+        <v>5295.6057</v>
       </c>
       <c r="G125" t="n">
-        <v>128.38</v>
+        <v>431329.6302360261</v>
       </c>
       <c r="H125" t="n">
-        <v>126.075</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>128.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,42 +4827,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>128.8</v>
+        <v>123</v>
       </c>
       <c r="C126" t="n">
-        <v>128.8</v>
+        <v>123</v>
       </c>
       <c r="D126" t="n">
-        <v>128.8</v>
+        <v>123</v>
       </c>
       <c r="E126" t="n">
-        <v>128.8</v>
+        <v>123</v>
       </c>
       <c r="F126" t="n">
-        <v>11487.9045</v>
+        <v>31.4151</v>
       </c>
       <c r="G126" t="n">
-        <v>128.4533333333333</v>
+        <v>431298.2151360261</v>
       </c>
       <c r="H126" t="n">
-        <v>126.1083333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>128.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,40 +4862,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C127" t="n">
-        <v>132</v>
+        <v>120.8</v>
       </c>
       <c r="D127" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E127" t="n">
-        <v>129</v>
+        <v>120.8</v>
       </c>
       <c r="F127" t="n">
-        <v>18109.426</v>
+        <v>33771.9406</v>
       </c>
       <c r="G127" t="n">
-        <v>128.74</v>
+        <v>397526.2745360261</v>
       </c>
       <c r="H127" t="n">
-        <v>126.1966666666666</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,40 +4897,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C128" t="n">
-        <v>136</v>
+        <v>125.3</v>
       </c>
       <c r="D128" t="n">
-        <v>136</v>
+        <v>125.4</v>
       </c>
       <c r="E128" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F128" t="n">
-        <v>24531.17083691177</v>
+        <v>2059</v>
       </c>
       <c r="G128" t="n">
-        <v>129.2133333333333</v>
+        <v>399585.2745360261</v>
       </c>
       <c r="H128" t="n">
-        <v>126.38</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,40 +4932,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C129" t="n">
-        <v>136.5</v>
+        <v>125</v>
       </c>
       <c r="D129" t="n">
-        <v>136.5</v>
+        <v>125</v>
       </c>
       <c r="E129" t="n">
-        <v>134.9</v>
+        <v>125</v>
       </c>
       <c r="F129" t="n">
-        <v>12609.1132</v>
+        <v>825.7637</v>
       </c>
       <c r="G129" t="n">
-        <v>129.72</v>
+        <v>398759.510836026</v>
       </c>
       <c r="H129" t="n">
-        <v>126.5383333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,40 +4967,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>136.5</v>
+        <v>125</v>
       </c>
       <c r="C130" t="n">
-        <v>136.4</v>
+        <v>124.9</v>
       </c>
       <c r="D130" t="n">
-        <v>136.5</v>
+        <v>125</v>
       </c>
       <c r="E130" t="n">
-        <v>136.4</v>
+        <v>124.9</v>
       </c>
       <c r="F130" t="n">
-        <v>13823.8166</v>
+        <v>17045.9589</v>
       </c>
       <c r="G130" t="n">
-        <v>130.3</v>
+        <v>381713.551936026</v>
       </c>
       <c r="H130" t="n">
-        <v>126.695</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5554,40 +5002,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>136.4</v>
+        <v>125</v>
       </c>
       <c r="C131" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D131" t="n">
-        <v>136.4</v>
+        <v>125</v>
       </c>
       <c r="E131" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F131" t="n">
-        <v>3525.8631</v>
+        <v>10192.3436</v>
       </c>
       <c r="G131" t="n">
-        <v>130.7066666666666</v>
+        <v>391905.895536026</v>
       </c>
       <c r="H131" t="n">
-        <v>126.8116666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,40 +5037,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>135</v>
+        <v>125.4</v>
       </c>
       <c r="C132" t="n">
-        <v>134</v>
+        <v>125.4</v>
       </c>
       <c r="D132" t="n">
-        <v>135</v>
+        <v>125.4</v>
       </c>
       <c r="E132" t="n">
-        <v>134</v>
+        <v>125.4</v>
       </c>
       <c r="F132" t="n">
-        <v>8426.9476</v>
+        <v>7.1096</v>
       </c>
       <c r="G132" t="n">
-        <v>131.0466666666667</v>
+        <v>391913.0051360261</v>
       </c>
       <c r="H132" t="n">
-        <v>126.9116666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,40 +5072,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>134</v>
+        <v>122.5</v>
       </c>
       <c r="C133" t="n">
-        <v>134</v>
+        <v>125.4</v>
       </c>
       <c r="D133" t="n">
-        <v>134</v>
+        <v>125.4</v>
       </c>
       <c r="E133" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F133" t="n">
-        <v>3305.39552238806</v>
+        <v>16390.7324</v>
       </c>
       <c r="G133" t="n">
-        <v>131.4</v>
+        <v>391913.0051360261</v>
       </c>
       <c r="H133" t="n">
-        <v>127.045</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,40 +5107,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C134" t="n">
-        <v>133.1</v>
+        <v>125</v>
       </c>
       <c r="D134" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E134" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F134" t="n">
-        <v>3136.2139</v>
+        <v>7949.6468</v>
       </c>
       <c r="G134" t="n">
-        <v>131.6933333333333</v>
+        <v>383963.3583360261</v>
       </c>
       <c r="H134" t="n">
-        <v>127.1616666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,40 +5142,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>134.7</v>
+        <v>124.9</v>
       </c>
       <c r="C135" t="n">
-        <v>134</v>
+        <v>124.9</v>
       </c>
       <c r="D135" t="n">
-        <v>134.7</v>
+        <v>124.9</v>
       </c>
       <c r="E135" t="n">
-        <v>133</v>
+        <v>124.9</v>
       </c>
       <c r="F135" t="n">
-        <v>2471.2747</v>
+        <v>754.4882</v>
       </c>
       <c r="G135" t="n">
-        <v>132.1866666666666</v>
+        <v>383208.8701360261</v>
       </c>
       <c r="H135" t="n">
-        <v>127.2933333333333</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,40 +5177,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>134</v>
+        <v>125.4</v>
       </c>
       <c r="C136" t="n">
-        <v>134</v>
+        <v>127.8</v>
       </c>
       <c r="D136" t="n">
-        <v>134</v>
+        <v>127.8</v>
       </c>
       <c r="E136" t="n">
-        <v>134</v>
+        <v>125.4</v>
       </c>
       <c r="F136" t="n">
-        <v>2629</v>
+        <v>1789</v>
       </c>
       <c r="G136" t="n">
-        <v>132.5866666666666</v>
+        <v>384997.8701360261</v>
       </c>
       <c r="H136" t="n">
-        <v>127.425</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,40 +5212,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C137" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D137" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E137" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F137" t="n">
-        <v>5993.1725</v>
+        <v>335</v>
       </c>
       <c r="G137" t="n">
-        <v>132.8733333333333</v>
+        <v>384662.8701360261</v>
       </c>
       <c r="H137" t="n">
-        <v>127.5399999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,40 +5247,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>134.6</v>
+        <v>126</v>
       </c>
       <c r="C138" t="n">
-        <v>134.6</v>
+        <v>126</v>
       </c>
       <c r="D138" t="n">
-        <v>134.6</v>
+        <v>126</v>
       </c>
       <c r="E138" t="n">
-        <v>134.6</v>
+        <v>126</v>
       </c>
       <c r="F138" t="n">
-        <v>17660.493</v>
+        <v>335</v>
       </c>
       <c r="G138" t="n">
-        <v>133.2666666666667</v>
+        <v>384662.8701360261</v>
       </c>
       <c r="H138" t="n">
-        <v>127.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,40 +5282,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>135.4</v>
+        <v>125.6</v>
       </c>
       <c r="C139" t="n">
-        <v>135.4</v>
+        <v>125.6</v>
       </c>
       <c r="D139" t="n">
-        <v>135.4</v>
+        <v>126.6</v>
       </c>
       <c r="E139" t="n">
-        <v>135.4</v>
+        <v>125.6</v>
       </c>
       <c r="F139" t="n">
-        <v>171.427</v>
+        <v>1204.9999</v>
       </c>
       <c r="G139" t="n">
-        <v>133.7066666666666</v>
+        <v>383457.8702360261</v>
       </c>
       <c r="H139" t="n">
-        <v>127.8399999999999</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5932,40 +5317,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>134.6</v>
+        <v>126</v>
       </c>
       <c r="C140" t="n">
-        <v>134.6</v>
+        <v>127.7</v>
       </c>
       <c r="D140" t="n">
-        <v>135.4</v>
+        <v>127.7</v>
       </c>
       <c r="E140" t="n">
-        <v>133.1</v>
+        <v>125</v>
       </c>
       <c r="F140" t="n">
-        <v>3006.9139</v>
+        <v>6996.6867</v>
       </c>
       <c r="G140" t="n">
-        <v>134.0933333333333</v>
+        <v>390454.5569360261</v>
       </c>
       <c r="H140" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,40 +5352,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>134.9</v>
+        <v>127.7</v>
       </c>
       <c r="C141" t="n">
-        <v>134.9</v>
+        <v>127.7</v>
       </c>
       <c r="D141" t="n">
-        <v>134.9</v>
+        <v>127.7</v>
       </c>
       <c r="E141" t="n">
-        <v>134.8</v>
+        <v>127.7</v>
       </c>
       <c r="F141" t="n">
-        <v>8855.4354</v>
+        <v>2309.4784</v>
       </c>
       <c r="G141" t="n">
-        <v>134.5</v>
+        <v>390454.5569360261</v>
       </c>
       <c r="H141" t="n">
-        <v>128.1649999999999</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,40 +5387,1048 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>134.9</v>
+        <v>127.5</v>
       </c>
       <c r="C142" t="n">
-        <v>135</v>
+        <v>128.9</v>
       </c>
       <c r="D142" t="n">
-        <v>135</v>
+        <v>128.9</v>
       </c>
       <c r="E142" t="n">
-        <v>134.9</v>
+        <v>127.5</v>
       </c>
       <c r="F142" t="n">
-        <v>11035.1996</v>
+        <v>7665.988751357641</v>
       </c>
       <c r="G142" t="n">
-        <v>134.7</v>
+        <v>398120.5456873837</v>
       </c>
       <c r="H142" t="n">
-        <v>128.3316666666666</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>127</v>
+      </c>
+      <c r="C143" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>127</v>
+      </c>
+      <c r="F143" t="n">
+        <v>748.0741</v>
+      </c>
+      <c r="G143" t="n">
+        <v>398120.5456873837</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>397720.5456873837</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3673.631</v>
+      </c>
+      <c r="G145" t="n">
+        <v>401394.1766873837</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10498.9587</v>
+      </c>
+      <c r="G146" t="n">
+        <v>401394.1766873837</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1536.4608</v>
+      </c>
+      <c r="G147" t="n">
+        <v>399857.7158873837</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>410.123</v>
+      </c>
+      <c r="G148" t="n">
+        <v>399857.7158873837</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>127</v>
+      </c>
+      <c r="C149" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>127</v>
+      </c>
+      <c r="E149" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>353.7645</v>
+      </c>
+      <c r="G149" t="n">
+        <v>399503.9513873837</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>128</v>
+      </c>
+      <c r="C150" t="n">
+        <v>128</v>
+      </c>
+      <c r="D150" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>128</v>
+      </c>
+      <c r="F150" t="n">
+        <v>514</v>
+      </c>
+      <c r="G150" t="n">
+        <v>400017.9513873837</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>128</v>
+      </c>
+      <c r="C151" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>128</v>
+      </c>
+      <c r="F151" t="n">
+        <v>635.4807</v>
+      </c>
+      <c r="G151" t="n">
+        <v>400653.4320873838</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2467.4124</v>
+      </c>
+      <c r="G152" t="n">
+        <v>400653.4320873838</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5961.7885</v>
+      </c>
+      <c r="G153" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>56</v>
+      </c>
+      <c r="G154" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11487.9045</v>
+      </c>
+      <c r="G155" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>129</v>
+      </c>
+      <c r="C156" t="n">
+        <v>132</v>
+      </c>
+      <c r="D156" t="n">
+        <v>132</v>
+      </c>
+      <c r="E156" t="n">
+        <v>129</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18109.426</v>
+      </c>
+      <c r="G156" t="n">
+        <v>424724.6465873838</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>133</v>
+      </c>
+      <c r="C157" t="n">
+        <v>136</v>
+      </c>
+      <c r="D157" t="n">
+        <v>136</v>
+      </c>
+      <c r="E157" t="n">
+        <v>133</v>
+      </c>
+      <c r="F157" t="n">
+        <v>24531.17083691177</v>
+      </c>
+      <c r="G157" t="n">
+        <v>449255.8174242955</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>135</v>
+      </c>
+      <c r="C158" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>12609.1132</v>
+      </c>
+      <c r="G158" t="n">
+        <v>461864.9306242955</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>13823.8166</v>
+      </c>
+      <c r="G159" t="n">
+        <v>448041.1140242955</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>135</v>
+      </c>
+      <c r="D160" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>135</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3525.8631</v>
+      </c>
+      <c r="G160" t="n">
+        <v>444515.2509242955</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>135</v>
+      </c>
+      <c r="C161" t="n">
+        <v>134</v>
+      </c>
+      <c r="D161" t="n">
+        <v>135</v>
+      </c>
+      <c r="E161" t="n">
+        <v>134</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8426.9476</v>
+      </c>
+      <c r="G161" t="n">
+        <v>436088.3033242955</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>134</v>
+      </c>
+      <c r="C162" t="n">
+        <v>134</v>
+      </c>
+      <c r="D162" t="n">
+        <v>134</v>
+      </c>
+      <c r="E162" t="n">
+        <v>134</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3305.39552238806</v>
+      </c>
+      <c r="G162" t="n">
+        <v>436088.3033242955</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>134</v>
+      </c>
+      <c r="C163" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>134</v>
+      </c>
+      <c r="E163" t="n">
+        <v>132</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3136.2139</v>
+      </c>
+      <c r="G163" t="n">
+        <v>432952.0894242955</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>134</v>
+      </c>
+      <c r="D164" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>133</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2471.2747</v>
+      </c>
+      <c r="G164" t="n">
+        <v>435423.3641242955</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>134</v>
+      </c>
+      <c r="C165" t="n">
+        <v>134</v>
+      </c>
+      <c r="D165" t="n">
+        <v>134</v>
+      </c>
+      <c r="E165" t="n">
+        <v>134</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2629</v>
+      </c>
+      <c r="G165" t="n">
+        <v>435423.3641242955</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>134</v>
+      </c>
+      <c r="C166" t="n">
+        <v>133</v>
+      </c>
+      <c r="D166" t="n">
+        <v>134</v>
+      </c>
+      <c r="E166" t="n">
+        <v>133</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5993.1725</v>
+      </c>
+      <c r="G166" t="n">
+        <v>429430.1916242955</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C167" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17660.493</v>
+      </c>
+      <c r="G167" t="n">
+        <v>447090.6846242956</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>171.427</v>
+      </c>
+      <c r="G168" t="n">
+        <v>447262.1116242956</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3006.9139</v>
+      </c>
+      <c r="G169" t="n">
+        <v>444255.1977242956</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8855.4354</v>
+      </c>
+      <c r="G170" t="n">
+        <v>453110.6331242956</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>135</v>
+      </c>
+      <c r="D171" t="n">
+        <v>135</v>
+      </c>
+      <c r="E171" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11035.1996</v>
+      </c>
+      <c r="G171" t="n">
+        <v>464145.8327242956</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>132.6</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>134.5</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
-        <v>134.5</v>
+        <v>128</v>
       </c>
       <c r="E2" t="n">
-        <v>132.6</v>
+        <v>128</v>
       </c>
       <c r="F2" t="n">
-        <v>3712.1236</v>
+        <v>376</v>
       </c>
       <c r="G2" t="n">
-        <v>594533.0542048541</v>
+        <v>522754.3938360262</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>133.8</v>
+        <v>128</v>
       </c>
       <c r="C3" t="n">
-        <v>132.1</v>
+        <v>129</v>
       </c>
       <c r="D3" t="n">
-        <v>133.8</v>
+        <v>129.9</v>
       </c>
       <c r="E3" t="n">
-        <v>132.1</v>
+        <v>128</v>
       </c>
       <c r="F3" t="n">
-        <v>23847.8473</v>
+        <v>12702.5842</v>
       </c>
       <c r="G3" t="n">
-        <v>570685.206904854</v>
+        <v>535456.9780360262</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,69 +503,65 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>132</v>
+        <v>127.2</v>
       </c>
       <c r="C4" t="n">
-        <v>132.7</v>
+        <v>128.9</v>
       </c>
       <c r="D4" t="n">
-        <v>132.7</v>
+        <v>128.9</v>
       </c>
       <c r="E4" t="n">
-        <v>130</v>
+        <v>126.1</v>
       </c>
       <c r="F4" t="n">
-        <v>69093.6727</v>
+        <v>6005.6286</v>
       </c>
       <c r="G4" t="n">
-        <v>639778.879604854</v>
+        <v>529451.3494360262</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>132.1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>130.8</v>
+        <v>127.1</v>
       </c>
       <c r="C5" t="n">
-        <v>130.8</v>
+        <v>128</v>
       </c>
       <c r="D5" t="n">
-        <v>130.8</v>
+        <v>128</v>
       </c>
       <c r="E5" t="n">
-        <v>129.5</v>
+        <v>127.1</v>
       </c>
       <c r="F5" t="n">
-        <v>46554.819</v>
+        <v>10976.0437</v>
       </c>
       <c r="G5" t="n">
-        <v>593224.060604854</v>
+        <v>518475.3057360262</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -569,118 +571,105 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>133.7</v>
+        <v>127.7</v>
       </c>
       <c r="C6" t="n">
-        <v>131.6</v>
+        <v>128.7</v>
       </c>
       <c r="D6" t="n">
-        <v>133.7</v>
+        <v>128.7</v>
       </c>
       <c r="E6" t="n">
-        <v>130.1</v>
+        <v>127.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10997.39461323308</v>
+        <v>712</v>
       </c>
       <c r="G6" t="n">
-        <v>604221.4552180871</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>130.8</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>132</v>
+        <v>128.7</v>
       </c>
       <c r="C7" t="n">
-        <v>132</v>
+        <v>128.7</v>
       </c>
       <c r="D7" t="n">
-        <v>132</v>
+        <v>128.7</v>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>128.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2360.9998</v>
+        <v>401.8926</v>
       </c>
       <c r="G7" t="n">
-        <v>606582.4550180871</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>131.6</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>133.6</v>
+        <v>127.2</v>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>128.7</v>
       </c>
       <c r="D8" t="n">
-        <v>133.6</v>
+        <v>129.8</v>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F8" t="n">
-        <v>6711.6604</v>
+        <v>14440.6569</v>
       </c>
       <c r="G8" t="n">
-        <v>606582.4550180871</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,194 +679,177 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132</v>
+        <v>127.2</v>
       </c>
       <c r="C9" t="n">
-        <v>133.3</v>
+        <v>126.2</v>
       </c>
       <c r="D9" t="n">
-        <v>133.3</v>
+        <v>127.2</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>126.2</v>
       </c>
       <c r="F9" t="n">
-        <v>5712.7564</v>
+        <v>3883.458</v>
       </c>
       <c r="G9" t="n">
-        <v>612295.211418087</v>
+        <v>515303.8477360262</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>132</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.1</v>
+        <v>127.2</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1</v>
+        <v>126.2</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1</v>
+        <v>127.2</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1</v>
+        <v>126.2</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3081.1327</v>
       </c>
       <c r="G10" t="n">
-        <v>612291.211418087</v>
+        <v>515303.8477360262</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133.3</v>
+        <v>127.5</v>
       </c>
       <c r="C11" t="n">
-        <v>132.1</v>
+        <v>128.5</v>
       </c>
       <c r="D11" t="n">
-        <v>133.3</v>
+        <v>128.5</v>
       </c>
       <c r="E11" t="n">
-        <v>128.1</v>
+        <v>127.5</v>
       </c>
       <c r="F11" t="n">
-        <v>9457.756600000001</v>
+        <v>3997</v>
       </c>
       <c r="G11" t="n">
-        <v>602833.454818087</v>
+        <v>519300.8477360262</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132.1</v>
+        <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" t="n">
-        <v>134.9</v>
+        <v>128</v>
       </c>
       <c r="E12" t="n">
-        <v>128.1</v>
+        <v>127.2</v>
       </c>
       <c r="F12" t="n">
-        <v>37705.65368206079</v>
+        <v>2407.1744</v>
       </c>
       <c r="G12" t="n">
-        <v>565127.8011360263</v>
+        <v>516893.6733360262</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" t="n">
-        <v>132</v>
+        <v>127.2</v>
       </c>
       <c r="D13" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>131</v>
+        <v>127.2</v>
       </c>
       <c r="F13" t="n">
-        <v>3493.7111</v>
+        <v>1515</v>
       </c>
       <c r="G13" t="n">
-        <v>568621.5122360262</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -887,36 +859,33 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131</v>
+        <v>127.5</v>
       </c>
       <c r="C14" t="n">
-        <v>133.1</v>
+        <v>127.2</v>
       </c>
       <c r="D14" t="n">
-        <v>133.1</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>127.2</v>
       </c>
       <c r="F14" t="n">
-        <v>14013.075</v>
+        <v>6588.7285</v>
       </c>
       <c r="G14" t="n">
-        <v>582634.5872360262</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -926,36 +895,33 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133.9</v>
+        <v>127.2</v>
       </c>
       <c r="C15" t="n">
-        <v>130.9</v>
+        <v>127.2</v>
       </c>
       <c r="D15" t="n">
-        <v>133.9</v>
+        <v>127.2</v>
       </c>
       <c r="E15" t="n">
-        <v>130.9</v>
+        <v>127</v>
       </c>
       <c r="F15" t="n">
-        <v>248.0732</v>
+        <v>5772.782</v>
       </c>
       <c r="G15" t="n">
-        <v>582386.5140360262</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -965,34 +931,33 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130.7</v>
+        <v>126.2</v>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>126.2</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7</v>
+        <v>126.2</v>
       </c>
       <c r="E16" t="n">
-        <v>130</v>
+        <v>126.2</v>
       </c>
       <c r="F16" t="n">
-        <v>11100.742</v>
+        <v>6135.9839</v>
       </c>
       <c r="G16" t="n">
-        <v>571285.7720360262</v>
+        <v>509242.6894360262</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1006,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>130.1</v>
+        <v>127</v>
       </c>
       <c r="C17" t="n">
-        <v>130.4</v>
+        <v>126</v>
       </c>
       <c r="D17" t="n">
-        <v>130.4</v>
+        <v>127</v>
       </c>
       <c r="E17" t="n">
-        <v>130.1</v>
+        <v>126</v>
       </c>
       <c r="F17" t="n">
-        <v>21342.3757</v>
+        <v>6168.5911</v>
       </c>
       <c r="G17" t="n">
-        <v>592628.1477360262</v>
+        <v>503074.0983360262</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1041,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>130.4</v>
+        <v>127</v>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D18" t="n">
-        <v>130.4</v>
+        <v>127</v>
       </c>
       <c r="E18" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F18" t="n">
-        <v>3647.5248</v>
+        <v>11022.1271</v>
       </c>
       <c r="G18" t="n">
-        <v>588980.6229360262</v>
+        <v>503074.0983360262</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1076,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" t="n">
-        <v>130</v>
+        <v>125.2</v>
       </c>
       <c r="D19" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E19" t="n">
-        <v>128</v>
+        <v>125.2</v>
       </c>
       <c r="F19" t="n">
-        <v>33338.0921</v>
+        <v>38249.5314</v>
       </c>
       <c r="G19" t="n">
-        <v>588980.6229360262</v>
+        <v>464824.5669360262</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1111,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D20" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E20" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F20" t="n">
-        <v>3268.3237</v>
+        <v>9004.7618</v>
       </c>
       <c r="G20" t="n">
-        <v>588980.6229360262</v>
+        <v>455819.8051360262</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1146,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>130.3</v>
+        <v>125</v>
       </c>
       <c r="C21" t="n">
-        <v>130.5</v>
+        <v>124.5</v>
       </c>
       <c r="D21" t="n">
-        <v>130.5</v>
+        <v>125</v>
       </c>
       <c r="E21" t="n">
-        <v>130.3</v>
+        <v>124.5</v>
       </c>
       <c r="F21" t="n">
-        <v>15245.8628</v>
+        <v>18610.7136</v>
       </c>
       <c r="G21" t="n">
-        <v>604226.4857360262</v>
+        <v>437209.0915360262</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1181,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>130.5</v>
+        <v>126</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3</v>
+        <v>128.4</v>
       </c>
       <c r="D22" t="n">
-        <v>130.5</v>
+        <v>128.4</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3</v>
+        <v>125.9</v>
       </c>
       <c r="F22" t="n">
-        <v>13082.474</v>
+        <v>25959.9531</v>
       </c>
       <c r="G22" t="n">
-        <v>591144.0117360262</v>
+        <v>463169.0446360262</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1216,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>130.2</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>128.5</v>
+        <v>127.9</v>
       </c>
       <c r="D23" t="n">
-        <v>130.4</v>
+        <v>128</v>
       </c>
       <c r="E23" t="n">
-        <v>128.5</v>
+        <v>127</v>
       </c>
       <c r="F23" t="n">
-        <v>12574.4947</v>
+        <v>12527.7071</v>
       </c>
       <c r="G23" t="n">
-        <v>578569.5170360261</v>
+        <v>450641.3375360262</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1251,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>131</v>
+        <v>127.9</v>
       </c>
       <c r="C24" t="n">
-        <v>131</v>
+        <v>127.9</v>
       </c>
       <c r="D24" t="n">
-        <v>131</v>
+        <v>127.9</v>
       </c>
       <c r="E24" t="n">
-        <v>131</v>
+        <v>127.9</v>
       </c>
       <c r="F24" t="n">
-        <v>3.9307</v>
+        <v>6595.4266</v>
       </c>
       <c r="G24" t="n">
-        <v>578573.4477360261</v>
+        <v>450641.3375360262</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1286,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>128.6</v>
+        <v>128</v>
       </c>
       <c r="C25" t="n">
-        <v>130.9</v>
+        <v>128</v>
       </c>
       <c r="D25" t="n">
-        <v>130.9</v>
+        <v>128</v>
       </c>
       <c r="E25" t="n">
-        <v>128.6</v>
+        <v>128</v>
       </c>
       <c r="F25" t="n">
-        <v>25869.2523</v>
+        <v>80.05419999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>552704.1954360261</v>
+        <v>450721.3917360262</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1321,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>129.8</v>
+        <v>127.2</v>
       </c>
       <c r="C26" t="n">
-        <v>129.8</v>
+        <v>127.2</v>
       </c>
       <c r="D26" t="n">
-        <v>130.9</v>
+        <v>127.2</v>
       </c>
       <c r="E26" t="n">
-        <v>129.5</v>
+        <v>127.2</v>
       </c>
       <c r="F26" t="n">
-        <v>2206.9195</v>
+        <v>2240.8962</v>
       </c>
       <c r="G26" t="n">
-        <v>550497.2759360261</v>
+        <v>448480.4955360262</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1356,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>130.3</v>
+        <v>127.1</v>
       </c>
       <c r="C27" t="n">
-        <v>130.3</v>
+        <v>126.1</v>
       </c>
       <c r="D27" t="n">
-        <v>130.3</v>
+        <v>127.1</v>
       </c>
       <c r="E27" t="n">
-        <v>130.3</v>
+        <v>126.1</v>
       </c>
       <c r="F27" t="n">
-        <v>54.4817</v>
+        <v>2116.7923</v>
       </c>
       <c r="G27" t="n">
-        <v>550551.7576360261</v>
+        <v>446363.7032360262</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1391,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>129.9</v>
+        <v>127</v>
       </c>
       <c r="C28" t="n">
-        <v>130.3</v>
+        <v>123.5</v>
       </c>
       <c r="D28" t="n">
-        <v>130.3</v>
+        <v>127</v>
       </c>
       <c r="E28" t="n">
-        <v>129.9</v>
+        <v>123.5</v>
       </c>
       <c r="F28" t="n">
-        <v>2134.1622</v>
+        <v>35719.2853</v>
       </c>
       <c r="G28" t="n">
-        <v>550551.7576360261</v>
+        <v>410644.4179360262</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1426,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>130.3</v>
+        <v>125.6</v>
       </c>
       <c r="C29" t="n">
-        <v>130.3</v>
+        <v>129.9</v>
       </c>
       <c r="D29" t="n">
-        <v>130.3</v>
+        <v>129.9</v>
       </c>
       <c r="E29" t="n">
-        <v>130.3</v>
+        <v>125</v>
       </c>
       <c r="F29" t="n">
-        <v>4570</v>
+        <v>7663.1212</v>
       </c>
       <c r="G29" t="n">
-        <v>550551.7576360261</v>
+        <v>418307.5391360262</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1461,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>130.3</v>
+        <v>127.7</v>
       </c>
       <c r="C30" t="n">
-        <v>130.3</v>
+        <v>128.7</v>
       </c>
       <c r="D30" t="n">
-        <v>130.3</v>
+        <v>128.7</v>
       </c>
       <c r="E30" t="n">
-        <v>130.3</v>
+        <v>126.6</v>
       </c>
       <c r="F30" t="n">
-        <v>14.6505</v>
+        <v>2575.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>550551.7576360261</v>
+        <v>415731.5392360262</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1496,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>130.4</v>
+        <v>127.7</v>
       </c>
       <c r="C31" t="n">
-        <v>130.4</v>
+        <v>127.8</v>
       </c>
       <c r="D31" t="n">
-        <v>130.4</v>
+        <v>127.8</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4</v>
+        <v>127.7</v>
       </c>
       <c r="F31" t="n">
-        <v>12.3897</v>
+        <v>1588.9998</v>
       </c>
       <c r="G31" t="n">
-        <v>550564.1473360262</v>
+        <v>414142.5394360262</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1531,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>130.4</v>
+        <v>127</v>
       </c>
       <c r="C32" t="n">
-        <v>130.4</v>
+        <v>129.9</v>
       </c>
       <c r="D32" t="n">
-        <v>130.4</v>
+        <v>129.9</v>
       </c>
       <c r="E32" t="n">
-        <v>130.4</v>
+        <v>127</v>
       </c>
       <c r="F32" t="n">
-        <v>21.1864</v>
+        <v>14801.6287</v>
       </c>
       <c r="G32" t="n">
-        <v>550564.1473360262</v>
+        <v>428944.1681360262</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1566,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>130.9</v>
+        <v>127</v>
       </c>
       <c r="C33" t="n">
-        <v>130.9</v>
+        <v>126.9</v>
       </c>
       <c r="D33" t="n">
-        <v>130.9</v>
+        <v>127.9</v>
       </c>
       <c r="E33" t="n">
-        <v>130.9</v>
+        <v>126</v>
       </c>
       <c r="F33" t="n">
-        <v>6.6742</v>
+        <v>14940.0884</v>
       </c>
       <c r="G33" t="n">
-        <v>550570.8215360262</v>
+        <v>414004.0797360262</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1601,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3</v>
+        <v>128.2</v>
       </c>
       <c r="D34" t="n">
-        <v>131</v>
+        <v>128.2</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3</v>
+        <v>126</v>
       </c>
       <c r="F34" t="n">
-        <v>10830.1717</v>
+        <v>5656</v>
       </c>
       <c r="G34" t="n">
-        <v>539740.6498360262</v>
+        <v>419660.0797360262</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1636,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>130.3</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n">
-        <v>129.8</v>
+        <v>128</v>
       </c>
       <c r="D35" t="n">
-        <v>130.9</v>
+        <v>128</v>
       </c>
       <c r="E35" t="n">
-        <v>128.4</v>
+        <v>128</v>
       </c>
       <c r="F35" t="n">
-        <v>46250.5491</v>
+        <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>493490.1007360262</v>
+        <v>419460.0797360262</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1671,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>129.8</v>
+        <v>127.5</v>
       </c>
       <c r="C36" t="n">
-        <v>129.8</v>
+        <v>127.5</v>
       </c>
       <c r="D36" t="n">
-        <v>130.8</v>
+        <v>127.5</v>
       </c>
       <c r="E36" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="F36" t="n">
-        <v>18574.4359</v>
+        <v>1189</v>
       </c>
       <c r="G36" t="n">
-        <v>493490.1007360262</v>
+        <v>418271.0797360262</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1706,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="C37" t="n">
-        <v>130</v>
+        <v>127.4</v>
       </c>
       <c r="D37" t="n">
-        <v>130</v>
+        <v>127.4</v>
       </c>
       <c r="E37" t="n">
-        <v>126.5</v>
+        <v>127.4</v>
       </c>
       <c r="F37" t="n">
-        <v>35284.64</v>
+        <v>1545</v>
       </c>
       <c r="G37" t="n">
-        <v>528774.7407360262</v>
+        <v>416726.0797360262</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1741,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>127.5</v>
+        <v>127.4</v>
       </c>
       <c r="C38" t="n">
-        <v>126.4</v>
+        <v>128.1</v>
       </c>
       <c r="D38" t="n">
-        <v>127.5</v>
+        <v>128.1</v>
       </c>
       <c r="E38" t="n">
-        <v>126.4</v>
+        <v>127.4</v>
       </c>
       <c r="F38" t="n">
-        <v>5578.299</v>
+        <v>6386.5883</v>
       </c>
       <c r="G38" t="n">
-        <v>523196.4417360262</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1776,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>126</v>
+        <v>128.1</v>
       </c>
       <c r="C39" t="n">
-        <v>126</v>
+        <v>128.1</v>
       </c>
       <c r="D39" t="n">
-        <v>126</v>
+        <v>128.1</v>
       </c>
       <c r="E39" t="n">
-        <v>126</v>
+        <v>128.1</v>
       </c>
       <c r="F39" t="n">
-        <v>374.9613</v>
+        <v>827</v>
       </c>
       <c r="G39" t="n">
-        <v>522821.4804360262</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1811,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>128</v>
+        <v>128.1</v>
       </c>
       <c r="C40" t="n">
-        <v>130</v>
+        <v>128.1</v>
       </c>
       <c r="D40" t="n">
-        <v>130</v>
+        <v>128.1</v>
       </c>
       <c r="E40" t="n">
-        <v>128</v>
+        <v>128.1</v>
       </c>
       <c r="F40" t="n">
-        <v>752</v>
+        <v>2961.7012</v>
       </c>
       <c r="G40" t="n">
-        <v>523573.4804360262</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1846,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>128</v>
+        <v>128.1</v>
       </c>
       <c r="C41" t="n">
-        <v>128.9</v>
+        <v>128.1</v>
       </c>
       <c r="D41" t="n">
-        <v>128.9</v>
+        <v>128.1</v>
       </c>
       <c r="E41" t="n">
-        <v>127</v>
+        <v>128.1</v>
       </c>
       <c r="F41" t="n">
-        <v>2518.5389</v>
+        <v>2489.1525</v>
       </c>
       <c r="G41" t="n">
-        <v>521054.9415360262</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1881,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E42" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" t="n">
-        <v>135.3297</v>
+        <v>136.8418</v>
       </c>
       <c r="G42" t="n">
-        <v>521190.2712360262</v>
+        <v>422975.8262360262</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1916,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>129</v>
+        <v>125.3</v>
       </c>
       <c r="C43" t="n">
-        <v>129.8</v>
+        <v>125.3</v>
       </c>
       <c r="D43" t="n">
-        <v>129.8</v>
+        <v>125.3</v>
       </c>
       <c r="E43" t="n">
-        <v>129</v>
+        <v>125.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1940.1226</v>
+        <v>2971.8705</v>
       </c>
       <c r="G43" t="n">
-        <v>523130.3938360262</v>
+        <v>420003.9557360262</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1951,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" t="n">
-        <v>376</v>
+        <v>5873.9678</v>
       </c>
       <c r="G44" t="n">
-        <v>522754.3938360262</v>
+        <v>425877.9235360262</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" t="n">
-        <v>129.9</v>
+        <v>127</v>
       </c>
       <c r="E45" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" t="n">
-        <v>12702.5842</v>
+        <v>3748.9788</v>
       </c>
       <c r="G45" t="n">
-        <v>535456.9780360262</v>
+        <v>425877.9235360262</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2021,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>127.2</v>
+        <v>129</v>
       </c>
       <c r="C46" t="n">
-        <v>128.9</v>
+        <v>128</v>
       </c>
       <c r="D46" t="n">
-        <v>128.9</v>
+        <v>129</v>
       </c>
       <c r="E46" t="n">
-        <v>126.1</v>
+        <v>128</v>
       </c>
       <c r="F46" t="n">
-        <v>6005.6286</v>
+        <v>7911.8489</v>
       </c>
       <c r="G46" t="n">
-        <v>529451.3494360262</v>
+        <v>433789.7724360262</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2056,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>127.1</v>
+        <v>127</v>
       </c>
       <c r="C47" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="D47" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="E47" t="n">
-        <v>127.1</v>
+        <v>126.2</v>
       </c>
       <c r="F47" t="n">
-        <v>10976.0437</v>
+        <v>11933.7177</v>
       </c>
       <c r="G47" t="n">
-        <v>518475.3057360262</v>
+        <v>445723.4901360262</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2091,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>127.7</v>
+        <v>126</v>
       </c>
       <c r="C48" t="n">
-        <v>128.7</v>
+        <v>126</v>
       </c>
       <c r="D48" t="n">
-        <v>128.7</v>
+        <v>126</v>
       </c>
       <c r="E48" t="n">
-        <v>127.7</v>
+        <v>126</v>
       </c>
       <c r="F48" t="n">
-        <v>712</v>
+        <v>55</v>
       </c>
       <c r="G48" t="n">
-        <v>519187.3057360262</v>
+        <v>445668.4901360262</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2126,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>128.7</v>
+        <v>125.1</v>
       </c>
       <c r="C49" t="n">
-        <v>128.7</v>
+        <v>127</v>
       </c>
       <c r="D49" t="n">
-        <v>128.7</v>
+        <v>127</v>
       </c>
       <c r="E49" t="n">
-        <v>128.7</v>
+        <v>124.1</v>
       </c>
       <c r="F49" t="n">
-        <v>401.8926</v>
+        <v>7207.5645</v>
       </c>
       <c r="G49" t="n">
-        <v>519187.3057360262</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2161,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>127.2</v>
+        <v>127</v>
       </c>
       <c r="C50" t="n">
-        <v>128.7</v>
+        <v>127</v>
       </c>
       <c r="D50" t="n">
-        <v>129.8</v>
+        <v>127</v>
       </c>
       <c r="E50" t="n">
         <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>14440.6569</v>
+        <v>7567.1719</v>
       </c>
       <c r="G50" t="n">
-        <v>519187.3057360262</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2196,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>127.2</v>
+        <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>126.2</v>
+        <v>127</v>
       </c>
       <c r="D51" t="n">
-        <v>127.2</v>
+        <v>127</v>
       </c>
       <c r="E51" t="n">
-        <v>126.2</v>
+        <v>127</v>
       </c>
       <c r="F51" t="n">
-        <v>3883.458</v>
+        <v>735</v>
       </c>
       <c r="G51" t="n">
-        <v>515303.8477360262</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2231,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>127.2</v>
+        <v>124.9</v>
       </c>
       <c r="C52" t="n">
-        <v>126.2</v>
+        <v>126</v>
       </c>
       <c r="D52" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="E52" t="n">
-        <v>126.2</v>
+        <v>123.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3081.1327</v>
+        <v>5058.8652</v>
       </c>
       <c r="G52" t="n">
-        <v>515303.8477360262</v>
+        <v>447817.1894360262</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2266,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>127.5</v>
+        <v>126.8</v>
       </c>
       <c r="C53" t="n">
-        <v>128.5</v>
+        <v>126.8</v>
       </c>
       <c r="D53" t="n">
-        <v>128.5</v>
+        <v>126.8</v>
       </c>
       <c r="E53" t="n">
-        <v>127.5</v>
+        <v>126.8</v>
       </c>
       <c r="F53" t="n">
-        <v>3997</v>
+        <v>25</v>
       </c>
       <c r="G53" t="n">
-        <v>519300.8477360262</v>
+        <v>447842.1894360262</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2301,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>128</v>
+        <v>125.7</v>
       </c>
       <c r="C54" t="n">
-        <v>128</v>
+        <v>126.7</v>
       </c>
       <c r="D54" t="n">
-        <v>128</v>
+        <v>126.7</v>
       </c>
       <c r="E54" t="n">
-        <v>127.2</v>
+        <v>125.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2407.1744</v>
+        <v>568</v>
       </c>
       <c r="G54" t="n">
-        <v>516893.6733360262</v>
+        <v>447274.1894360262</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2336,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" t="n">
-        <v>127.2</v>
+        <v>125</v>
       </c>
       <c r="D55" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E55" t="n">
-        <v>127.2</v>
+        <v>125</v>
       </c>
       <c r="F55" t="n">
-        <v>1515</v>
+        <v>500.9882</v>
       </c>
       <c r="G55" t="n">
-        <v>515378.6733360262</v>
+        <v>446773.2012360261</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>127.5</v>
+        <v>126</v>
       </c>
       <c r="C56" t="n">
-        <v>127.2</v>
+        <v>127</v>
       </c>
       <c r="D56" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="F56" t="n">
-        <v>6588.7285</v>
+        <v>479</v>
       </c>
       <c r="G56" t="n">
-        <v>515378.6733360262</v>
+        <v>447252.2012360261</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>127.2</v>
+        <v>126</v>
       </c>
       <c r="C57" t="n">
-        <v>127.2</v>
+        <v>127</v>
       </c>
       <c r="D57" t="n">
-        <v>127.2</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" t="n">
-        <v>5772.782</v>
+        <v>499</v>
       </c>
       <c r="G57" t="n">
-        <v>515378.6733360262</v>
+        <v>447252.2012360261</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2441,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>126.2</v>
+        <v>127</v>
       </c>
       <c r="C58" t="n">
-        <v>126.2</v>
+        <v>128</v>
       </c>
       <c r="D58" t="n">
-        <v>126.2</v>
+        <v>128</v>
       </c>
       <c r="E58" t="n">
-        <v>126.2</v>
+        <v>127</v>
       </c>
       <c r="F58" t="n">
-        <v>6135.9839</v>
+        <v>1464.8705</v>
       </c>
       <c r="G58" t="n">
-        <v>509242.6894360262</v>
+        <v>448717.0717360261</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2476,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D59" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F59" t="n">
-        <v>6168.5911</v>
+        <v>0.1789</v>
       </c>
       <c r="G59" t="n">
-        <v>503074.0983360262</v>
+        <v>448717.0717360261</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2511,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" t="n">
         <v>126</v>
       </c>
       <c r="D60" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" t="n">
         <v>126</v>
       </c>
       <c r="F60" t="n">
-        <v>11022.1271</v>
+        <v>145</v>
       </c>
       <c r="G60" t="n">
-        <v>503074.0983360262</v>
+        <v>448572.0717360261</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2546,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="C61" t="n">
-        <v>125.2</v>
+        <v>126.1</v>
       </c>
       <c r="D61" t="n">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="E61" t="n">
-        <v>125.2</v>
+        <v>126.1</v>
       </c>
       <c r="F61" t="n">
-        <v>38249.5314</v>
+        <v>2869.282</v>
       </c>
       <c r="G61" t="n">
-        <v>464824.5669360262</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2581,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>125</v>
+        <v>124.2</v>
       </c>
       <c r="C62" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="D62" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="E62" t="n">
-        <v>125</v>
+        <v>124.2</v>
       </c>
       <c r="F62" t="n">
-        <v>9004.7618</v>
+        <v>9927.509700000001</v>
       </c>
       <c r="G62" t="n">
-        <v>455819.8051360262</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2616,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>125</v>
+        <v>125.1</v>
       </c>
       <c r="C63" t="n">
-        <v>124.5</v>
+        <v>126.1</v>
       </c>
       <c r="D63" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="E63" t="n">
-        <v>124.5</v>
+        <v>125.1</v>
       </c>
       <c r="F63" t="n">
-        <v>18610.7136</v>
+        <v>4610</v>
       </c>
       <c r="G63" t="n">
-        <v>437209.0915360262</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2651,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" t="n">
-        <v>128.4</v>
+        <v>126.1</v>
       </c>
       <c r="D64" t="n">
-        <v>128.4</v>
+        <v>127</v>
       </c>
       <c r="E64" t="n">
-        <v>125.9</v>
+        <v>126.1</v>
       </c>
       <c r="F64" t="n">
-        <v>25959.9531</v>
+        <v>1164.5388</v>
       </c>
       <c r="G64" t="n">
-        <v>463169.0446360262</v>
+        <v>451441.3537360262</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2686,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C65" t="n">
-        <v>127.9</v>
+        <v>126</v>
       </c>
       <c r="D65" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E65" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="n">
-        <v>12527.7071</v>
+        <v>1708.0863</v>
       </c>
       <c r="G65" t="n">
-        <v>450641.3375360262</v>
+        <v>449733.2674360261</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2721,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>127.9</v>
+        <v>125</v>
       </c>
       <c r="C66" t="n">
-        <v>127.9</v>
+        <v>126</v>
       </c>
       <c r="D66" t="n">
-        <v>127.9</v>
+        <v>126</v>
       </c>
       <c r="E66" t="n">
-        <v>127.9</v>
+        <v>125</v>
       </c>
       <c r="F66" t="n">
-        <v>6595.4266</v>
+        <v>1189</v>
       </c>
       <c r="G66" t="n">
-        <v>450641.3375360262</v>
+        <v>449733.2674360261</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2756,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>128</v>
+        <v>124.3</v>
       </c>
       <c r="C67" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D67" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E67" t="n">
-        <v>128</v>
+        <v>124.3</v>
       </c>
       <c r="F67" t="n">
-        <v>80.05419999999999</v>
+        <v>4124.3437</v>
       </c>
       <c r="G67" t="n">
-        <v>450721.3917360262</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2791,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>127.2</v>
+        <v>125</v>
       </c>
       <c r="C68" t="n">
-        <v>127.2</v>
+        <v>125</v>
       </c>
       <c r="D68" t="n">
-        <v>127.2</v>
+        <v>125</v>
       </c>
       <c r="E68" t="n">
-        <v>127.2</v>
+        <v>125</v>
       </c>
       <c r="F68" t="n">
-        <v>2240.8962</v>
+        <v>9103.3109</v>
       </c>
       <c r="G68" t="n">
-        <v>448480.4955360262</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2826,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>127.1</v>
+        <v>125</v>
       </c>
       <c r="C69" t="n">
-        <v>126.1</v>
+        <v>125</v>
       </c>
       <c r="D69" t="n">
-        <v>127.1</v>
+        <v>125</v>
       </c>
       <c r="E69" t="n">
-        <v>126.1</v>
+        <v>125</v>
       </c>
       <c r="F69" t="n">
-        <v>2116.7923</v>
+        <v>6866.9229</v>
       </c>
       <c r="G69" t="n">
-        <v>446363.7032360262</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2861,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C70" t="n">
-        <v>123.5</v>
+        <v>125</v>
       </c>
       <c r="D70" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E70" t="n">
-        <v>123.5</v>
+        <v>125</v>
       </c>
       <c r="F70" t="n">
-        <v>35719.2853</v>
+        <v>12556.6195</v>
       </c>
       <c r="G70" t="n">
-        <v>410644.4179360262</v>
+        <v>445608.9237360261</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2896,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>125.6</v>
+        <v>125</v>
       </c>
       <c r="C71" t="n">
-        <v>129.9</v>
+        <v>126</v>
       </c>
       <c r="D71" t="n">
-        <v>129.9</v>
+        <v>126</v>
       </c>
       <c r="E71" t="n">
-        <v>125</v>
+        <v>121.3</v>
       </c>
       <c r="F71" t="n">
-        <v>7663.1212</v>
+        <v>15462.3186</v>
       </c>
       <c r="G71" t="n">
-        <v>418307.5391360262</v>
+        <v>461071.2423360261</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2931,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>127.7</v>
+        <v>123</v>
       </c>
       <c r="C72" t="n">
-        <v>128.7</v>
+        <v>124.7</v>
       </c>
       <c r="D72" t="n">
-        <v>128.7</v>
+        <v>124.7</v>
       </c>
       <c r="E72" t="n">
-        <v>126.6</v>
+        <v>121</v>
       </c>
       <c r="F72" t="n">
-        <v>2575.9999</v>
+        <v>22705.2206</v>
       </c>
       <c r="G72" t="n">
-        <v>415731.5392360262</v>
+        <v>438366.0217360261</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2966,98 +2987,113 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>127.7</v>
+        <v>123.5</v>
       </c>
       <c r="C73" t="n">
-        <v>127.8</v>
+        <v>124</v>
       </c>
       <c r="D73" t="n">
-        <v>127.8</v>
+        <v>124</v>
       </c>
       <c r="E73" t="n">
-        <v>127.7</v>
+        <v>123</v>
       </c>
       <c r="F73" t="n">
-        <v>1588.9998</v>
+        <v>550</v>
       </c>
       <c r="G73" t="n">
-        <v>414142.5394360262</v>
+        <v>437816.0217360261</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>124.7</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>127</v>
+        <v>125.9</v>
       </c>
       <c r="C74" t="n">
-        <v>129.9</v>
+        <v>125.9</v>
       </c>
       <c r="D74" t="n">
-        <v>129.9</v>
+        <v>125.9</v>
       </c>
       <c r="E74" t="n">
-        <v>127</v>
+        <v>125.9</v>
       </c>
       <c r="F74" t="n">
-        <v>14801.6287</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>428944.1681360262</v>
+        <v>437820.0217360261</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>124</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C75" t="n">
-        <v>126.9</v>
+        <v>123</v>
       </c>
       <c r="D75" t="n">
-        <v>127.9</v>
+        <v>123</v>
       </c>
       <c r="E75" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F75" t="n">
-        <v>14940.0884</v>
+        <v>2226.6263</v>
       </c>
       <c r="G75" t="n">
-        <v>414004.0797360262</v>
+        <v>435593.3954360261</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3067,780 +3103,939 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>126</v>
+        <v>123.4</v>
       </c>
       <c r="C76" t="n">
-        <v>128.2</v>
+        <v>124.8</v>
       </c>
       <c r="D76" t="n">
-        <v>128.2</v>
+        <v>124.8</v>
       </c>
       <c r="E76" t="n">
-        <v>126</v>
+        <v>123.4</v>
       </c>
       <c r="F76" t="n">
-        <v>5656</v>
+        <v>2758.0915</v>
       </c>
       <c r="G76" t="n">
-        <v>419660.0797360262</v>
+        <v>438351.4869360261</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>123</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C77" t="n">
-        <v>128</v>
+        <v>125.6</v>
       </c>
       <c r="D77" t="n">
-        <v>128</v>
+        <v>125.6</v>
       </c>
       <c r="E77" t="n">
-        <v>128</v>
+        <v>120.7</v>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>20353.0797</v>
       </c>
       <c r="G77" t="n">
-        <v>419460.0797360262</v>
+        <v>458704.5666360261</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>124.8</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>127.5</v>
+        <v>123.5</v>
       </c>
       <c r="C78" t="n">
-        <v>127.5</v>
+        <v>124</v>
       </c>
       <c r="D78" t="n">
-        <v>127.5</v>
+        <v>124.5</v>
       </c>
       <c r="E78" t="n">
-        <v>127.5</v>
+        <v>120.6</v>
       </c>
       <c r="F78" t="n">
-        <v>1189</v>
+        <v>24317.2775</v>
       </c>
       <c r="G78" t="n">
-        <v>418271.0797360262</v>
+        <v>434387.2891360261</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>125.6</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>127.4</v>
+        <v>121.7</v>
       </c>
       <c r="C79" t="n">
-        <v>127.4</v>
+        <v>123.9</v>
       </c>
       <c r="D79" t="n">
-        <v>127.4</v>
+        <v>124</v>
       </c>
       <c r="E79" t="n">
-        <v>127.4</v>
+        <v>121.7</v>
       </c>
       <c r="F79" t="n">
-        <v>1545</v>
+        <v>5992.0515</v>
       </c>
       <c r="G79" t="n">
-        <v>416726.0797360262</v>
+        <v>428395.2376360261</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>124</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>127.4</v>
+        <v>123.9</v>
       </c>
       <c r="C80" t="n">
-        <v>128.1</v>
+        <v>123.9</v>
       </c>
       <c r="D80" t="n">
-        <v>128.1</v>
+        <v>123.9</v>
       </c>
       <c r="E80" t="n">
-        <v>127.4</v>
+        <v>123.9</v>
       </c>
       <c r="F80" t="n">
-        <v>6386.5883</v>
+        <v>762.2328</v>
       </c>
       <c r="G80" t="n">
-        <v>423112.6680360262</v>
+        <v>428395.2376360261</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>123.9</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>128.1</v>
+        <v>123.9</v>
       </c>
       <c r="C81" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="D81" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="E81" t="n">
-        <v>128.1</v>
+        <v>123.9</v>
       </c>
       <c r="F81" t="n">
-        <v>827</v>
+        <v>2934.3926</v>
       </c>
       <c r="G81" t="n">
-        <v>423112.6680360262</v>
+        <v>431329.6302360261</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>123.9</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="C82" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="D82" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="E82" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="F82" t="n">
-        <v>2961.7012</v>
+        <v>3821.0851</v>
       </c>
       <c r="G82" t="n">
-        <v>423112.6680360262</v>
+        <v>431329.6302360261</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>124</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="C83" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="D83" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="E83" t="n">
-        <v>128.1</v>
+        <v>124</v>
       </c>
       <c r="F83" t="n">
-        <v>2489.1525</v>
+        <v>5295.6057</v>
       </c>
       <c r="G83" t="n">
-        <v>423112.6680360262</v>
+        <v>431329.6302360261</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>124</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C84" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D84" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E84" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F84" t="n">
-        <v>136.8418</v>
+        <v>31.4151</v>
       </c>
       <c r="G84" t="n">
-        <v>422975.8262360262</v>
+        <v>431298.2151360261</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>124</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>125.3</v>
+        <v>123</v>
       </c>
       <c r="C85" t="n">
-        <v>125.3</v>
+        <v>120.8</v>
       </c>
       <c r="D85" t="n">
-        <v>125.3</v>
+        <v>123</v>
       </c>
       <c r="E85" t="n">
-        <v>125.3</v>
+        <v>120.8</v>
       </c>
       <c r="F85" t="n">
-        <v>2971.8705</v>
+        <v>33771.9406</v>
       </c>
       <c r="G85" t="n">
-        <v>420003.9557360262</v>
+        <v>397526.2745360261</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>123</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C86" t="n">
-        <v>127</v>
+        <v>125.3</v>
       </c>
       <c r="D86" t="n">
-        <v>127</v>
+        <v>125.4</v>
       </c>
       <c r="E86" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F86" t="n">
-        <v>5873.9678</v>
+        <v>2059</v>
       </c>
       <c r="G86" t="n">
-        <v>425877.9235360262</v>
+        <v>399585.2745360261</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>120.8</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D87" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E87" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F87" t="n">
-        <v>3748.9788</v>
+        <v>825.7637</v>
       </c>
       <c r="G87" t="n">
-        <v>425877.9235360262</v>
+        <v>398759.510836026</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>125.3</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C88" t="n">
-        <v>128</v>
+        <v>124.9</v>
       </c>
       <c r="D88" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E88" t="n">
-        <v>128</v>
+        <v>124.9</v>
       </c>
       <c r="F88" t="n">
-        <v>7911.8489</v>
+        <v>17045.9589</v>
       </c>
       <c r="G88" t="n">
-        <v>433789.7724360262</v>
+        <v>381713.551936026</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>125</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" t="n">
-        <v>128.9</v>
+        <v>125</v>
       </c>
       <c r="D89" t="n">
-        <v>128.9</v>
+        <v>125</v>
       </c>
       <c r="E89" t="n">
-        <v>126.2</v>
+        <v>125</v>
       </c>
       <c r="F89" t="n">
-        <v>11933.7177</v>
+        <v>10192.3436</v>
       </c>
       <c r="G89" t="n">
-        <v>445723.4901360262</v>
+        <v>391905.895536026</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>124.9</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>126</v>
+        <v>125.4</v>
       </c>
       <c r="C90" t="n">
-        <v>126</v>
+        <v>125.4</v>
       </c>
       <c r="D90" t="n">
-        <v>126</v>
+        <v>125.4</v>
       </c>
       <c r="E90" t="n">
-        <v>126</v>
+        <v>125.4</v>
       </c>
       <c r="F90" t="n">
-        <v>55</v>
+        <v>7.1096</v>
       </c>
       <c r="G90" t="n">
-        <v>445668.4901360262</v>
+        <v>391913.0051360261</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>125</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>125.1</v>
+        <v>122.5</v>
       </c>
       <c r="C91" t="n">
-        <v>127</v>
+        <v>125.4</v>
       </c>
       <c r="D91" t="n">
-        <v>127</v>
+        <v>125.4</v>
       </c>
       <c r="E91" t="n">
-        <v>124.1</v>
+        <v>121</v>
       </c>
       <c r="F91" t="n">
-        <v>7207.5645</v>
+        <v>16390.7324</v>
       </c>
       <c r="G91" t="n">
-        <v>452876.0546360262</v>
+        <v>391913.0051360261</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>125.4</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C92" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D92" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E92" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F92" t="n">
-        <v>7567.1719</v>
+        <v>7949.6468</v>
       </c>
       <c r="G92" t="n">
-        <v>452876.0546360262</v>
+        <v>383963.3583360261</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>125.4</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>127</v>
+        <v>124.9</v>
       </c>
       <c r="C93" t="n">
-        <v>127</v>
+        <v>124.9</v>
       </c>
       <c r="D93" t="n">
-        <v>127</v>
+        <v>124.9</v>
       </c>
       <c r="E93" t="n">
-        <v>127</v>
+        <v>124.9</v>
       </c>
       <c r="F93" t="n">
-        <v>735</v>
+        <v>754.4882</v>
       </c>
       <c r="G93" t="n">
-        <v>452876.0546360262</v>
+        <v>383208.8701360261</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>125</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G94" t="n">
+        <v>384997.8701360261</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>124.9</v>
       </c>
-      <c r="C94" t="n">
-        <v>126</v>
-      </c>
-      <c r="D94" t="n">
-        <v>126</v>
-      </c>
-      <c r="E94" t="n">
-        <v>123.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5058.8652</v>
-      </c>
-      <c r="G94" t="n">
-        <v>447817.1894360262</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>126.8</v>
+        <v>126</v>
       </c>
       <c r="C95" t="n">
-        <v>126.8</v>
+        <v>126</v>
       </c>
       <c r="D95" t="n">
-        <v>126.8</v>
+        <v>126</v>
       </c>
       <c r="E95" t="n">
-        <v>126.8</v>
+        <v>126</v>
       </c>
       <c r="F95" t="n">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="G95" t="n">
-        <v>447842.1894360262</v>
+        <v>384662.8701360261</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>127.8</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>125.7</v>
+        <v>126</v>
       </c>
       <c r="C96" t="n">
-        <v>126.7</v>
+        <v>126</v>
       </c>
       <c r="D96" t="n">
-        <v>126.7</v>
+        <v>126</v>
       </c>
       <c r="E96" t="n">
-        <v>125.7</v>
+        <v>126</v>
       </c>
       <c r="F96" t="n">
-        <v>568</v>
+        <v>335</v>
       </c>
       <c r="G96" t="n">
-        <v>447274.1894360262</v>
+        <v>384662.8701360261</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>126</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>125</v>
+        <v>125.6</v>
       </c>
       <c r="C97" t="n">
-        <v>125</v>
+        <v>125.6</v>
       </c>
       <c r="D97" t="n">
-        <v>125</v>
+        <v>126.6</v>
       </c>
       <c r="E97" t="n">
-        <v>125</v>
+        <v>125.6</v>
       </c>
       <c r="F97" t="n">
-        <v>500.9882</v>
+        <v>1204.9999</v>
       </c>
       <c r="G97" t="n">
-        <v>446773.2012360261</v>
+        <v>383457.8702360261</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>126</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3850,719 +4045,859 @@
         <v>126</v>
       </c>
       <c r="C98" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="D98" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="E98" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" t="n">
-        <v>479</v>
+        <v>6996.6867</v>
       </c>
       <c r="G98" t="n">
-        <v>447252.2012360261</v>
+        <v>390454.5569360261</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>125.6</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="C99" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="D99" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="E99" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="F99" t="n">
-        <v>499</v>
+        <v>2309.4784</v>
       </c>
       <c r="G99" t="n">
-        <v>447252.2012360261</v>
+        <v>390454.5569360261</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>127.7</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="C100" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="D100" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="E100" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1464.8705</v>
+        <v>7665.988751357641</v>
       </c>
       <c r="G100" t="n">
-        <v>448717.0717360261</v>
+        <v>398120.5456873837</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>127.7</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="D101" t="n">
-        <v>128</v>
+        <v>128.9</v>
       </c>
       <c r="E101" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1789</v>
+        <v>748.0741</v>
       </c>
       <c r="G101" t="n">
-        <v>448717.0717360261</v>
+        <v>398120.5456873837</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>128.9</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="C102" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="D102" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="E102" t="n">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="F102" t="n">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="G102" t="n">
-        <v>448572.0717360261</v>
+        <v>397720.5456873837</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>128.9</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>126.1</v>
+        <v>127.7</v>
       </c>
       <c r="C103" t="n">
-        <v>126.1</v>
+        <v>128.9</v>
       </c>
       <c r="D103" t="n">
-        <v>126.1</v>
+        <v>128.9</v>
       </c>
       <c r="E103" t="n">
-        <v>126.1</v>
+        <v>127.7</v>
       </c>
       <c r="F103" t="n">
-        <v>2869.282</v>
+        <v>3673.631</v>
       </c>
       <c r="G103" t="n">
-        <v>451441.3537360262</v>
+        <v>401394.1766873837</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>127.7</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>124.2</v>
+        <v>128.9</v>
       </c>
       <c r="C104" t="n">
-        <v>126.1</v>
+        <v>128.9</v>
       </c>
       <c r="D104" t="n">
-        <v>126.1</v>
+        <v>128.9</v>
       </c>
       <c r="E104" t="n">
-        <v>124.2</v>
+        <v>128.9</v>
       </c>
       <c r="F104" t="n">
-        <v>9927.509700000001</v>
+        <v>10498.9587</v>
       </c>
       <c r="G104" t="n">
-        <v>451441.3537360262</v>
+        <v>401394.1766873837</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>128.9</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>125.1</v>
+        <v>128.7</v>
       </c>
       <c r="C105" t="n">
-        <v>126.1</v>
+        <v>128.7</v>
       </c>
       <c r="D105" t="n">
-        <v>126.1</v>
+        <v>128.7</v>
       </c>
       <c r="E105" t="n">
-        <v>125.1</v>
+        <v>128.7</v>
       </c>
       <c r="F105" t="n">
-        <v>4610</v>
+        <v>1536.4608</v>
       </c>
       <c r="G105" t="n">
-        <v>451441.3537360262</v>
+        <v>399857.7158873837</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>128.9</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>127</v>
+        <v>128.7</v>
       </c>
       <c r="C106" t="n">
-        <v>126.1</v>
+        <v>128.7</v>
       </c>
       <c r="D106" t="n">
-        <v>127</v>
+        <v>128.7</v>
       </c>
       <c r="E106" t="n">
-        <v>126.1</v>
+        <v>128.7</v>
       </c>
       <c r="F106" t="n">
-        <v>1164.5388</v>
+        <v>410.123</v>
       </c>
       <c r="G106" t="n">
-        <v>451441.3537360262</v>
+        <v>399857.7158873837</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>128.7</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C107" t="n">
-        <v>126</v>
+        <v>126.6</v>
       </c>
       <c r="D107" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E107" t="n">
-        <v>125</v>
+        <v>126.6</v>
       </c>
       <c r="F107" t="n">
-        <v>1708.0863</v>
+        <v>353.7645</v>
       </c>
       <c r="G107" t="n">
-        <v>449733.2674360261</v>
+        <v>399503.9513873837</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>128.7</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C108" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D108" t="n">
-        <v>126</v>
+        <v>128.7</v>
       </c>
       <c r="E108" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F108" t="n">
-        <v>1189</v>
+        <v>514</v>
       </c>
       <c r="G108" t="n">
-        <v>449733.2674360261</v>
+        <v>400017.9513873837</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>126.6</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>124.3</v>
+        <v>128</v>
       </c>
       <c r="C109" t="n">
-        <v>125</v>
+        <v>128.7</v>
       </c>
       <c r="D109" t="n">
-        <v>125</v>
+        <v>128.7</v>
       </c>
       <c r="E109" t="n">
-        <v>124.3</v>
+        <v>128</v>
       </c>
       <c r="F109" t="n">
-        <v>4124.3437</v>
+        <v>635.4807</v>
       </c>
       <c r="G109" t="n">
-        <v>445608.9237360261</v>
+        <v>400653.4320873838</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>128</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>125</v>
+        <v>128.7</v>
       </c>
       <c r="C110" t="n">
-        <v>125</v>
+        <v>128.7</v>
       </c>
       <c r="D110" t="n">
-        <v>125</v>
+        <v>128.7</v>
       </c>
       <c r="E110" t="n">
-        <v>125</v>
+        <v>128.7</v>
       </c>
       <c r="F110" t="n">
-        <v>9103.3109</v>
+        <v>2467.4124</v>
       </c>
       <c r="G110" t="n">
-        <v>445608.9237360261</v>
+        <v>400653.4320873838</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>128.7</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="C111" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="D111" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="E111" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="F111" t="n">
-        <v>6866.9229</v>
+        <v>5961.7885</v>
       </c>
       <c r="G111" t="n">
-        <v>445608.9237360261</v>
+        <v>406615.2205873838</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>128.7</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="C112" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="D112" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="E112" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="F112" t="n">
-        <v>12556.6195</v>
+        <v>56</v>
       </c>
       <c r="G112" t="n">
-        <v>445608.9237360261</v>
+        <v>406615.2205873838</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>128.8</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>125</v>
+        <v>128.8</v>
       </c>
       <c r="C113" t="n">
-        <v>126</v>
+        <v>128.8</v>
       </c>
       <c r="D113" t="n">
-        <v>126</v>
+        <v>128.8</v>
       </c>
       <c r="E113" t="n">
-        <v>121.3</v>
+        <v>128.8</v>
       </c>
       <c r="F113" t="n">
-        <v>15462.3186</v>
+        <v>11487.9045</v>
       </c>
       <c r="G113" t="n">
-        <v>461071.2423360261</v>
+        <v>406615.2205873838</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>128.8</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C114" t="n">
-        <v>124.7</v>
+        <v>132</v>
       </c>
       <c r="D114" t="n">
-        <v>124.7</v>
+        <v>132</v>
       </c>
       <c r="E114" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F114" t="n">
-        <v>22705.2206</v>
+        <v>18109.426</v>
       </c>
       <c r="G114" t="n">
-        <v>438366.0217360261</v>
+        <v>424724.6465873838</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>128.8</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>123.5</v>
+        <v>133</v>
       </c>
       <c r="C115" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D115" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E115" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F115" t="n">
-        <v>550</v>
+        <v>24531.17083691177</v>
       </c>
       <c r="G115" t="n">
-        <v>437816.0217360261</v>
+        <v>449255.8174242955</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>132</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>125.9</v>
+        <v>135</v>
       </c>
       <c r="C116" t="n">
-        <v>125.9</v>
+        <v>136.5</v>
       </c>
       <c r="D116" t="n">
-        <v>125.9</v>
+        <v>136.5</v>
       </c>
       <c r="E116" t="n">
-        <v>125.9</v>
+        <v>134.9</v>
       </c>
       <c r="F116" t="n">
-        <v>4</v>
+        <v>12609.1132</v>
       </c>
       <c r="G116" t="n">
-        <v>437820.0217360261</v>
+        <v>461864.9306242955</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>136</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>123</v>
+        <v>136.5</v>
       </c>
       <c r="C117" t="n">
-        <v>123</v>
+        <v>136.4</v>
       </c>
       <c r="D117" t="n">
-        <v>123</v>
+        <v>136.5</v>
       </c>
       <c r="E117" t="n">
-        <v>123</v>
+        <v>136.4</v>
       </c>
       <c r="F117" t="n">
-        <v>2226.6263</v>
+        <v>13823.8166</v>
       </c>
       <c r="G117" t="n">
-        <v>435593.3954360261</v>
+        <v>448041.1140242955</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>136.5</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>123.4</v>
+        <v>136.4</v>
       </c>
       <c r="C118" t="n">
-        <v>124.8</v>
+        <v>135</v>
       </c>
       <c r="D118" t="n">
-        <v>124.8</v>
+        <v>136.4</v>
       </c>
       <c r="E118" t="n">
-        <v>123.4</v>
+        <v>135</v>
       </c>
       <c r="F118" t="n">
-        <v>2758.0915</v>
+        <v>3525.8631</v>
       </c>
       <c r="G118" t="n">
-        <v>438351.4869360261</v>
+        <v>444515.2509242955</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4572,32 +4907,37 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C119" t="n">
-        <v>125.6</v>
+        <v>134</v>
       </c>
       <c r="D119" t="n">
-        <v>125.6</v>
+        <v>135</v>
       </c>
       <c r="E119" t="n">
-        <v>120.7</v>
+        <v>134</v>
       </c>
       <c r="F119" t="n">
-        <v>20353.0797</v>
+        <v>8426.9476</v>
       </c>
       <c r="G119" t="n">
-        <v>458704.5666360261</v>
+        <v>436088.3033242955</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4607,32 +4947,37 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>123.5</v>
+        <v>134</v>
       </c>
       <c r="C120" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D120" t="n">
-        <v>124.5</v>
+        <v>134</v>
       </c>
       <c r="E120" t="n">
-        <v>120.6</v>
+        <v>134</v>
       </c>
       <c r="F120" t="n">
-        <v>24317.2775</v>
+        <v>3305.39552238806</v>
       </c>
       <c r="G120" t="n">
-        <v>434387.2891360261</v>
+        <v>436088.3033242955</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4642,32 +4987,37 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>121.7</v>
+        <v>134</v>
       </c>
       <c r="C121" t="n">
-        <v>123.9</v>
+        <v>133.1</v>
       </c>
       <c r="D121" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E121" t="n">
-        <v>121.7</v>
+        <v>132</v>
       </c>
       <c r="F121" t="n">
-        <v>5992.0515</v>
+        <v>3136.2139</v>
       </c>
       <c r="G121" t="n">
-        <v>428395.2376360261</v>
+        <v>432952.0894242955</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4677,32 +5027,37 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>123.9</v>
+        <v>134.7</v>
       </c>
       <c r="C122" t="n">
-        <v>123.9</v>
+        <v>134</v>
       </c>
       <c r="D122" t="n">
-        <v>123.9</v>
+        <v>134.7</v>
       </c>
       <c r="E122" t="n">
-        <v>123.9</v>
+        <v>133</v>
       </c>
       <c r="F122" t="n">
-        <v>762.2328</v>
+        <v>2471.2747</v>
       </c>
       <c r="G122" t="n">
-        <v>428395.2376360261</v>
+        <v>435423.3641242955</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4712,32 +5067,37 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>123.9</v>
+        <v>134</v>
       </c>
       <c r="C123" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D123" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E123" t="n">
-        <v>123.9</v>
+        <v>134</v>
       </c>
       <c r="F123" t="n">
-        <v>2934.3926</v>
+        <v>2629</v>
       </c>
       <c r="G123" t="n">
-        <v>431329.6302360261</v>
+        <v>435423.3641242955</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4747,32 +5107,37 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C124" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D124" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E124" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F124" t="n">
-        <v>3821.0851</v>
+        <v>5993.1725</v>
       </c>
       <c r="G124" t="n">
-        <v>431329.6302360261</v>
+        <v>429430.1916242955</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4782,73 +5147,81 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>124</v>
+        <v>134.6</v>
       </c>
       <c r="C125" t="n">
-        <v>124</v>
+        <v>134.6</v>
       </c>
       <c r="D125" t="n">
-        <v>124</v>
+        <v>134.6</v>
       </c>
       <c r="E125" t="n">
-        <v>124</v>
+        <v>134.6</v>
       </c>
       <c r="F125" t="n">
-        <v>5295.6057</v>
+        <v>17660.493</v>
       </c>
       <c r="G125" t="n">
-        <v>431329.6302360261</v>
+        <v>447090.6846242956</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>123</v>
+        <v>135.4</v>
       </c>
       <c r="C126" t="n">
-        <v>123</v>
+        <v>135.4</v>
       </c>
       <c r="D126" t="n">
-        <v>123</v>
+        <v>135.4</v>
       </c>
       <c r="E126" t="n">
-        <v>123</v>
+        <v>135.4</v>
       </c>
       <c r="F126" t="n">
-        <v>31.4151</v>
+        <v>171.427</v>
       </c>
       <c r="G126" t="n">
-        <v>431298.2151360261</v>
+        <v>447262.1116242956</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4856,34 +5229,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>123</v>
+        <v>134.6</v>
       </c>
       <c r="C127" t="n">
-        <v>120.8</v>
+        <v>134.6</v>
       </c>
       <c r="D127" t="n">
-        <v>123</v>
+        <v>135.4</v>
       </c>
       <c r="E127" t="n">
-        <v>120.8</v>
+        <v>133.1</v>
       </c>
       <c r="F127" t="n">
-        <v>33771.9406</v>
+        <v>3006.9139</v>
       </c>
       <c r="G127" t="n">
-        <v>397526.2745360261</v>
+        <v>444255.1977242956</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4891,34 +5265,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>124</v>
+        <v>134.9</v>
       </c>
       <c r="C128" t="n">
-        <v>125.3</v>
+        <v>134.9</v>
       </c>
       <c r="D128" t="n">
-        <v>125.4</v>
+        <v>134.9</v>
       </c>
       <c r="E128" t="n">
-        <v>124</v>
+        <v>134.8</v>
       </c>
       <c r="F128" t="n">
-        <v>2059</v>
+        <v>8855.4354</v>
       </c>
       <c r="G128" t="n">
-        <v>399585.2745360261</v>
+        <v>453110.6331242956</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4926,34 +5301,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>125</v>
+        <v>134.9</v>
       </c>
       <c r="C129" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D129" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E129" t="n">
-        <v>125</v>
+        <v>134.9</v>
       </c>
       <c r="F129" t="n">
-        <v>825.7637</v>
+        <v>11035.1996</v>
       </c>
       <c r="G129" t="n">
-        <v>398759.510836026</v>
+        <v>464145.8327242956</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4961,1476 +5337,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>125</v>
-      </c>
-      <c r="C130" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>125</v>
-      </c>
-      <c r="E130" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F130" t="n">
-        <v>17045.9589</v>
-      </c>
-      <c r="G130" t="n">
-        <v>381713.551936026</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>125</v>
-      </c>
-      <c r="C131" t="n">
-        <v>125</v>
-      </c>
-      <c r="D131" t="n">
-        <v>125</v>
-      </c>
-      <c r="E131" t="n">
-        <v>125</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10192.3436</v>
-      </c>
-      <c r="G131" t="n">
-        <v>391905.895536026</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C132" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D132" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E132" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7.1096</v>
-      </c>
-      <c r="G132" t="n">
-        <v>391913.0051360261</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="C133" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D133" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E133" t="n">
-        <v>121</v>
-      </c>
-      <c r="F133" t="n">
-        <v>16390.7324</v>
-      </c>
-      <c r="G133" t="n">
-        <v>391913.0051360261</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>125</v>
-      </c>
-      <c r="C134" t="n">
-        <v>125</v>
-      </c>
-      <c r="D134" t="n">
-        <v>125</v>
-      </c>
-      <c r="E134" t="n">
-        <v>125</v>
-      </c>
-      <c r="F134" t="n">
-        <v>7949.6468</v>
-      </c>
-      <c r="G134" t="n">
-        <v>383963.3583360261</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="D135" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="E135" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F135" t="n">
-        <v>754.4882</v>
-      </c>
-      <c r="G135" t="n">
-        <v>383208.8701360261</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C136" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1789</v>
-      </c>
-      <c r="G136" t="n">
-        <v>384997.8701360261</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>126</v>
-      </c>
-      <c r="C137" t="n">
-        <v>126</v>
-      </c>
-      <c r="D137" t="n">
-        <v>126</v>
-      </c>
-      <c r="E137" t="n">
-        <v>126</v>
-      </c>
-      <c r="F137" t="n">
-        <v>335</v>
-      </c>
-      <c r="G137" t="n">
-        <v>384662.8701360261</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>126</v>
-      </c>
-      <c r="C138" t="n">
-        <v>126</v>
-      </c>
-      <c r="D138" t="n">
-        <v>126</v>
-      </c>
-      <c r="E138" t="n">
-        <v>126</v>
-      </c>
-      <c r="F138" t="n">
-        <v>335</v>
-      </c>
-      <c r="G138" t="n">
-        <v>384662.8701360261</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1204.9999</v>
-      </c>
-      <c r="G139" t="n">
-        <v>383457.8702360261</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>126</v>
-      </c>
-      <c r="C140" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>125</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6996.6867</v>
-      </c>
-      <c r="G140" t="n">
-        <v>390454.5569360261</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2309.4784</v>
-      </c>
-      <c r="G141" t="n">
-        <v>390454.5569360261</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="C142" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>7665.988751357641</v>
-      </c>
-      <c r="G142" t="n">
-        <v>398120.5456873837</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>127</v>
-      </c>
-      <c r="C143" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>127</v>
-      </c>
-      <c r="F143" t="n">
-        <v>748.0741</v>
-      </c>
-      <c r="G143" t="n">
-        <v>398120.5456873837</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>400</v>
-      </c>
-      <c r="G144" t="n">
-        <v>397720.5456873837</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3673.631</v>
-      </c>
-      <c r="G145" t="n">
-        <v>401394.1766873837</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10498.9587</v>
-      </c>
-      <c r="G146" t="n">
-        <v>401394.1766873837</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C147" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1536.4608</v>
-      </c>
-      <c r="G147" t="n">
-        <v>399857.7158873837</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>410.123</v>
-      </c>
-      <c r="G148" t="n">
-        <v>399857.7158873837</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>127</v>
-      </c>
-      <c r="C149" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>127</v>
-      </c>
-      <c r="E149" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>353.7645</v>
-      </c>
-      <c r="G149" t="n">
-        <v>399503.9513873837</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>128</v>
-      </c>
-      <c r="C150" t="n">
-        <v>128</v>
-      </c>
-      <c r="D150" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>128</v>
-      </c>
-      <c r="F150" t="n">
-        <v>514</v>
-      </c>
-      <c r="G150" t="n">
-        <v>400017.9513873837</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>128</v>
-      </c>
-      <c r="C151" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>128</v>
-      </c>
-      <c r="F151" t="n">
-        <v>635.4807</v>
-      </c>
-      <c r="G151" t="n">
-        <v>400653.4320873838</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2467.4124</v>
-      </c>
-      <c r="G152" t="n">
-        <v>400653.4320873838</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>5961.7885</v>
-      </c>
-      <c r="G153" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>56</v>
-      </c>
-      <c r="G154" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11487.9045</v>
-      </c>
-      <c r="G155" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>129</v>
-      </c>
-      <c r="C156" t="n">
-        <v>132</v>
-      </c>
-      <c r="D156" t="n">
-        <v>132</v>
-      </c>
-      <c r="E156" t="n">
-        <v>129</v>
-      </c>
-      <c r="F156" t="n">
-        <v>18109.426</v>
-      </c>
-      <c r="G156" t="n">
-        <v>424724.6465873838</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>133</v>
-      </c>
-      <c r="C157" t="n">
-        <v>136</v>
-      </c>
-      <c r="D157" t="n">
-        <v>136</v>
-      </c>
-      <c r="E157" t="n">
-        <v>133</v>
-      </c>
-      <c r="F157" t="n">
-        <v>24531.17083691177</v>
-      </c>
-      <c r="G157" t="n">
-        <v>449255.8174242955</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>135</v>
-      </c>
-      <c r="C158" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="F158" t="n">
-        <v>12609.1132</v>
-      </c>
-      <c r="G158" t="n">
-        <v>461864.9306242955</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="D159" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>13823.8166</v>
-      </c>
-      <c r="G159" t="n">
-        <v>448041.1140242955</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>135</v>
-      </c>
-      <c r="D160" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E160" t="n">
-        <v>135</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3525.8631</v>
-      </c>
-      <c r="G160" t="n">
-        <v>444515.2509242955</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>135</v>
-      </c>
-      <c r="C161" t="n">
-        <v>134</v>
-      </c>
-      <c r="D161" t="n">
-        <v>135</v>
-      </c>
-      <c r="E161" t="n">
-        <v>134</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8426.9476</v>
-      </c>
-      <c r="G161" t="n">
-        <v>436088.3033242955</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>134</v>
-      </c>
-      <c r="C162" t="n">
-        <v>134</v>
-      </c>
-      <c r="D162" t="n">
-        <v>134</v>
-      </c>
-      <c r="E162" t="n">
-        <v>134</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3305.39552238806</v>
-      </c>
-      <c r="G162" t="n">
-        <v>436088.3033242955</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>134</v>
-      </c>
-      <c r="C163" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>134</v>
-      </c>
-      <c r="E163" t="n">
-        <v>132</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3136.2139</v>
-      </c>
-      <c r="G163" t="n">
-        <v>432952.0894242955</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>134</v>
-      </c>
-      <c r="D164" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>133</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2471.2747</v>
-      </c>
-      <c r="G164" t="n">
-        <v>435423.3641242955</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>134</v>
-      </c>
-      <c r="C165" t="n">
-        <v>134</v>
-      </c>
-      <c r="D165" t="n">
-        <v>134</v>
-      </c>
-      <c r="E165" t="n">
-        <v>134</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2629</v>
-      </c>
-      <c r="G165" t="n">
-        <v>435423.3641242955</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>134</v>
-      </c>
-      <c r="C166" t="n">
-        <v>133</v>
-      </c>
-      <c r="D166" t="n">
-        <v>134</v>
-      </c>
-      <c r="E166" t="n">
-        <v>133</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5993.1725</v>
-      </c>
-      <c r="G166" t="n">
-        <v>429430.1916242955</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C167" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="F167" t="n">
-        <v>17660.493</v>
-      </c>
-      <c r="G167" t="n">
-        <v>447090.6846242956</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="D168" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>171.427</v>
-      </c>
-      <c r="G168" t="n">
-        <v>447262.1116242956</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D169" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3006.9139</v>
-      </c>
-      <c r="G169" t="n">
-        <v>444255.1977242956</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="C170" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="D170" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="E170" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="F170" t="n">
-        <v>8855.4354</v>
-      </c>
-      <c r="G170" t="n">
-        <v>453110.6331242956</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="C171" t="n">
-        <v>135</v>
-      </c>
-      <c r="D171" t="n">
-        <v>135</v>
-      </c>
-      <c r="E171" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>11035.1996</v>
-      </c>
-      <c r="G171" t="n">
-        <v>464145.8327242956</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n">
-        <v>128</v>
+        <v>135.5</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>128</v>
+        <v>130.5</v>
       </c>
       <c r="F2" t="n">
-        <v>376</v>
+        <v>73230.012</v>
       </c>
       <c r="G2" t="n">
-        <v>522754.3938360262</v>
+        <v>689948.0121628961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C3" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D3" t="n">
-        <v>129.9</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F3" t="n">
-        <v>12702.5842</v>
+        <v>16368.6663</v>
       </c>
       <c r="G3" t="n">
-        <v>535456.9780360262</v>
+        <v>706316.6784628961</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>127.2</v>
+        <v>138</v>
       </c>
       <c r="C4" t="n">
-        <v>128.9</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>128.9</v>
+        <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>126.1</v>
+        <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>6005.6286</v>
+        <v>50435.5653</v>
       </c>
       <c r="G4" t="n">
-        <v>529451.3494360262</v>
+        <v>756752.2437628962</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>127.1</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>127.1</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>10976.0437</v>
+        <v>21191.8905</v>
       </c>
       <c r="G5" t="n">
-        <v>518475.3057360262</v>
+        <v>777944.1342628961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>127.7</v>
+        <v>143.2</v>
       </c>
       <c r="C6" t="n">
-        <v>128.7</v>
+        <v>152</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7</v>
+        <v>152</v>
       </c>
       <c r="E6" t="n">
-        <v>127.7</v>
+        <v>138</v>
       </c>
       <c r="F6" t="n">
-        <v>712</v>
+        <v>59771.724</v>
       </c>
       <c r="G6" t="n">
-        <v>519187.3057360262</v>
+        <v>837715.8582628962</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>128.7</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n">
-        <v>128.7</v>
+        <v>145.4</v>
       </c>
       <c r="D7" t="n">
-        <v>128.7</v>
+        <v>151</v>
       </c>
       <c r="E7" t="n">
-        <v>128.7</v>
+        <v>144.4</v>
       </c>
       <c r="F7" t="n">
-        <v>401.8926</v>
+        <v>4136.4328</v>
       </c>
       <c r="G7" t="n">
-        <v>519187.3057360262</v>
+        <v>833579.4254628962</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>127.2</v>
+        <v>145.6</v>
       </c>
       <c r="C8" t="n">
-        <v>128.7</v>
+        <v>146</v>
       </c>
       <c r="D8" t="n">
-        <v>129.8</v>
+        <v>147</v>
       </c>
       <c r="E8" t="n">
-        <v>127</v>
+        <v>145.5</v>
       </c>
       <c r="F8" t="n">
-        <v>14440.6569</v>
+        <v>34568.1719</v>
       </c>
       <c r="G8" t="n">
-        <v>519187.3057360262</v>
+        <v>868147.5973628962</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127.2</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n">
-        <v>126.2</v>
+        <v>145.2</v>
       </c>
       <c r="D9" t="n">
-        <v>127.2</v>
+        <v>148.5</v>
       </c>
       <c r="E9" t="n">
-        <v>126.2</v>
+        <v>145</v>
       </c>
       <c r="F9" t="n">
-        <v>3883.458</v>
+        <v>26220.1082</v>
       </c>
       <c r="G9" t="n">
-        <v>515303.8477360262</v>
+        <v>841927.4891628962</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127.2</v>
+        <v>145.2</v>
       </c>
       <c r="C10" t="n">
-        <v>126.2</v>
+        <v>142</v>
       </c>
       <c r="D10" t="n">
-        <v>127.2</v>
+        <v>147.4</v>
       </c>
       <c r="E10" t="n">
-        <v>126.2</v>
+        <v>142</v>
       </c>
       <c r="F10" t="n">
-        <v>3081.1327</v>
+        <v>20897.0738</v>
       </c>
       <c r="G10" t="n">
-        <v>515303.8477360262</v>
+        <v>821030.4153628962</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127.5</v>
+        <v>140.8</v>
       </c>
       <c r="C11" t="n">
-        <v>128.5</v>
+        <v>141</v>
       </c>
       <c r="D11" t="n">
-        <v>128.5</v>
+        <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>127.5</v>
+        <v>138</v>
       </c>
       <c r="F11" t="n">
-        <v>3997</v>
+        <v>43595.1756</v>
       </c>
       <c r="G11" t="n">
-        <v>519300.8477360262</v>
+        <v>777435.2397628962</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>128</v>
+        <v>143.2</v>
       </c>
       <c r="E12" t="n">
-        <v>127.2</v>
+        <v>140.2</v>
       </c>
       <c r="F12" t="n">
-        <v>2407.1744</v>
+        <v>33258.55394195805</v>
       </c>
       <c r="G12" t="n">
-        <v>516893.6733360262</v>
+        <v>810693.7937048542</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C13" t="n">
-        <v>127.2</v>
+        <v>141</v>
       </c>
       <c r="D13" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E13" t="n">
-        <v>127.2</v>
+        <v>141</v>
       </c>
       <c r="F13" t="n">
-        <v>1515</v>
+        <v>14994.4653</v>
       </c>
       <c r="G13" t="n">
-        <v>515378.6733360262</v>
+        <v>795699.3284048542</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>127.5</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
-        <v>127.2</v>
+        <v>142.1</v>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>143.5</v>
       </c>
       <c r="E14" t="n">
-        <v>127.2</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>6588.7285</v>
+        <v>34350.7534</v>
       </c>
       <c r="G14" t="n">
-        <v>515378.6733360262</v>
+        <v>830050.0818048542</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>127.2</v>
+        <v>143</v>
       </c>
       <c r="C15" t="n">
-        <v>127.2</v>
+        <v>145.4</v>
       </c>
       <c r="D15" t="n">
-        <v>127.2</v>
+        <v>145.4</v>
       </c>
       <c r="E15" t="n">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F15" t="n">
-        <v>5772.782</v>
+        <v>13436.9641</v>
       </c>
       <c r="G15" t="n">
-        <v>515378.6733360262</v>
+        <v>843487.0459048542</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126.2</v>
+        <v>144.9</v>
       </c>
       <c r="C16" t="n">
-        <v>126.2</v>
+        <v>142</v>
       </c>
       <c r="D16" t="n">
-        <v>126.2</v>
+        <v>144.9</v>
       </c>
       <c r="E16" t="n">
-        <v>126.2</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
-        <v>6135.9839</v>
+        <v>16090.3353</v>
       </c>
       <c r="G16" t="n">
-        <v>509242.6894360262</v>
+        <v>827396.7106048542</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C17" t="n">
-        <v>126</v>
+        <v>140.2</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>143.9</v>
       </c>
       <c r="E17" t="n">
-        <v>126</v>
+        <v>139.2</v>
       </c>
       <c r="F17" t="n">
-        <v>6168.5911</v>
+        <v>43806.5552</v>
       </c>
       <c r="G17" t="n">
-        <v>503074.0983360262</v>
+        <v>783590.1554048541</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>127</v>
+        <v>139.3</v>
       </c>
       <c r="C18" t="n">
-        <v>126</v>
+        <v>137.2</v>
       </c>
       <c r="D18" t="n">
-        <v>127</v>
+        <v>139.4</v>
       </c>
       <c r="E18" t="n">
-        <v>126</v>
+        <v>132.2</v>
       </c>
       <c r="F18" t="n">
-        <v>11022.1271</v>
+        <v>115353.2344</v>
       </c>
       <c r="G18" t="n">
-        <v>503074.0983360262</v>
+        <v>668236.9210048541</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>126</v>
+        <v>136.3</v>
       </c>
       <c r="C19" t="n">
-        <v>125.2</v>
+        <v>136.9</v>
       </c>
       <c r="D19" t="n">
-        <v>126</v>
+        <v>136.9</v>
       </c>
       <c r="E19" t="n">
-        <v>125.2</v>
+        <v>136.3</v>
       </c>
       <c r="F19" t="n">
-        <v>38249.5314</v>
+        <v>13053.9719</v>
       </c>
       <c r="G19" t="n">
-        <v>464824.5669360262</v>
+        <v>655182.9491048541</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>125</v>
+        <v>138.9</v>
       </c>
       <c r="C20" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D20" t="n">
-        <v>125</v>
+        <v>138.9</v>
       </c>
       <c r="E20" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F20" t="n">
-        <v>9004.7618</v>
+        <v>4156.4345</v>
       </c>
       <c r="G20" t="n">
-        <v>455819.8051360262</v>
+        <v>659339.3836048541</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>125</v>
+        <v>136.1</v>
       </c>
       <c r="C21" t="n">
-        <v>124.5</v>
+        <v>135</v>
       </c>
       <c r="D21" t="n">
-        <v>125</v>
+        <v>137.8</v>
       </c>
       <c r="E21" t="n">
-        <v>124.5</v>
+        <v>135</v>
       </c>
       <c r="F21" t="n">
-        <v>18610.7136</v>
+        <v>10197.3735</v>
       </c>
       <c r="G21" t="n">
-        <v>437209.0915360262</v>
+        <v>649142.0101048541</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
-        <v>128.4</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
-        <v>125.9</v>
+        <v>136</v>
       </c>
       <c r="F22" t="n">
-        <v>25959.9531</v>
+        <v>230</v>
       </c>
       <c r="G22" t="n">
-        <v>463169.0446360262</v>
+        <v>649372.0101048541</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C23" t="n">
-        <v>127.9</v>
+        <v>135</v>
       </c>
       <c r="D23" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E23" t="n">
-        <v>127</v>
+        <v>133.3</v>
       </c>
       <c r="F23" t="n">
-        <v>12527.7071</v>
+        <v>7995.1635</v>
       </c>
       <c r="G23" t="n">
-        <v>450641.3375360262</v>
+        <v>641376.8466048541</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>127.9</v>
+        <v>134</v>
       </c>
       <c r="C24" t="n">
-        <v>127.9</v>
+        <v>133.4</v>
       </c>
       <c r="D24" t="n">
-        <v>127.9</v>
+        <v>134</v>
       </c>
       <c r="E24" t="n">
-        <v>127.9</v>
+        <v>133.4</v>
       </c>
       <c r="F24" t="n">
-        <v>6595.4266</v>
+        <v>4768.2384</v>
       </c>
       <c r="G24" t="n">
-        <v>450641.3375360262</v>
+        <v>636608.6082048541</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>134.8</v>
       </c>
       <c r="C25" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D25" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E25" t="n">
-        <v>128</v>
+        <v>133.3</v>
       </c>
       <c r="F25" t="n">
-        <v>80.05419999999999</v>
+        <v>7127.8272</v>
       </c>
       <c r="G25" t="n">
-        <v>450721.3917360262</v>
+        <v>643736.4354048541</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>127.2</v>
+        <v>134.9</v>
       </c>
       <c r="C26" t="n">
-        <v>127.2</v>
+        <v>134.4</v>
       </c>
       <c r="D26" t="n">
-        <v>127.2</v>
+        <v>135</v>
       </c>
       <c r="E26" t="n">
-        <v>127.2</v>
+        <v>134.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2240.8962</v>
+        <v>6904.0335</v>
       </c>
       <c r="G26" t="n">
-        <v>448480.4955360262</v>
+        <v>636832.4019048541</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>127.1</v>
+        <v>135.5</v>
       </c>
       <c r="C27" t="n">
-        <v>126.1</v>
+        <v>134.2</v>
       </c>
       <c r="D27" t="n">
-        <v>127.1</v>
+        <v>136.4</v>
       </c>
       <c r="E27" t="n">
-        <v>126.1</v>
+        <v>133.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2116.7923</v>
+        <v>27446.2937</v>
       </c>
       <c r="G27" t="n">
-        <v>446363.7032360262</v>
+        <v>609386.1082048541</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>127</v>
+        <v>133.3</v>
       </c>
       <c r="C28" t="n">
-        <v>123.5</v>
+        <v>136</v>
       </c>
       <c r="D28" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E28" t="n">
-        <v>123.5</v>
+        <v>133.3</v>
       </c>
       <c r="F28" t="n">
-        <v>35719.2853</v>
+        <v>22242.5125</v>
       </c>
       <c r="G28" t="n">
-        <v>410644.4179360262</v>
+        <v>631628.620704854</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>125.6</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n">
-        <v>129.9</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
-        <v>129.9</v>
+        <v>136</v>
       </c>
       <c r="E29" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F29" t="n">
-        <v>7663.1212</v>
+        <v>16964.4118</v>
       </c>
       <c r="G29" t="n">
-        <v>418307.5391360262</v>
+        <v>614664.208904854</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>127.7</v>
+        <v>135.2</v>
       </c>
       <c r="C30" t="n">
-        <v>128.7</v>
+        <v>132.6</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7</v>
+        <v>136</v>
       </c>
       <c r="E30" t="n">
-        <v>126.6</v>
+        <v>132.6</v>
       </c>
       <c r="F30" t="n">
-        <v>2575.9999</v>
+        <v>23843.2783</v>
       </c>
       <c r="G30" t="n">
-        <v>415731.5392360262</v>
+        <v>590820.930604854</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>127.7</v>
+        <v>132.6</v>
       </c>
       <c r="C31" t="n">
-        <v>127.8</v>
+        <v>134.5</v>
       </c>
       <c r="D31" t="n">
-        <v>127.8</v>
+        <v>134.5</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7</v>
+        <v>132.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1588.9998</v>
+        <v>3712.1236</v>
       </c>
       <c r="G31" t="n">
-        <v>414142.5394360262</v>
+        <v>594533.0542048541</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>127</v>
+        <v>133.8</v>
       </c>
       <c r="C32" t="n">
-        <v>129.9</v>
+        <v>132.1</v>
       </c>
       <c r="D32" t="n">
-        <v>129.9</v>
+        <v>133.8</v>
       </c>
       <c r="E32" t="n">
-        <v>127</v>
+        <v>132.1</v>
       </c>
       <c r="F32" t="n">
-        <v>14801.6287</v>
+        <v>23847.8473</v>
       </c>
       <c r="G32" t="n">
-        <v>428944.1681360262</v>
+        <v>570685.206904854</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>126.9</v>
+        <v>132.7</v>
       </c>
       <c r="D33" t="n">
-        <v>127.9</v>
+        <v>132.7</v>
       </c>
       <c r="E33" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F33" t="n">
-        <v>14940.0884</v>
+        <v>69093.6727</v>
       </c>
       <c r="G33" t="n">
-        <v>414004.0797360262</v>
+        <v>639778.879604854</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>126</v>
+        <v>130.8</v>
       </c>
       <c r="C34" t="n">
-        <v>128.2</v>
+        <v>130.8</v>
       </c>
       <c r="D34" t="n">
-        <v>128.2</v>
+        <v>130.8</v>
       </c>
       <c r="E34" t="n">
-        <v>126</v>
+        <v>129.5</v>
       </c>
       <c r="F34" t="n">
-        <v>5656</v>
+        <v>46554.819</v>
       </c>
       <c r="G34" t="n">
-        <v>419660.0797360262</v>
+        <v>593224.060604854</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>128</v>
+        <v>133.7</v>
       </c>
       <c r="C35" t="n">
-        <v>128</v>
+        <v>131.6</v>
       </c>
       <c r="D35" t="n">
-        <v>128</v>
+        <v>133.7</v>
       </c>
       <c r="E35" t="n">
-        <v>128</v>
+        <v>130.1</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>10997.39461323308</v>
       </c>
       <c r="G35" t="n">
-        <v>419460.0797360262</v>
+        <v>604221.4552180871</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>127.5</v>
+        <v>132</v>
       </c>
       <c r="C36" t="n">
-        <v>127.5</v>
+        <v>132</v>
       </c>
       <c r="D36" t="n">
-        <v>127.5</v>
+        <v>132</v>
       </c>
       <c r="E36" t="n">
-        <v>127.5</v>
+        <v>132</v>
       </c>
       <c r="F36" t="n">
-        <v>1189</v>
+        <v>2360.9998</v>
       </c>
       <c r="G36" t="n">
-        <v>418271.0797360262</v>
+        <v>606582.4550180871</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>127.4</v>
+        <v>133.6</v>
       </c>
       <c r="C37" t="n">
-        <v>127.4</v>
+        <v>132</v>
       </c>
       <c r="D37" t="n">
-        <v>127.4</v>
+        <v>133.6</v>
       </c>
       <c r="E37" t="n">
-        <v>127.4</v>
+        <v>132</v>
       </c>
       <c r="F37" t="n">
-        <v>1545</v>
+        <v>6711.6604</v>
       </c>
       <c r="G37" t="n">
-        <v>416726.0797360262</v>
+        <v>606582.4550180871</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>127.4</v>
+        <v>132</v>
       </c>
       <c r="C38" t="n">
-        <v>128.1</v>
+        <v>133.3</v>
       </c>
       <c r="D38" t="n">
-        <v>128.1</v>
+        <v>133.3</v>
       </c>
       <c r="E38" t="n">
-        <v>127.4</v>
+        <v>132</v>
       </c>
       <c r="F38" t="n">
-        <v>6386.5883</v>
+        <v>5712.7564</v>
       </c>
       <c r="G38" t="n">
-        <v>423112.6680360262</v>
+        <v>612295.211418087</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>128.1</v>
+        <v>133.1</v>
       </c>
       <c r="C39" t="n">
-        <v>128.1</v>
+        <v>133.1</v>
       </c>
       <c r="D39" t="n">
-        <v>128.1</v>
+        <v>133.1</v>
       </c>
       <c r="E39" t="n">
-        <v>128.1</v>
+        <v>133.1</v>
       </c>
       <c r="F39" t="n">
-        <v>827</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>423112.6680360262</v>
+        <v>612291.211418087</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>128.1</v>
+        <v>133.3</v>
       </c>
       <c r="C40" t="n">
-        <v>128.1</v>
+        <v>132.1</v>
       </c>
       <c r="D40" t="n">
-        <v>128.1</v>
+        <v>133.3</v>
       </c>
       <c r="E40" t="n">
         <v>128.1</v>
       </c>
       <c r="F40" t="n">
-        <v>2961.7012</v>
+        <v>9457.756600000001</v>
       </c>
       <c r="G40" t="n">
-        <v>423112.6680360262</v>
+        <v>602833.454818087</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>128.1</v>
+        <v>132.1</v>
       </c>
       <c r="C41" t="n">
-        <v>128.1</v>
+        <v>131</v>
       </c>
       <c r="D41" t="n">
-        <v>128.1</v>
+        <v>134.9</v>
       </c>
       <c r="E41" t="n">
         <v>128.1</v>
       </c>
       <c r="F41" t="n">
-        <v>2489.1525</v>
+        <v>37705.65368206079</v>
       </c>
       <c r="G41" t="n">
-        <v>423112.6680360262</v>
+        <v>565127.8011360263</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C42" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D42" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F42" t="n">
-        <v>136.8418</v>
+        <v>3493.7111</v>
       </c>
       <c r="G42" t="n">
-        <v>422975.8262360262</v>
+        <v>568621.5122360262</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>125.3</v>
+        <v>131</v>
       </c>
       <c r="C43" t="n">
-        <v>125.3</v>
+        <v>133.1</v>
       </c>
       <c r="D43" t="n">
-        <v>125.3</v>
+        <v>133.1</v>
       </c>
       <c r="E43" t="n">
-        <v>125.3</v>
+        <v>130</v>
       </c>
       <c r="F43" t="n">
-        <v>2971.8705</v>
+        <v>14013.075</v>
       </c>
       <c r="G43" t="n">
-        <v>420003.9557360262</v>
+        <v>582634.5872360262</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>127</v>
+        <v>133.9</v>
       </c>
       <c r="C44" t="n">
-        <v>127</v>
+        <v>130.9</v>
       </c>
       <c r="D44" t="n">
-        <v>127</v>
+        <v>133.9</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>130.9</v>
       </c>
       <c r="F44" t="n">
-        <v>5873.9678</v>
+        <v>248.0732</v>
       </c>
       <c r="G44" t="n">
-        <v>425877.9235360262</v>
+        <v>582386.5140360262</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>127</v>
+        <v>130.7</v>
       </c>
       <c r="C45" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" t="n">
-        <v>127</v>
+        <v>131.7</v>
       </c>
       <c r="E45" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F45" t="n">
-        <v>3748.9788</v>
+        <v>11100.742</v>
       </c>
       <c r="G45" t="n">
-        <v>425877.9235360262</v>
+        <v>571285.7720360262</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>129</v>
+        <v>130.1</v>
       </c>
       <c r="C46" t="n">
-        <v>128</v>
+        <v>130.4</v>
       </c>
       <c r="D46" t="n">
-        <v>129</v>
+        <v>130.4</v>
       </c>
       <c r="E46" t="n">
-        <v>128</v>
+        <v>130.1</v>
       </c>
       <c r="F46" t="n">
-        <v>7911.8489</v>
+        <v>21342.3757</v>
       </c>
       <c r="G46" t="n">
-        <v>433789.7724360262</v>
+        <v>592628.1477360262</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>127</v>
+        <v>130.4</v>
       </c>
       <c r="C47" t="n">
-        <v>128.9</v>
+        <v>130</v>
       </c>
       <c r="D47" t="n">
-        <v>128.9</v>
+        <v>130.4</v>
       </c>
       <c r="E47" t="n">
-        <v>126.2</v>
+        <v>130</v>
       </c>
       <c r="F47" t="n">
-        <v>11933.7177</v>
+        <v>3647.5248</v>
       </c>
       <c r="G47" t="n">
-        <v>445723.4901360262</v>
+        <v>588980.6229360262</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C48" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D48" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E48" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" t="n">
-        <v>55</v>
+        <v>33338.0921</v>
       </c>
       <c r="G48" t="n">
-        <v>445668.4901360262</v>
+        <v>588980.6229360262</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>125.1</v>
+        <v>130</v>
       </c>
       <c r="C49" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D49" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E49" t="n">
-        <v>124.1</v>
+        <v>130</v>
       </c>
       <c r="F49" t="n">
-        <v>7207.5645</v>
+        <v>3268.3237</v>
       </c>
       <c r="G49" t="n">
-        <v>452876.0546360262</v>
+        <v>588980.6229360262</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="C50" t="n">
-        <v>127</v>
+        <v>130.5</v>
       </c>
       <c r="D50" t="n">
-        <v>127</v>
+        <v>130.5</v>
       </c>
       <c r="E50" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="F50" t="n">
-        <v>7567.1719</v>
+        <v>15245.8628</v>
       </c>
       <c r="G50" t="n">
-        <v>452876.0546360262</v>
+        <v>604226.4857360262</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>127</v>
+        <v>130.5</v>
       </c>
       <c r="C51" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="D51" t="n">
-        <v>127</v>
+        <v>130.5</v>
       </c>
       <c r="E51" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="F51" t="n">
-        <v>735</v>
+        <v>13082.474</v>
       </c>
       <c r="G51" t="n">
-        <v>452876.0546360262</v>
+        <v>591144.0117360262</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>124.9</v>
+        <v>130.2</v>
       </c>
       <c r="C52" t="n">
-        <v>126</v>
+        <v>128.5</v>
       </c>
       <c r="D52" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="E52" t="n">
-        <v>123.2</v>
+        <v>128.5</v>
       </c>
       <c r="F52" t="n">
-        <v>5058.8652</v>
+        <v>12574.4947</v>
       </c>
       <c r="G52" t="n">
-        <v>447817.1894360262</v>
+        <v>578569.5170360261</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="C53" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="D53" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="E53" t="n">
-        <v>126.8</v>
+        <v>131</v>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>3.9307</v>
       </c>
       <c r="G53" t="n">
-        <v>447842.1894360262</v>
+        <v>578573.4477360261</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>125.7</v>
+        <v>128.6</v>
       </c>
       <c r="C54" t="n">
-        <v>126.7</v>
+        <v>130.9</v>
       </c>
       <c r="D54" t="n">
-        <v>126.7</v>
+        <v>130.9</v>
       </c>
       <c r="E54" t="n">
-        <v>125.7</v>
+        <v>128.6</v>
       </c>
       <c r="F54" t="n">
-        <v>568</v>
+        <v>25869.2523</v>
       </c>
       <c r="G54" t="n">
-        <v>447274.1894360262</v>
+        <v>552704.1954360261</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>125</v>
+        <v>129.8</v>
       </c>
       <c r="C55" t="n">
-        <v>125</v>
+        <v>129.8</v>
       </c>
       <c r="D55" t="n">
-        <v>125</v>
+        <v>130.9</v>
       </c>
       <c r="E55" t="n">
-        <v>125</v>
+        <v>129.5</v>
       </c>
       <c r="F55" t="n">
-        <v>500.9882</v>
+        <v>2206.9195</v>
       </c>
       <c r="G55" t="n">
-        <v>446773.2012360261</v>
+        <v>550497.2759360261</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>126</v>
+        <v>130.3</v>
       </c>
       <c r="C56" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="D56" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="E56" t="n">
-        <v>126</v>
+        <v>130.3</v>
       </c>
       <c r="F56" t="n">
-        <v>479</v>
+        <v>54.4817</v>
       </c>
       <c r="G56" t="n">
-        <v>447252.2012360261</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>126</v>
+        <v>129.9</v>
       </c>
       <c r="C57" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="D57" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="E57" t="n">
-        <v>126</v>
+        <v>129.9</v>
       </c>
       <c r="F57" t="n">
-        <v>499</v>
+        <v>2134.1622</v>
       </c>
       <c r="G57" t="n">
-        <v>447252.2012360261</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="C58" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="D58" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="E58" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1464.8705</v>
+        <v>4570</v>
       </c>
       <c r="G58" t="n">
-        <v>448717.0717360261</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="C59" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="D59" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="E59" t="n">
-        <v>128</v>
+        <v>130.3</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1789</v>
+        <v>14.6505</v>
       </c>
       <c r="G59" t="n">
-        <v>448717.0717360261</v>
+        <v>550551.7576360261</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="C60" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="D60" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="E60" t="n">
-        <v>126</v>
+        <v>130.4</v>
       </c>
       <c r="F60" t="n">
-        <v>145</v>
+        <v>12.3897</v>
       </c>
       <c r="G60" t="n">
-        <v>448572.0717360261</v>
+        <v>550564.1473360262</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>126.1</v>
+        <v>130.4</v>
       </c>
       <c r="C61" t="n">
-        <v>126.1</v>
+        <v>130.4</v>
       </c>
       <c r="D61" t="n">
-        <v>126.1</v>
+        <v>130.4</v>
       </c>
       <c r="E61" t="n">
-        <v>126.1</v>
+        <v>130.4</v>
       </c>
       <c r="F61" t="n">
-        <v>2869.282</v>
+        <v>21.1864</v>
       </c>
       <c r="G61" t="n">
-        <v>451441.3537360262</v>
+        <v>550564.1473360262</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>124.2</v>
+        <v>130.9</v>
       </c>
       <c r="C62" t="n">
-        <v>126.1</v>
+        <v>130.9</v>
       </c>
       <c r="D62" t="n">
-        <v>126.1</v>
+        <v>130.9</v>
       </c>
       <c r="E62" t="n">
-        <v>124.2</v>
+        <v>130.9</v>
       </c>
       <c r="F62" t="n">
-        <v>9927.509700000001</v>
+        <v>6.6742</v>
       </c>
       <c r="G62" t="n">
-        <v>451441.3537360262</v>
+        <v>550570.8215360262</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>125.1</v>
+        <v>131</v>
       </c>
       <c r="C63" t="n">
-        <v>126.1</v>
+        <v>130.3</v>
       </c>
       <c r="D63" t="n">
-        <v>126.1</v>
+        <v>131</v>
       </c>
       <c r="E63" t="n">
-        <v>125.1</v>
+        <v>130.3</v>
       </c>
       <c r="F63" t="n">
-        <v>4610</v>
+        <v>10830.1717</v>
       </c>
       <c r="G63" t="n">
-        <v>451441.3537360262</v>
+        <v>539740.6498360262</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>127</v>
+        <v>130.3</v>
       </c>
       <c r="C64" t="n">
-        <v>126.1</v>
+        <v>129.8</v>
       </c>
       <c r="D64" t="n">
-        <v>127</v>
+        <v>130.9</v>
       </c>
       <c r="E64" t="n">
-        <v>126.1</v>
+        <v>128.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1164.5388</v>
+        <v>46250.5491</v>
       </c>
       <c r="G64" t="n">
-        <v>451441.3537360262</v>
+        <v>493490.1007360262</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>125</v>
+        <v>129.8</v>
       </c>
       <c r="C65" t="n">
-        <v>126</v>
+        <v>129.8</v>
       </c>
       <c r="D65" t="n">
-        <v>126</v>
+        <v>130.8</v>
       </c>
       <c r="E65" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F65" t="n">
-        <v>1708.0863</v>
+        <v>18574.4359</v>
       </c>
       <c r="G65" t="n">
-        <v>449733.2674360261</v>
+        <v>493490.1007360262</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C66" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D66" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E66" t="n">
-        <v>125</v>
+        <v>126.5</v>
       </c>
       <c r="F66" t="n">
-        <v>1189</v>
+        <v>35284.64</v>
       </c>
       <c r="G66" t="n">
-        <v>449733.2674360261</v>
+        <v>528774.7407360262</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>124.3</v>
+        <v>127.5</v>
       </c>
       <c r="C67" t="n">
-        <v>125</v>
+        <v>126.4</v>
       </c>
       <c r="D67" t="n">
-        <v>125</v>
+        <v>127.5</v>
       </c>
       <c r="E67" t="n">
-        <v>124.3</v>
+        <v>126.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4124.3437</v>
+        <v>5578.299</v>
       </c>
       <c r="G67" t="n">
-        <v>445608.9237360261</v>
+        <v>523196.4417360262</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D68" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F68" t="n">
-        <v>9103.3109</v>
+        <v>374.9613</v>
       </c>
       <c r="G68" t="n">
-        <v>445608.9237360261</v>
+        <v>522821.4804360262</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C69" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D69" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E69" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F69" t="n">
-        <v>6866.9229</v>
+        <v>752</v>
       </c>
       <c r="G69" t="n">
-        <v>445608.9237360261</v>
+        <v>523573.4804360262</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C70" t="n">
-        <v>125</v>
+        <v>128.9</v>
       </c>
       <c r="D70" t="n">
-        <v>125</v>
+        <v>128.9</v>
       </c>
       <c r="E70" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F70" t="n">
-        <v>12556.6195</v>
+        <v>2518.5389</v>
       </c>
       <c r="G70" t="n">
-        <v>445608.9237360261</v>
+        <v>521054.9415360262</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C71" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D71" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E71" t="n">
-        <v>121.3</v>
+        <v>129</v>
       </c>
       <c r="F71" t="n">
-        <v>15462.3186</v>
+        <v>135.3297</v>
       </c>
       <c r="G71" t="n">
-        <v>461071.2423360261</v>
+        <v>521190.2712360262</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C72" t="n">
-        <v>124.7</v>
+        <v>129.8</v>
       </c>
       <c r="D72" t="n">
-        <v>124.7</v>
+        <v>129.8</v>
       </c>
       <c r="E72" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F72" t="n">
-        <v>22705.2206</v>
+        <v>1940.1226</v>
       </c>
       <c r="G72" t="n">
-        <v>438366.0217360261</v>
+        <v>523130.3938360262</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,38 +2994,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>123.5</v>
+        <v>128</v>
       </c>
       <c r="C73" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D73" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E73" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F73" t="n">
-        <v>550</v>
+        <v>376</v>
       </c>
       <c r="G73" t="n">
-        <v>437816.0217360261</v>
+        <v>522754.3938360262</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>124.7</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3036,38 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>125.9</v>
+        <v>128</v>
       </c>
       <c r="C74" t="n">
-        <v>125.9</v>
+        <v>129</v>
       </c>
       <c r="D74" t="n">
-        <v>125.9</v>
+        <v>129.9</v>
       </c>
       <c r="E74" t="n">
-        <v>125.9</v>
+        <v>128</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>12702.5842</v>
       </c>
       <c r="G74" t="n">
-        <v>437820.0217360261</v>
+        <v>535456.9780360262</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>124</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>123</v>
+        <v>127.2</v>
       </c>
       <c r="C75" t="n">
-        <v>123</v>
+        <v>128.9</v>
       </c>
       <c r="D75" t="n">
-        <v>123</v>
+        <v>128.9</v>
       </c>
       <c r="E75" t="n">
-        <v>123</v>
+        <v>126.1</v>
       </c>
       <c r="F75" t="n">
-        <v>2226.6263</v>
+        <v>6005.6286</v>
       </c>
       <c r="G75" t="n">
-        <v>435593.3954360261</v>
+        <v>529451.3494360262</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3103,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,38 +3102,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>123.4</v>
+        <v>127.1</v>
       </c>
       <c r="C76" t="n">
-        <v>124.8</v>
+        <v>128</v>
       </c>
       <c r="D76" t="n">
-        <v>124.8</v>
+        <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>123.4</v>
+        <v>127.1</v>
       </c>
       <c r="F76" t="n">
-        <v>2758.0915</v>
+        <v>10976.0437</v>
       </c>
       <c r="G76" t="n">
-        <v>438351.4869360261</v>
+        <v>518475.3057360262</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>123</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3160,38 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>123</v>
+        <v>127.7</v>
       </c>
       <c r="C77" t="n">
-        <v>125.6</v>
+        <v>128.7</v>
       </c>
       <c r="D77" t="n">
-        <v>125.6</v>
+        <v>128.7</v>
       </c>
       <c r="E77" t="n">
-        <v>120.7</v>
+        <v>127.7</v>
       </c>
       <c r="F77" t="n">
-        <v>20353.0797</v>
+        <v>712</v>
       </c>
       <c r="G77" t="n">
-        <v>458704.5666360261</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>124.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3202,38 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>123.5</v>
+        <v>128.7</v>
       </c>
       <c r="C78" t="n">
-        <v>124</v>
+        <v>128.7</v>
       </c>
       <c r="D78" t="n">
-        <v>124.5</v>
+        <v>128.7</v>
       </c>
       <c r="E78" t="n">
-        <v>120.6</v>
+        <v>128.7</v>
       </c>
       <c r="F78" t="n">
-        <v>24317.2775</v>
+        <v>401.8926</v>
       </c>
       <c r="G78" t="n">
-        <v>434387.2891360261</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>125.6</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3244,38 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>121.7</v>
+        <v>127.2</v>
       </c>
       <c r="C79" t="n">
-        <v>123.9</v>
+        <v>128.7</v>
       </c>
       <c r="D79" t="n">
-        <v>124</v>
+        <v>129.8</v>
       </c>
       <c r="E79" t="n">
-        <v>121.7</v>
+        <v>127</v>
       </c>
       <c r="F79" t="n">
-        <v>5992.0515</v>
+        <v>14440.6569</v>
       </c>
       <c r="G79" t="n">
-        <v>428395.2376360261</v>
+        <v>519187.3057360262</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>124</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3286,38 +3246,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>123.9</v>
+        <v>127.2</v>
       </c>
       <c r="C80" t="n">
-        <v>123.9</v>
+        <v>126.2</v>
       </c>
       <c r="D80" t="n">
-        <v>123.9</v>
+        <v>127.2</v>
       </c>
       <c r="E80" t="n">
-        <v>123.9</v>
+        <v>126.2</v>
       </c>
       <c r="F80" t="n">
-        <v>762.2328</v>
+        <v>3883.458</v>
       </c>
       <c r="G80" t="n">
-        <v>428395.2376360261</v>
+        <v>515303.8477360262</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>123.9</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3328,38 +3282,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>123.9</v>
+        <v>127.2</v>
       </c>
       <c r="C81" t="n">
-        <v>124</v>
+        <v>126.2</v>
       </c>
       <c r="D81" t="n">
-        <v>124</v>
+        <v>127.2</v>
       </c>
       <c r="E81" t="n">
-        <v>123.9</v>
+        <v>126.2</v>
       </c>
       <c r="F81" t="n">
-        <v>2934.3926</v>
+        <v>3081.1327</v>
       </c>
       <c r="G81" t="n">
-        <v>431329.6302360261</v>
+        <v>515303.8477360262</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>123.9</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3370,38 +3318,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>124</v>
+        <v>127.5</v>
       </c>
       <c r="C82" t="n">
-        <v>124</v>
+        <v>128.5</v>
       </c>
       <c r="D82" t="n">
-        <v>124</v>
+        <v>128.5</v>
       </c>
       <c r="E82" t="n">
-        <v>124</v>
+        <v>127.5</v>
       </c>
       <c r="F82" t="n">
-        <v>3821.0851</v>
+        <v>3997</v>
       </c>
       <c r="G82" t="n">
-        <v>431329.6302360261</v>
+        <v>519300.8477360262</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>124</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3412,38 +3354,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C83" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D83" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" t="n">
-        <v>124</v>
+        <v>127.2</v>
       </c>
       <c r="F83" t="n">
-        <v>5295.6057</v>
+        <v>2407.1744</v>
       </c>
       <c r="G83" t="n">
-        <v>431329.6302360261</v>
+        <v>516893.6733360262</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>124</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3454,38 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C84" t="n">
-        <v>123</v>
+        <v>127.2</v>
       </c>
       <c r="D84" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E84" t="n">
-        <v>123</v>
+        <v>127.2</v>
       </c>
       <c r="F84" t="n">
-        <v>31.4151</v>
+        <v>1515</v>
       </c>
       <c r="G84" t="n">
-        <v>431298.2151360261</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>124</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3496,38 +3426,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>123</v>
+        <v>127.5</v>
       </c>
       <c r="C85" t="n">
-        <v>120.8</v>
+        <v>127.2</v>
       </c>
       <c r="D85" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E85" t="n">
-        <v>120.8</v>
+        <v>127.2</v>
       </c>
       <c r="F85" t="n">
-        <v>33771.9406</v>
+        <v>6588.7285</v>
       </c>
       <c r="G85" t="n">
-        <v>397526.2745360261</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>123</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3538,38 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>124</v>
+        <v>127.2</v>
       </c>
       <c r="C86" t="n">
-        <v>125.3</v>
+        <v>127.2</v>
       </c>
       <c r="D86" t="n">
-        <v>125.4</v>
+        <v>127.2</v>
       </c>
       <c r="E86" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F86" t="n">
-        <v>2059</v>
+        <v>5772.782</v>
       </c>
       <c r="G86" t="n">
-        <v>399585.2745360261</v>
+        <v>515378.6733360262</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>120.8</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3580,38 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>125</v>
+        <v>126.2</v>
       </c>
       <c r="C87" t="n">
-        <v>125</v>
+        <v>126.2</v>
       </c>
       <c r="D87" t="n">
-        <v>125</v>
+        <v>126.2</v>
       </c>
       <c r="E87" t="n">
-        <v>125</v>
+        <v>126.2</v>
       </c>
       <c r="F87" t="n">
-        <v>825.7637</v>
+        <v>6135.9839</v>
       </c>
       <c r="G87" t="n">
-        <v>398759.510836026</v>
+        <v>509242.6894360262</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>125.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3622,38 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C88" t="n">
-        <v>124.9</v>
+        <v>126</v>
       </c>
       <c r="D88" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" t="n">
-        <v>124.9</v>
+        <v>126</v>
       </c>
       <c r="F88" t="n">
-        <v>17045.9589</v>
+        <v>6168.5911</v>
       </c>
       <c r="G88" t="n">
-        <v>381713.551936026</v>
+        <v>503074.0983360262</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>125</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3664,38 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C89" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D89" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F89" t="n">
-        <v>10192.3436</v>
+        <v>11022.1271</v>
       </c>
       <c r="G89" t="n">
-        <v>391905.895536026</v>
+        <v>503074.0983360262</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>124.9</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3706,38 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>125.4</v>
+        <v>126</v>
       </c>
       <c r="C90" t="n">
-        <v>125.4</v>
+        <v>125.2</v>
       </c>
       <c r="D90" t="n">
-        <v>125.4</v>
+        <v>126</v>
       </c>
       <c r="E90" t="n">
-        <v>125.4</v>
+        <v>125.2</v>
       </c>
       <c r="F90" t="n">
-        <v>7.1096</v>
+        <v>38249.5314</v>
       </c>
       <c r="G90" t="n">
-        <v>391913.0051360261</v>
+        <v>464824.5669360262</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>125</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3748,38 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>122.5</v>
+        <v>125</v>
       </c>
       <c r="C91" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="D91" t="n">
-        <v>125.4</v>
+        <v>125</v>
       </c>
       <c r="E91" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F91" t="n">
-        <v>16390.7324</v>
+        <v>9004.7618</v>
       </c>
       <c r="G91" t="n">
-        <v>391913.0051360261</v>
+        <v>455819.8051360262</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>125.4</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3793,35 +3681,29 @@
         <v>125</v>
       </c>
       <c r="C92" t="n">
-        <v>125</v>
+        <v>124.5</v>
       </c>
       <c r="D92" t="n">
         <v>125</v>
       </c>
       <c r="E92" t="n">
-        <v>125</v>
+        <v>124.5</v>
       </c>
       <c r="F92" t="n">
-        <v>7949.6468</v>
+        <v>18610.7136</v>
       </c>
       <c r="G92" t="n">
-        <v>383963.3583360261</v>
+        <v>437209.0915360262</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>125.4</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3832,38 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>124.9</v>
+        <v>126</v>
       </c>
       <c r="C93" t="n">
-        <v>124.9</v>
+        <v>128.4</v>
       </c>
       <c r="D93" t="n">
-        <v>124.9</v>
+        <v>128.4</v>
       </c>
       <c r="E93" t="n">
-        <v>124.9</v>
+        <v>125.9</v>
       </c>
       <c r="F93" t="n">
-        <v>754.4882</v>
+        <v>25959.9531</v>
       </c>
       <c r="G93" t="n">
-        <v>383208.8701360261</v>
+        <v>463169.0446360262</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>125</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3874,38 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>125.4</v>
+        <v>128</v>
       </c>
       <c r="C94" t="n">
-        <v>127.8</v>
+        <v>127.9</v>
       </c>
       <c r="D94" t="n">
-        <v>127.8</v>
+        <v>128</v>
       </c>
       <c r="E94" t="n">
-        <v>125.4</v>
+        <v>127</v>
       </c>
       <c r="F94" t="n">
-        <v>1789</v>
+        <v>12527.7071</v>
       </c>
       <c r="G94" t="n">
-        <v>384997.8701360261</v>
+        <v>450641.3375360262</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>124.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3916,38 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>126</v>
+        <v>127.9</v>
       </c>
       <c r="C95" t="n">
-        <v>126</v>
+        <v>127.9</v>
       </c>
       <c r="D95" t="n">
-        <v>126</v>
+        <v>127.9</v>
       </c>
       <c r="E95" t="n">
-        <v>126</v>
+        <v>127.9</v>
       </c>
       <c r="F95" t="n">
-        <v>335</v>
+        <v>6595.4266</v>
       </c>
       <c r="G95" t="n">
-        <v>384662.8701360261</v>
+        <v>450641.3375360262</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>127.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3958,38 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C96" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D96" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F96" t="n">
-        <v>335</v>
+        <v>80.05419999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>384662.8701360261</v>
+        <v>450721.3917360262</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>126</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4000,38 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>125.6</v>
+        <v>127.2</v>
       </c>
       <c r="C97" t="n">
-        <v>125.6</v>
+        <v>127.2</v>
       </c>
       <c r="D97" t="n">
-        <v>126.6</v>
+        <v>127.2</v>
       </c>
       <c r="E97" t="n">
-        <v>125.6</v>
+        <v>127.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1204.9999</v>
+        <v>2240.8962</v>
       </c>
       <c r="G97" t="n">
-        <v>383457.8702360261</v>
+        <v>448480.4955360262</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>126</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4042,38 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>126</v>
+        <v>127.1</v>
       </c>
       <c r="C98" t="n">
-        <v>127.7</v>
+        <v>126.1</v>
       </c>
       <c r="D98" t="n">
-        <v>127.7</v>
+        <v>127.1</v>
       </c>
       <c r="E98" t="n">
-        <v>125</v>
+        <v>126.1</v>
       </c>
       <c r="F98" t="n">
-        <v>6996.6867</v>
+        <v>2116.7923</v>
       </c>
       <c r="G98" t="n">
-        <v>390454.5569360261</v>
+        <v>446363.7032360262</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>125.6</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4084,38 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>127.7</v>
+        <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>127.7</v>
+        <v>123.5</v>
       </c>
       <c r="D99" t="n">
-        <v>127.7</v>
+        <v>127</v>
       </c>
       <c r="E99" t="n">
-        <v>127.7</v>
+        <v>123.5</v>
       </c>
       <c r="F99" t="n">
-        <v>2309.4784</v>
+        <v>35719.2853</v>
       </c>
       <c r="G99" t="n">
-        <v>390454.5569360261</v>
+        <v>410644.4179360262</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>127.7</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4126,38 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>127.5</v>
+        <v>125.6</v>
       </c>
       <c r="C100" t="n">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="D100" t="n">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="E100" t="n">
-        <v>127.5</v>
+        <v>125</v>
       </c>
       <c r="F100" t="n">
-        <v>7665.988751357641</v>
+        <v>7663.1212</v>
       </c>
       <c r="G100" t="n">
-        <v>398120.5456873837</v>
+        <v>418307.5391360262</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>127.7</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4168,38 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>127</v>
+        <v>127.7</v>
       </c>
       <c r="C101" t="n">
-        <v>128.9</v>
+        <v>128.7</v>
       </c>
       <c r="D101" t="n">
-        <v>128.9</v>
+        <v>128.7</v>
       </c>
       <c r="E101" t="n">
-        <v>127</v>
+        <v>126.6</v>
       </c>
       <c r="F101" t="n">
-        <v>748.0741</v>
+        <v>2575.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>398120.5456873837</v>
+        <v>415731.5392360262</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>128.9</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4213,35 +4041,29 @@
         <v>127.7</v>
       </c>
       <c r="C102" t="n">
-        <v>127.7</v>
+        <v>127.8</v>
       </c>
       <c r="D102" t="n">
-        <v>127.7</v>
+        <v>127.8</v>
       </c>
       <c r="E102" t="n">
         <v>127.7</v>
       </c>
       <c r="F102" t="n">
-        <v>400</v>
+        <v>1588.9998</v>
       </c>
       <c r="G102" t="n">
-        <v>397720.5456873837</v>
+        <v>414142.5394360262</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>128.9</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4252,38 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>127.7</v>
+        <v>127</v>
       </c>
       <c r="C103" t="n">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="D103" t="n">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="E103" t="n">
-        <v>127.7</v>
+        <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>3673.631</v>
+        <v>14801.6287</v>
       </c>
       <c r="G103" t="n">
-        <v>401394.1766873837</v>
+        <v>428944.1681360262</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>127.7</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4294,38 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>128.9</v>
+        <v>127</v>
       </c>
       <c r="C104" t="n">
-        <v>128.9</v>
+        <v>126.9</v>
       </c>
       <c r="D104" t="n">
-        <v>128.9</v>
+        <v>127.9</v>
       </c>
       <c r="E104" t="n">
-        <v>128.9</v>
+        <v>126</v>
       </c>
       <c r="F104" t="n">
-        <v>10498.9587</v>
+        <v>14940.0884</v>
       </c>
       <c r="G104" t="n">
-        <v>401394.1766873837</v>
+        <v>414004.0797360262</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>128.9</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4336,38 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>128.7</v>
+        <v>126</v>
       </c>
       <c r="C105" t="n">
-        <v>128.7</v>
+        <v>128.2</v>
       </c>
       <c r="D105" t="n">
-        <v>128.7</v>
+        <v>128.2</v>
       </c>
       <c r="E105" t="n">
-        <v>128.7</v>
+        <v>126</v>
       </c>
       <c r="F105" t="n">
-        <v>1536.4608</v>
+        <v>5656</v>
       </c>
       <c r="G105" t="n">
-        <v>399857.7158873837</v>
+        <v>419660.0797360262</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>128.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4378,38 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="C106" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="D106" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="E106" t="n">
-        <v>128.7</v>
+        <v>128</v>
       </c>
       <c r="F106" t="n">
-        <v>410.123</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>399857.7158873837</v>
+        <v>419460.0797360262</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>128.7</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4420,38 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="C107" t="n">
-        <v>126.6</v>
+        <v>127.5</v>
       </c>
       <c r="D107" t="n">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="E107" t="n">
-        <v>126.6</v>
+        <v>127.5</v>
       </c>
       <c r="F107" t="n">
-        <v>353.7645</v>
+        <v>1189</v>
       </c>
       <c r="G107" t="n">
-        <v>399503.9513873837</v>
+        <v>418271.0797360262</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>128.7</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4462,38 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="C108" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="D108" t="n">
-        <v>128.7</v>
+        <v>127.4</v>
       </c>
       <c r="E108" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="F108" t="n">
-        <v>514</v>
+        <v>1545</v>
       </c>
       <c r="G108" t="n">
-        <v>400017.9513873837</v>
+        <v>416726.0797360262</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>126.6</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4504,38 +4290,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="C109" t="n">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="D109" t="n">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="E109" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="F109" t="n">
-        <v>635.4807</v>
+        <v>6386.5883</v>
       </c>
       <c r="G109" t="n">
-        <v>400653.4320873838</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>128</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4546,38 +4326,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="C110" t="n">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="D110" t="n">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="E110" t="n">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="F110" t="n">
-        <v>2467.4124</v>
+        <v>827</v>
       </c>
       <c r="G110" t="n">
-        <v>400653.4320873838</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>128.7</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4588,38 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="C111" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="D111" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="E111" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="F111" t="n">
-        <v>5961.7885</v>
+        <v>2961.7012</v>
       </c>
       <c r="G111" t="n">
-        <v>406615.2205873838</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>128.7</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4630,38 +4398,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="C112" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="D112" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="E112" t="n">
-        <v>128.8</v>
+        <v>128.1</v>
       </c>
       <c r="F112" t="n">
-        <v>56</v>
+        <v>2489.1525</v>
       </c>
       <c r="G112" t="n">
-        <v>406615.2205873838</v>
+        <v>423112.6680360262</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>128.8</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4672,38 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>128.8</v>
+        <v>127</v>
       </c>
       <c r="C113" t="n">
-        <v>128.8</v>
+        <v>127</v>
       </c>
       <c r="D113" t="n">
-        <v>128.8</v>
+        <v>127</v>
       </c>
       <c r="E113" t="n">
-        <v>128.8</v>
+        <v>127</v>
       </c>
       <c r="F113" t="n">
-        <v>11487.9045</v>
+        <v>136.8418</v>
       </c>
       <c r="G113" t="n">
-        <v>406615.2205873838</v>
+        <v>422975.8262360262</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>128.8</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4714,38 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>129</v>
+        <v>125.3</v>
       </c>
       <c r="C114" t="n">
-        <v>132</v>
+        <v>125.3</v>
       </c>
       <c r="D114" t="n">
-        <v>132</v>
+        <v>125.3</v>
       </c>
       <c r="E114" t="n">
-        <v>129</v>
+        <v>125.3</v>
       </c>
       <c r="F114" t="n">
-        <v>18109.426</v>
+        <v>2971.8705</v>
       </c>
       <c r="G114" t="n">
-        <v>424724.6465873838</v>
+        <v>420003.9557360262</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>128.8</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4756,38 +4506,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D115" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E115" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F115" t="n">
-        <v>24531.17083691177</v>
+        <v>5873.9678</v>
       </c>
       <c r="G115" t="n">
-        <v>449255.8174242955</v>
+        <v>425877.9235360262</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>132</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4798,38 +4542,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>136.5</v>
+        <v>127</v>
       </c>
       <c r="D116" t="n">
-        <v>136.5</v>
+        <v>127</v>
       </c>
       <c r="E116" t="n">
-        <v>134.9</v>
+        <v>127</v>
       </c>
       <c r="F116" t="n">
-        <v>12609.1132</v>
+        <v>3748.9788</v>
       </c>
       <c r="G116" t="n">
-        <v>461864.9306242955</v>
+        <v>425877.9235360262</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>136</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4840,38 +4578,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>136.5</v>
+        <v>129</v>
       </c>
       <c r="C117" t="n">
-        <v>136.4</v>
+        <v>128</v>
       </c>
       <c r="D117" t="n">
-        <v>136.5</v>
+        <v>129</v>
       </c>
       <c r="E117" t="n">
-        <v>136.4</v>
+        <v>128</v>
       </c>
       <c r="F117" t="n">
-        <v>13823.8166</v>
+        <v>7911.8489</v>
       </c>
       <c r="G117" t="n">
-        <v>448041.1140242955</v>
+        <v>433789.7724360262</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>136.5</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4882,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>136.4</v>
+        <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>135</v>
+        <v>128.9</v>
       </c>
       <c r="D118" t="n">
-        <v>136.4</v>
+        <v>128.9</v>
       </c>
       <c r="E118" t="n">
-        <v>135</v>
+        <v>126.2</v>
       </c>
       <c r="F118" t="n">
-        <v>3525.8631</v>
+        <v>11933.7177</v>
       </c>
       <c r="G118" t="n">
-        <v>444515.2509242955</v>
+        <v>445723.4901360262</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4907,11 +4639,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4922,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C119" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D119" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E119" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F119" t="n">
-        <v>8426.9476</v>
+        <v>55</v>
       </c>
       <c r="G119" t="n">
-        <v>436088.3033242955</v>
+        <v>445668.4901360262</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4947,11 +4675,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4962,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>134</v>
+        <v>125.1</v>
       </c>
       <c r="C120" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D120" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E120" t="n">
-        <v>134</v>
+        <v>124.1</v>
       </c>
       <c r="F120" t="n">
-        <v>3305.39552238806</v>
+        <v>7207.5645</v>
       </c>
       <c r="G120" t="n">
-        <v>436088.3033242955</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4987,11 +4711,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5002,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C121" t="n">
-        <v>133.1</v>
+        <v>127</v>
       </c>
       <c r="D121" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E121" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F121" t="n">
-        <v>3136.2139</v>
+        <v>7567.1719</v>
       </c>
       <c r="G121" t="n">
-        <v>432952.0894242955</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5027,11 +4747,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5042,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>134.7</v>
+        <v>127</v>
       </c>
       <c r="C122" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D122" t="n">
-        <v>134.7</v>
+        <v>127</v>
       </c>
       <c r="E122" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F122" t="n">
-        <v>2471.2747</v>
+        <v>735</v>
       </c>
       <c r="G122" t="n">
-        <v>435423.3641242955</v>
+        <v>452876.0546360262</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5067,11 +4783,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5082,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>134</v>
+        <v>124.9</v>
       </c>
       <c r="C123" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D123" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E123" t="n">
-        <v>134</v>
+        <v>123.2</v>
       </c>
       <c r="F123" t="n">
-        <v>2629</v>
+        <v>5058.8652</v>
       </c>
       <c r="G123" t="n">
-        <v>435423.3641242955</v>
+        <v>447817.1894360262</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5107,11 +4819,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5122,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>134</v>
+        <v>126.8</v>
       </c>
       <c r="C124" t="n">
-        <v>133</v>
+        <v>126.8</v>
       </c>
       <c r="D124" t="n">
-        <v>134</v>
+        <v>126.8</v>
       </c>
       <c r="E124" t="n">
-        <v>133</v>
+        <v>126.8</v>
       </c>
       <c r="F124" t="n">
-        <v>5993.1725</v>
+        <v>25</v>
       </c>
       <c r="G124" t="n">
-        <v>429430.1916242955</v>
+        <v>447842.1894360262</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5147,11 +4855,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5162,37 +4866,35 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>134.6</v>
+        <v>125.7</v>
       </c>
       <c r="C125" t="n">
-        <v>134.6</v>
+        <v>126.7</v>
       </c>
       <c r="D125" t="n">
-        <v>134.6</v>
+        <v>126.7</v>
       </c>
       <c r="E125" t="n">
-        <v>134.6</v>
+        <v>125.7</v>
       </c>
       <c r="F125" t="n">
-        <v>17660.493</v>
+        <v>568</v>
       </c>
       <c r="G125" t="n">
-        <v>447090.6846242956</v>
+        <v>447274.1894360262</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
       <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -5200,28 +4902,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>135.4</v>
+        <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>135.4</v>
+        <v>125</v>
       </c>
       <c r="D126" t="n">
-        <v>135.4</v>
+        <v>125</v>
       </c>
       <c r="E126" t="n">
-        <v>135.4</v>
+        <v>125</v>
       </c>
       <c r="F126" t="n">
-        <v>171.427</v>
+        <v>500.9882</v>
       </c>
       <c r="G126" t="n">
-        <v>447262.1116242956</v>
+        <v>446773.2012360261</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5236,28 +4938,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>134.6</v>
+        <v>126</v>
       </c>
       <c r="C127" t="n">
-        <v>134.6</v>
+        <v>127</v>
       </c>
       <c r="D127" t="n">
-        <v>135.4</v>
+        <v>127</v>
       </c>
       <c r="E127" t="n">
-        <v>133.1</v>
+        <v>126</v>
       </c>
       <c r="F127" t="n">
-        <v>3006.9139</v>
+        <v>479</v>
       </c>
       <c r="G127" t="n">
-        <v>444255.1977242956</v>
+        <v>447252.2012360261</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5272,28 +4974,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>134.9</v>
+        <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>134.9</v>
+        <v>127</v>
       </c>
       <c r="D128" t="n">
-        <v>134.9</v>
+        <v>127</v>
       </c>
       <c r="E128" t="n">
-        <v>134.8</v>
+        <v>126</v>
       </c>
       <c r="F128" t="n">
-        <v>8855.4354</v>
+        <v>499</v>
       </c>
       <c r="G128" t="n">
-        <v>453110.6331242956</v>
+        <v>447252.2012360261</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5308,28 +5010,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>134.9</v>
+        <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E129" t="n">
-        <v>134.9</v>
+        <v>127</v>
       </c>
       <c r="F129" t="n">
-        <v>11035.1996</v>
+        <v>1464.8705</v>
       </c>
       <c r="G129" t="n">
-        <v>464145.8327242956</v>
+        <v>448717.0717360261</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5339,6 +5041,2934 @@
       </c>
       <c r="N129" t="inlineStr"/>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>128</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1789</v>
+      </c>
+      <c r="G130" t="n">
+        <v>448717.0717360261</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>126</v>
+      </c>
+      <c r="C131" t="n">
+        <v>126</v>
+      </c>
+      <c r="D131" t="n">
+        <v>126</v>
+      </c>
+      <c r="E131" t="n">
+        <v>126</v>
+      </c>
+      <c r="F131" t="n">
+        <v>145</v>
+      </c>
+      <c r="G131" t="n">
+        <v>448572.0717360261</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2869.282</v>
+      </c>
+      <c r="G132" t="n">
+        <v>451441.3537360262</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9927.509700000001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>451441.3537360262</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4610</v>
+      </c>
+      <c r="G134" t="n">
+        <v>451441.3537360262</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>127</v>
+      </c>
+      <c r="C135" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>127</v>
+      </c>
+      <c r="E135" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1164.5388</v>
+      </c>
+      <c r="G135" t="n">
+        <v>451441.3537360262</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>125</v>
+      </c>
+      <c r="C136" t="n">
+        <v>126</v>
+      </c>
+      <c r="D136" t="n">
+        <v>126</v>
+      </c>
+      <c r="E136" t="n">
+        <v>125</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1708.0863</v>
+      </c>
+      <c r="G136" t="n">
+        <v>449733.2674360261</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>126</v>
+      </c>
+      <c r="D137" t="n">
+        <v>126</v>
+      </c>
+      <c r="E137" t="n">
+        <v>125</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1189</v>
+      </c>
+      <c r="G137" t="n">
+        <v>449733.2674360261</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>125</v>
+      </c>
+      <c r="D138" t="n">
+        <v>125</v>
+      </c>
+      <c r="E138" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4124.3437</v>
+      </c>
+      <c r="G138" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>126</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>125</v>
+      </c>
+      <c r="C139" t="n">
+        <v>125</v>
+      </c>
+      <c r="D139" t="n">
+        <v>125</v>
+      </c>
+      <c r="E139" t="n">
+        <v>125</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9103.3109</v>
+      </c>
+      <c r="G139" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>125</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>125</v>
+      </c>
+      <c r="C140" t="n">
+        <v>125</v>
+      </c>
+      <c r="D140" t="n">
+        <v>125</v>
+      </c>
+      <c r="E140" t="n">
+        <v>125</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6866.9229</v>
+      </c>
+      <c r="G140" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>125</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>125</v>
+      </c>
+      <c r="C141" t="n">
+        <v>125</v>
+      </c>
+      <c r="D141" t="n">
+        <v>125</v>
+      </c>
+      <c r="E141" t="n">
+        <v>125</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12556.6195</v>
+      </c>
+      <c r="G141" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>125</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>125</v>
+      </c>
+      <c r="C142" t="n">
+        <v>126</v>
+      </c>
+      <c r="D142" t="n">
+        <v>126</v>
+      </c>
+      <c r="E142" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15462.3186</v>
+      </c>
+      <c r="G142" t="n">
+        <v>461071.2423360261</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>125</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>123</v>
+      </c>
+      <c r="C143" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>121</v>
+      </c>
+      <c r="F143" t="n">
+        <v>22705.2206</v>
+      </c>
+      <c r="G143" t="n">
+        <v>438366.0217360261</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>126</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>124</v>
+      </c>
+      <c r="D144" t="n">
+        <v>124</v>
+      </c>
+      <c r="E144" t="n">
+        <v>123</v>
+      </c>
+      <c r="F144" t="n">
+        <v>550</v>
+      </c>
+      <c r="G144" t="n">
+        <v>437816.0217360261</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>437820.0217360261</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>124</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>123</v>
+      </c>
+      <c r="C146" t="n">
+        <v>123</v>
+      </c>
+      <c r="D146" t="n">
+        <v>123</v>
+      </c>
+      <c r="E146" t="n">
+        <v>123</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2226.6263</v>
+      </c>
+      <c r="G146" t="n">
+        <v>435593.3954360261</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2758.0915</v>
+      </c>
+      <c r="G147" t="n">
+        <v>438351.4869360261</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>123</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>123</v>
+      </c>
+      <c r="C148" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20353.0797</v>
+      </c>
+      <c r="G148" t="n">
+        <v>458704.5666360261</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>124</v>
+      </c>
+      <c r="D149" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>24317.2775</v>
+      </c>
+      <c r="G149" t="n">
+        <v>434387.2891360261</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>124</v>
+      </c>
+      <c r="E150" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5992.0515</v>
+      </c>
+      <c r="G150" t="n">
+        <v>428395.2376360261</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>124</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="F151" t="n">
+        <v>762.2328</v>
+      </c>
+      <c r="G151" t="n">
+        <v>428395.2376360261</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>124</v>
+      </c>
+      <c r="D152" t="n">
+        <v>124</v>
+      </c>
+      <c r="E152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2934.3926</v>
+      </c>
+      <c r="G152" t="n">
+        <v>431329.6302360261</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>124</v>
+      </c>
+      <c r="C153" t="n">
+        <v>124</v>
+      </c>
+      <c r="D153" t="n">
+        <v>124</v>
+      </c>
+      <c r="E153" t="n">
+        <v>124</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3821.0851</v>
+      </c>
+      <c r="G153" t="n">
+        <v>431329.6302360261</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>124</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>124</v>
+      </c>
+      <c r="C154" t="n">
+        <v>124</v>
+      </c>
+      <c r="D154" t="n">
+        <v>124</v>
+      </c>
+      <c r="E154" t="n">
+        <v>124</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5295.6057</v>
+      </c>
+      <c r="G154" t="n">
+        <v>431329.6302360261</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>124</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>123</v>
+      </c>
+      <c r="C155" t="n">
+        <v>123</v>
+      </c>
+      <c r="D155" t="n">
+        <v>123</v>
+      </c>
+      <c r="E155" t="n">
+        <v>123</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31.4151</v>
+      </c>
+      <c r="G155" t="n">
+        <v>431298.2151360261</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>124</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>123</v>
+      </c>
+      <c r="C156" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>123</v>
+      </c>
+      <c r="E156" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>33771.9406</v>
+      </c>
+      <c r="G156" t="n">
+        <v>397526.2745360261</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>123</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>124</v>
+      </c>
+      <c r="C157" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>124</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2059</v>
+      </c>
+      <c r="G157" t="n">
+        <v>399585.2745360261</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>125</v>
+      </c>
+      <c r="C158" t="n">
+        <v>125</v>
+      </c>
+      <c r="D158" t="n">
+        <v>125</v>
+      </c>
+      <c r="E158" t="n">
+        <v>125</v>
+      </c>
+      <c r="F158" t="n">
+        <v>825.7637</v>
+      </c>
+      <c r="G158" t="n">
+        <v>398759.510836026</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>125</v>
+      </c>
+      <c r="C159" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>125</v>
+      </c>
+      <c r="E159" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17045.9589</v>
+      </c>
+      <c r="G159" t="n">
+        <v>381713.551936026</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>125</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>125</v>
+      </c>
+      <c r="C160" t="n">
+        <v>125</v>
+      </c>
+      <c r="D160" t="n">
+        <v>125</v>
+      </c>
+      <c r="E160" t="n">
+        <v>125</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10192.3436</v>
+      </c>
+      <c r="G160" t="n">
+        <v>391905.895536026</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7.1096</v>
+      </c>
+      <c r="G161" t="n">
+        <v>391913.0051360261</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>125</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>121</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16390.7324</v>
+      </c>
+      <c r="G162" t="n">
+        <v>391913.0051360261</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>125</v>
+      </c>
+      <c r="C163" t="n">
+        <v>125</v>
+      </c>
+      <c r="D163" t="n">
+        <v>125</v>
+      </c>
+      <c r="E163" t="n">
+        <v>125</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7949.6468</v>
+      </c>
+      <c r="G163" t="n">
+        <v>383963.3583360261</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>754.4882</v>
+      </c>
+      <c r="G164" t="n">
+        <v>383208.8701360261</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>125</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>384997.8701360261</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>126</v>
+      </c>
+      <c r="C166" t="n">
+        <v>126</v>
+      </c>
+      <c r="D166" t="n">
+        <v>126</v>
+      </c>
+      <c r="E166" t="n">
+        <v>126</v>
+      </c>
+      <c r="F166" t="n">
+        <v>335</v>
+      </c>
+      <c r="G166" t="n">
+        <v>384662.8701360261</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>126</v>
+      </c>
+      <c r="C167" t="n">
+        <v>126</v>
+      </c>
+      <c r="D167" t="n">
+        <v>126</v>
+      </c>
+      <c r="E167" t="n">
+        <v>126</v>
+      </c>
+      <c r="F167" t="n">
+        <v>335</v>
+      </c>
+      <c r="G167" t="n">
+        <v>384662.8701360261</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>126</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1204.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>383457.8702360261</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>126</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>126</v>
+      </c>
+      <c r="C169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>125</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6996.6867</v>
+      </c>
+      <c r="G169" t="n">
+        <v>390454.5569360261</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2309.4784</v>
+      </c>
+      <c r="G170" t="n">
+        <v>390454.5569360261</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7665.988751357641</v>
+      </c>
+      <c r="G171" t="n">
+        <v>398120.5456873837</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>127</v>
+      </c>
+      <c r="C172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>127</v>
+      </c>
+      <c r="F172" t="n">
+        <v>748.0741</v>
+      </c>
+      <c r="G172" t="n">
+        <v>398120.5456873837</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>397720.5456873837</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3673.631</v>
+      </c>
+      <c r="G174" t="n">
+        <v>401394.1766873837</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10498.9587</v>
+      </c>
+      <c r="G175" t="n">
+        <v>401394.1766873837</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1536.4608</v>
+      </c>
+      <c r="G176" t="n">
+        <v>399857.7158873837</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>410.123</v>
+      </c>
+      <c r="G177" t="n">
+        <v>399857.7158873837</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>127</v>
+      </c>
+      <c r="C178" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>127</v>
+      </c>
+      <c r="E178" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>353.7645</v>
+      </c>
+      <c r="G178" t="n">
+        <v>399503.9513873837</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>128</v>
+      </c>
+      <c r="C179" t="n">
+        <v>128</v>
+      </c>
+      <c r="D179" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>128</v>
+      </c>
+      <c r="F179" t="n">
+        <v>514</v>
+      </c>
+      <c r="G179" t="n">
+        <v>400017.9513873837</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>128</v>
+      </c>
+      <c r="C180" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>128</v>
+      </c>
+      <c r="F180" t="n">
+        <v>635.4807</v>
+      </c>
+      <c r="G180" t="n">
+        <v>400653.4320873838</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>128</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2467.4124</v>
+      </c>
+      <c r="G181" t="n">
+        <v>400653.4320873838</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5961.7885</v>
+      </c>
+      <c r="G182" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>56</v>
+      </c>
+      <c r="G183" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11487.9045</v>
+      </c>
+      <c r="G184" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>129</v>
+      </c>
+      <c r="C185" t="n">
+        <v>132</v>
+      </c>
+      <c r="D185" t="n">
+        <v>132</v>
+      </c>
+      <c r="E185" t="n">
+        <v>129</v>
+      </c>
+      <c r="F185" t="n">
+        <v>18109.426</v>
+      </c>
+      <c r="G185" t="n">
+        <v>424724.6465873838</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>133</v>
+      </c>
+      <c r="C186" t="n">
+        <v>136</v>
+      </c>
+      <c r="D186" t="n">
+        <v>136</v>
+      </c>
+      <c r="E186" t="n">
+        <v>133</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24531.17083691177</v>
+      </c>
+      <c r="G186" t="n">
+        <v>449255.8174242955</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>132</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>135</v>
+      </c>
+      <c r="C187" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12609.1132</v>
+      </c>
+      <c r="G187" t="n">
+        <v>461864.9306242955</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13823.8166</v>
+      </c>
+      <c r="G188" t="n">
+        <v>448041.1140242955</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C189" t="n">
+        <v>135</v>
+      </c>
+      <c r="D189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>135</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3525.8631</v>
+      </c>
+      <c r="G189" t="n">
+        <v>444515.2509242955</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>135</v>
+      </c>
+      <c r="C190" t="n">
+        <v>134</v>
+      </c>
+      <c r="D190" t="n">
+        <v>135</v>
+      </c>
+      <c r="E190" t="n">
+        <v>134</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8426.9476</v>
+      </c>
+      <c r="G190" t="n">
+        <v>436088.3033242955</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>134</v>
+      </c>
+      <c r="C191" t="n">
+        <v>134</v>
+      </c>
+      <c r="D191" t="n">
+        <v>134</v>
+      </c>
+      <c r="E191" t="n">
+        <v>134</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3305.39552238806</v>
+      </c>
+      <c r="G191" t="n">
+        <v>436088.3033242955</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>134</v>
+      </c>
+      <c r="C192" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>134</v>
+      </c>
+      <c r="E192" t="n">
+        <v>132</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3136.2139</v>
+      </c>
+      <c r="G192" t="n">
+        <v>432952.0894242955</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>134</v>
+      </c>
+      <c r="D193" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>133</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2471.2747</v>
+      </c>
+      <c r="G193" t="n">
+        <v>435423.3641242955</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>134</v>
+      </c>
+      <c r="C194" t="n">
+        <v>134</v>
+      </c>
+      <c r="D194" t="n">
+        <v>134</v>
+      </c>
+      <c r="E194" t="n">
+        <v>134</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2629</v>
+      </c>
+      <c r="G194" t="n">
+        <v>435423.3641242955</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>134</v>
+      </c>
+      <c r="C195" t="n">
+        <v>133</v>
+      </c>
+      <c r="D195" t="n">
+        <v>134</v>
+      </c>
+      <c r="E195" t="n">
+        <v>133</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5993.1725</v>
+      </c>
+      <c r="G195" t="n">
+        <v>429430.1916242955</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>17660.493</v>
+      </c>
+      <c r="G196" t="n">
+        <v>447090.6846242956</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>171.427</v>
+      </c>
+      <c r="G197" t="n">
+        <v>447262.1116242956</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3006.9139</v>
+      </c>
+      <c r="G198" t="n">
+        <v>444255.1977242956</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8855.4354</v>
+      </c>
+      <c r="G199" t="n">
+        <v>453110.6331242956</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>135</v>
+      </c>
+      <c r="D200" t="n">
+        <v>135</v>
+      </c>
+      <c r="E200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11035.1996</v>
+      </c>
+      <c r="G200" t="n">
+        <v>464145.8327242956</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>837715.8582628962</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>833579.4254628962</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>868147.5973628962</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>841927.4891628962</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>821030.4153628962</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>777435.2397628962</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>810693.7937048542</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>631628.620704854</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>614664.208904854</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>606582.4550180871</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>612291.211418087</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>602833.454818087</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>565127.8011360263</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>550551.7576360261</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,2768 +4807,2615 @@
         <v>451441.3537360262</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>127</v>
+      </c>
+      <c r="C135" t="n">
         <v>126.1</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="D135" t="n">
+        <v>127</v>
+      </c>
+      <c r="E135" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1164.5388</v>
+      </c>
+      <c r="G135" t="n">
+        <v>451441.3537360262</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>125</v>
+      </c>
+      <c r="C136" t="n">
+        <v>126</v>
+      </c>
+      <c r="D136" t="n">
+        <v>126</v>
+      </c>
+      <c r="E136" t="n">
+        <v>125</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1708.0863</v>
+      </c>
+      <c r="G136" t="n">
+        <v>449733.2674360261</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>126</v>
+      </c>
+      <c r="D137" t="n">
+        <v>126</v>
+      </c>
+      <c r="E137" t="n">
+        <v>125</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1189</v>
+      </c>
+      <c r="G137" t="n">
+        <v>449733.2674360261</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>125</v>
+      </c>
+      <c r="D138" t="n">
+        <v>125</v>
+      </c>
+      <c r="E138" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4124.3437</v>
+      </c>
+      <c r="G138" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>125</v>
+      </c>
+      <c r="C139" t="n">
+        <v>125</v>
+      </c>
+      <c r="D139" t="n">
+        <v>125</v>
+      </c>
+      <c r="E139" t="n">
+        <v>125</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9103.3109</v>
+      </c>
+      <c r="G139" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>125</v>
+      </c>
+      <c r="C140" t="n">
+        <v>125</v>
+      </c>
+      <c r="D140" t="n">
+        <v>125</v>
+      </c>
+      <c r="E140" t="n">
+        <v>125</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6866.9229</v>
+      </c>
+      <c r="G140" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>125</v>
+      </c>
+      <c r="J140" t="n">
+        <v>125</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>125</v>
+      </c>
+      <c r="C141" t="n">
+        <v>125</v>
+      </c>
+      <c r="D141" t="n">
+        <v>125</v>
+      </c>
+      <c r="E141" t="n">
+        <v>125</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12556.6195</v>
+      </c>
+      <c r="G141" t="n">
+        <v>445608.9237360261</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>125</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>125</v>
+      </c>
+      <c r="C142" t="n">
+        <v>126</v>
+      </c>
+      <c r="D142" t="n">
+        <v>126</v>
+      </c>
+      <c r="E142" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15462.3186</v>
+      </c>
+      <c r="G142" t="n">
+        <v>461071.2423360261</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>125</v>
+      </c>
+      <c r="J142" t="n">
+        <v>125</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>127</v>
-      </c>
-      <c r="C135" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>127</v>
-      </c>
-      <c r="E135" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1164.5388</v>
-      </c>
-      <c r="G135" t="n">
-        <v>451441.3537360262</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>123</v>
+      </c>
+      <c r="C143" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>121</v>
+      </c>
+      <c r="F143" t="n">
+        <v>22705.2206</v>
+      </c>
+      <c r="G143" t="n">
+        <v>438366.0217360261</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>126</v>
+      </c>
+      <c r="J143" t="n">
+        <v>125</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>125</v>
-      </c>
-      <c r="C136" t="n">
-        <v>126</v>
-      </c>
-      <c r="D136" t="n">
-        <v>126</v>
-      </c>
-      <c r="E136" t="n">
-        <v>125</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1708.0863</v>
-      </c>
-      <c r="G136" t="n">
-        <v>449733.2674360261</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>124</v>
+      </c>
+      <c r="D144" t="n">
+        <v>124</v>
+      </c>
+      <c r="E144" t="n">
+        <v>123</v>
+      </c>
+      <c r="F144" t="n">
+        <v>550</v>
+      </c>
+      <c r="G144" t="n">
+        <v>437816.0217360261</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="J144" t="n">
+        <v>125</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>125</v>
-      </c>
-      <c r="C137" t="n">
-        <v>126</v>
-      </c>
-      <c r="D137" t="n">
-        <v>126</v>
-      </c>
-      <c r="E137" t="n">
-        <v>125</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1189</v>
-      </c>
-      <c r="G137" t="n">
-        <v>449733.2674360261</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>437820.0217360261</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>124</v>
+      </c>
+      <c r="J145" t="n">
+        <v>125</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>125</v>
-      </c>
-      <c r="D138" t="n">
-        <v>125</v>
-      </c>
-      <c r="E138" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4124.3437</v>
-      </c>
-      <c r="G138" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>126</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>123</v>
+      </c>
+      <c r="C146" t="n">
+        <v>123</v>
+      </c>
+      <c r="D146" t="n">
+        <v>123</v>
+      </c>
+      <c r="E146" t="n">
+        <v>123</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2226.6263</v>
+      </c>
+      <c r="G146" t="n">
+        <v>435593.3954360261</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>125</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>125</v>
-      </c>
-      <c r="C139" t="n">
-        <v>125</v>
-      </c>
-      <c r="D139" t="n">
-        <v>125</v>
-      </c>
-      <c r="E139" t="n">
-        <v>125</v>
-      </c>
-      <c r="F139" t="n">
-        <v>9103.3109</v>
-      </c>
-      <c r="G139" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>125</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2758.0915</v>
+      </c>
+      <c r="G147" t="n">
+        <v>438351.4869360261</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="n">
+        <v>123</v>
+      </c>
+      <c r="J147" t="n">
+        <v>125</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>125</v>
-      </c>
-      <c r="C140" t="n">
-        <v>125</v>
-      </c>
-      <c r="D140" t="n">
-        <v>125</v>
-      </c>
-      <c r="E140" t="n">
-        <v>125</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6866.9229</v>
-      </c>
-      <c r="G140" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>125</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>123</v>
+      </c>
+      <c r="C148" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20353.0797</v>
+      </c>
+      <c r="G148" t="n">
+        <v>458704.5666360261</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>125</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>125</v>
-      </c>
-      <c r="C141" t="n">
-        <v>125</v>
-      </c>
-      <c r="D141" t="n">
-        <v>125</v>
-      </c>
-      <c r="E141" t="n">
-        <v>125</v>
-      </c>
-      <c r="F141" t="n">
-        <v>12556.6195</v>
-      </c>
-      <c r="G141" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>125</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>124</v>
+      </c>
+      <c r="D149" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>24317.2775</v>
+      </c>
+      <c r="G149" t="n">
+        <v>434387.2891360261</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="J149" t="n">
+        <v>125</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>125</v>
-      </c>
-      <c r="C142" t="n">
-        <v>126</v>
-      </c>
-      <c r="D142" t="n">
-        <v>126</v>
-      </c>
-      <c r="E142" t="n">
-        <v>121.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>15462.3186</v>
-      </c>
-      <c r="G142" t="n">
-        <v>461071.2423360261</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>125</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>124</v>
+      </c>
+      <c r="E150" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5992.0515</v>
+      </c>
+      <c r="G150" t="n">
+        <v>428395.2376360261</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>124</v>
+      </c>
+      <c r="J150" t="n">
+        <v>125</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>123</v>
-      </c>
-      <c r="C143" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>121</v>
-      </c>
-      <c r="F143" t="n">
-        <v>22705.2206</v>
-      </c>
-      <c r="G143" t="n">
-        <v>438366.0217360261</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>126</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="F151" t="n">
+        <v>762.2328</v>
+      </c>
+      <c r="G151" t="n">
+        <v>428395.2376360261</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>125</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="C144" t="n">
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C152" t="n">
         <v>124</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D152" t="n">
         <v>124</v>
       </c>
-      <c r="E144" t="n">
-        <v>123</v>
-      </c>
-      <c r="F144" t="n">
-        <v>550</v>
-      </c>
-      <c r="G144" t="n">
-        <v>437816.0217360261</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="E152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2934.3926</v>
+      </c>
+      <c r="G152" t="n">
+        <v>431329.6302360261</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="J152" t="n">
+        <v>125</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4</v>
-      </c>
-      <c r="G145" t="n">
-        <v>437820.0217360261</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>124</v>
       </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="C153" t="n">
+        <v>124</v>
+      </c>
+      <c r="D153" t="n">
+        <v>124</v>
+      </c>
+      <c r="E153" t="n">
+        <v>124</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3821.0851</v>
+      </c>
+      <c r="G153" t="n">
+        <v>431329.6302360261</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>124</v>
+      </c>
+      <c r="J153" t="n">
+        <v>125</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>123</v>
-      </c>
-      <c r="C146" t="n">
-        <v>123</v>
-      </c>
-      <c r="D146" t="n">
-        <v>123</v>
-      </c>
-      <c r="E146" t="n">
-        <v>123</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2226.6263</v>
-      </c>
-      <c r="G146" t="n">
-        <v>435593.3954360261</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>124</v>
+      </c>
+      <c r="C154" t="n">
+        <v>124</v>
+      </c>
+      <c r="D154" t="n">
+        <v>124</v>
+      </c>
+      <c r="E154" t="n">
+        <v>124</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5295.6057</v>
+      </c>
+      <c r="G154" t="n">
+        <v>431329.6302360261</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="n">
+        <v>124</v>
+      </c>
+      <c r="J154" t="n">
+        <v>125</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="C147" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2758.0915</v>
-      </c>
-      <c r="G147" t="n">
-        <v>438351.4869360261</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>123</v>
       </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="C155" t="n">
+        <v>123</v>
+      </c>
+      <c r="D155" t="n">
+        <v>123</v>
+      </c>
+      <c r="E155" t="n">
+        <v>123</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31.4151</v>
+      </c>
+      <c r="G155" t="n">
+        <v>431298.2151360261</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>124</v>
+      </c>
+      <c r="J155" t="n">
+        <v>125</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>123</v>
       </c>
-      <c r="C148" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>20353.0797</v>
-      </c>
-      <c r="G148" t="n">
-        <v>458704.5666360261</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="C156" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>123</v>
+      </c>
+      <c r="E156" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>33771.9406</v>
+      </c>
+      <c r="G156" t="n">
+        <v>397526.2745360261</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>123</v>
+      </c>
+      <c r="J156" t="n">
+        <v>125</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="C149" t="n">
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>124</v>
       </c>
-      <c r="D149" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>24317.2775</v>
-      </c>
-      <c r="G149" t="n">
-        <v>434387.2891360261</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="C157" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>124</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2059</v>
+      </c>
+      <c r="G157" t="n">
+        <v>399585.2745360261</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>125</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>124</v>
-      </c>
-      <c r="E150" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5992.0515</v>
-      </c>
-      <c r="G150" t="n">
-        <v>428395.2376360261</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>124</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>125</v>
+      </c>
+      <c r="C158" t="n">
+        <v>125</v>
+      </c>
+      <c r="D158" t="n">
+        <v>125</v>
+      </c>
+      <c r="E158" t="n">
+        <v>125</v>
+      </c>
+      <c r="F158" t="n">
+        <v>825.7637</v>
+      </c>
+      <c r="G158" t="n">
+        <v>398759.510836026</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>125</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="C151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="D151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="F151" t="n">
-        <v>762.2328</v>
-      </c>
-      <c r="G151" t="n">
-        <v>428395.2376360261</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>125</v>
+      </c>
+      <c r="C159" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>125</v>
+      </c>
+      <c r="E159" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17045.9589</v>
+      </c>
+      <c r="G159" t="n">
+        <v>381713.551936026</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>125</v>
+      </c>
+      <c r="J159" t="n">
+        <v>125</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="C152" t="n">
-        <v>124</v>
-      </c>
-      <c r="D152" t="n">
-        <v>124</v>
-      </c>
-      <c r="E152" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2934.3926</v>
-      </c>
-      <c r="G152" t="n">
-        <v>431329.6302360261</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>125</v>
+      </c>
+      <c r="C160" t="n">
+        <v>125</v>
+      </c>
+      <c r="D160" t="n">
+        <v>125</v>
+      </c>
+      <c r="E160" t="n">
+        <v>125</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10192.3436</v>
+      </c>
+      <c r="G160" t="n">
+        <v>391905.895536026</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="J160" t="n">
+        <v>125</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>124</v>
-      </c>
-      <c r="C153" t="n">
-        <v>124</v>
-      </c>
-      <c r="D153" t="n">
-        <v>124</v>
-      </c>
-      <c r="E153" t="n">
-        <v>124</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3821.0851</v>
-      </c>
-      <c r="G153" t="n">
-        <v>431329.6302360261</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>124</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7.1096</v>
+      </c>
+      <c r="G161" t="n">
+        <v>391913.0051360261</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>125</v>
+      </c>
+      <c r="J161" t="n">
+        <v>125</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>124</v>
-      </c>
-      <c r="C154" t="n">
-        <v>124</v>
-      </c>
-      <c r="D154" t="n">
-        <v>124</v>
-      </c>
-      <c r="E154" t="n">
-        <v>124</v>
-      </c>
-      <c r="F154" t="n">
-        <v>5295.6057</v>
-      </c>
-      <c r="G154" t="n">
-        <v>431329.6302360261</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>124</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>121</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16390.7324</v>
+      </c>
+      <c r="G162" t="n">
+        <v>391913.0051360261</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="J162" t="n">
+        <v>125</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>123</v>
-      </c>
-      <c r="C155" t="n">
-        <v>123</v>
-      </c>
-      <c r="D155" t="n">
-        <v>123</v>
-      </c>
-      <c r="E155" t="n">
-        <v>123</v>
-      </c>
-      <c r="F155" t="n">
-        <v>31.4151</v>
-      </c>
-      <c r="G155" t="n">
-        <v>431298.2151360261</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>124</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>125</v>
+      </c>
+      <c r="C163" t="n">
+        <v>125</v>
+      </c>
+      <c r="D163" t="n">
+        <v>125</v>
+      </c>
+      <c r="E163" t="n">
+        <v>125</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7949.6468</v>
+      </c>
+      <c r="G163" t="n">
+        <v>383963.3583360261</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="J163" t="n">
+        <v>125</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>123</v>
-      </c>
-      <c r="C156" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>123</v>
-      </c>
-      <c r="E156" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>33771.9406</v>
-      </c>
-      <c r="G156" t="n">
-        <v>397526.2745360261</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>123</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>754.4882</v>
+      </c>
+      <c r="G164" t="n">
+        <v>383208.8701360261</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>125</v>
+      </c>
+      <c r="J164" t="n">
+        <v>125</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>124</v>
-      </c>
-      <c r="C157" t="n">
-        <v>125.3</v>
-      </c>
-      <c r="D157" t="n">
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>125.4</v>
       </c>
-      <c r="E157" t="n">
-        <v>124</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2059</v>
-      </c>
-      <c r="G157" t="n">
-        <v>399585.2745360261</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="C165" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>384997.8701360261</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="J165" t="n">
+        <v>125</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>125</v>
-      </c>
-      <c r="C158" t="n">
-        <v>125</v>
-      </c>
-      <c r="D158" t="n">
-        <v>125</v>
-      </c>
-      <c r="E158" t="n">
-        <v>125</v>
-      </c>
-      <c r="F158" t="n">
-        <v>825.7637</v>
-      </c>
-      <c r="G158" t="n">
-        <v>398759.510836026</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>125.3</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>126</v>
+      </c>
+      <c r="C166" t="n">
+        <v>126</v>
+      </c>
+      <c r="D166" t="n">
+        <v>126</v>
+      </c>
+      <c r="E166" t="n">
+        <v>126</v>
+      </c>
+      <c r="F166" t="n">
+        <v>335</v>
+      </c>
+      <c r="G166" t="n">
+        <v>384662.8701360261</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="J166" t="n">
+        <v>125</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>125</v>
-      </c>
-      <c r="C159" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>125</v>
-      </c>
-      <c r="E159" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>17045.9589</v>
-      </c>
-      <c r="G159" t="n">
-        <v>381713.551936026</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>125</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>126</v>
+      </c>
+      <c r="C167" t="n">
+        <v>126</v>
+      </c>
+      <c r="D167" t="n">
+        <v>126</v>
+      </c>
+      <c r="E167" t="n">
+        <v>126</v>
+      </c>
+      <c r="F167" t="n">
+        <v>335</v>
+      </c>
+      <c r="G167" t="n">
+        <v>384662.8701360261</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>126</v>
+      </c>
+      <c r="J167" t="n">
+        <v>125</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>125</v>
-      </c>
-      <c r="C160" t="n">
-        <v>125</v>
-      </c>
-      <c r="D160" t="n">
-        <v>125</v>
-      </c>
-      <c r="E160" t="n">
-        <v>125</v>
-      </c>
-      <c r="F160" t="n">
-        <v>10192.3436</v>
-      </c>
-      <c r="G160" t="n">
-        <v>391905.895536026</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1204.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>383457.8702360261</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>126</v>
+      </c>
+      <c r="J168" t="n">
+        <v>125</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>7.1096</v>
-      </c>
-      <c r="G161" t="n">
-        <v>391913.0051360261</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>125</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>126</v>
+      </c>
+      <c r="C169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>125</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6996.6867</v>
+      </c>
+      <c r="G169" t="n">
+        <v>390454.5569360261</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="J169" t="n">
+        <v>125</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>121</v>
-      </c>
-      <c r="F162" t="n">
-        <v>16390.7324</v>
-      </c>
-      <c r="G162" t="n">
-        <v>391913.0051360261</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2309.4784</v>
+      </c>
+      <c r="G170" t="n">
+        <v>390454.5569360261</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="J170" t="n">
+        <v>125</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>125</v>
-      </c>
-      <c r="C163" t="n">
-        <v>125</v>
-      </c>
-      <c r="D163" t="n">
-        <v>125</v>
-      </c>
-      <c r="E163" t="n">
-        <v>125</v>
-      </c>
-      <c r="F163" t="n">
-        <v>7949.6468</v>
-      </c>
-      <c r="G163" t="n">
-        <v>383963.3583360261</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7665.988751357641</v>
+      </c>
+      <c r="G171" t="n">
+        <v>398120.5456873837</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>125</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="C164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="D164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="E164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F164" t="n">
-        <v>754.4882</v>
-      </c>
-      <c r="G164" t="n">
-        <v>383208.8701360261</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>125</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>127</v>
+      </c>
+      <c r="C172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>127</v>
+      </c>
+      <c r="F172" t="n">
+        <v>748.0741</v>
+      </c>
+      <c r="G172" t="n">
+        <v>398120.5456873837</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>125</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1789</v>
-      </c>
-      <c r="G165" t="n">
-        <v>384997.8701360261</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>397720.5456873837</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>125</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>126</v>
-      </c>
-      <c r="C166" t="n">
-        <v>126</v>
-      </c>
-      <c r="D166" t="n">
-        <v>126</v>
-      </c>
-      <c r="E166" t="n">
-        <v>126</v>
-      </c>
-      <c r="F166" t="n">
-        <v>335</v>
-      </c>
-      <c r="G166" t="n">
-        <v>384662.8701360261</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3673.631</v>
+      </c>
+      <c r="G174" t="n">
+        <v>401394.1766873837</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>125</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>126</v>
-      </c>
-      <c r="C167" t="n">
-        <v>126</v>
-      </c>
-      <c r="D167" t="n">
-        <v>126</v>
-      </c>
-      <c r="E167" t="n">
-        <v>126</v>
-      </c>
-      <c r="F167" t="n">
-        <v>335</v>
-      </c>
-      <c r="G167" t="n">
-        <v>384662.8701360261</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>126</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10498.9587</v>
+      </c>
+      <c r="G175" t="n">
+        <v>401394.1766873837</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>125</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1204.9999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>383457.8702360261</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>126</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1536.4608</v>
+      </c>
+      <c r="G176" t="n">
+        <v>399857.7158873837</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>125</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>126</v>
-      </c>
-      <c r="C169" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>125</v>
-      </c>
-      <c r="F169" t="n">
-        <v>6996.6867</v>
-      </c>
-      <c r="G169" t="n">
-        <v>390454.5569360261</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>410.123</v>
+      </c>
+      <c r="G177" t="n">
+        <v>399857.7158873837</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>125</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2309.4784</v>
-      </c>
-      <c r="G170" t="n">
-        <v>390454.5569360261</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>127</v>
+      </c>
+      <c r="C178" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>127</v>
+      </c>
+      <c r="E178" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>353.7645</v>
+      </c>
+      <c r="G178" t="n">
+        <v>399503.9513873837</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>125</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E171" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>7665.988751357641</v>
-      </c>
-      <c r="G171" t="n">
-        <v>398120.5456873837</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>128</v>
+      </c>
+      <c r="C179" t="n">
+        <v>128</v>
+      </c>
+      <c r="D179" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>128</v>
+      </c>
+      <c r="F179" t="n">
+        <v>514</v>
+      </c>
+      <c r="G179" t="n">
+        <v>400017.9513873837</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>125</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>127</v>
-      </c>
-      <c r="C172" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D172" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E172" t="n">
-        <v>127</v>
-      </c>
-      <c r="F172" t="n">
-        <v>748.0741</v>
-      </c>
-      <c r="G172" t="n">
-        <v>398120.5456873837</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>128</v>
+      </c>
+      <c r="C180" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>128</v>
+      </c>
+      <c r="F180" t="n">
+        <v>635.4807</v>
+      </c>
+      <c r="G180" t="n">
+        <v>400653.4320873838</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>125</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>400</v>
-      </c>
-      <c r="G173" t="n">
-        <v>397720.5456873837</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2467.4124</v>
+      </c>
+      <c r="G181" t="n">
+        <v>400653.4320873838</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>125</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3673.631</v>
-      </c>
-      <c r="G174" t="n">
-        <v>401394.1766873837</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5961.7885</v>
+      </c>
+      <c r="G182" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>125</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10498.9587</v>
-      </c>
-      <c r="G175" t="n">
-        <v>401394.1766873837</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>56</v>
+      </c>
+      <c r="G183" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>125</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1536.4608</v>
-      </c>
-      <c r="G176" t="n">
-        <v>399857.7158873837</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11487.9045</v>
+      </c>
+      <c r="G184" t="n">
+        <v>406615.2205873838</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>125</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>410.123</v>
-      </c>
-      <c r="G177" t="n">
-        <v>399857.7158873837</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>129</v>
+      </c>
+      <c r="C185" t="n">
+        <v>132</v>
+      </c>
+      <c r="D185" t="n">
+        <v>132</v>
+      </c>
+      <c r="E185" t="n">
+        <v>129</v>
+      </c>
+      <c r="F185" t="n">
+        <v>18109.426</v>
+      </c>
+      <c r="G185" t="n">
+        <v>424724.6465873838</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>125</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>127</v>
-      </c>
-      <c r="C178" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>127</v>
-      </c>
-      <c r="E178" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>353.7645</v>
-      </c>
-      <c r="G178" t="n">
-        <v>399503.9513873837</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>133</v>
+      </c>
+      <c r="C186" t="n">
+        <v>136</v>
+      </c>
+      <c r="D186" t="n">
+        <v>136</v>
+      </c>
+      <c r="E186" t="n">
+        <v>133</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24531.17083691177</v>
+      </c>
+      <c r="G186" t="n">
+        <v>449255.8174242955</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>125</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>128</v>
-      </c>
-      <c r="C179" t="n">
-        <v>128</v>
-      </c>
-      <c r="D179" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E179" t="n">
-        <v>128</v>
-      </c>
-      <c r="F179" t="n">
-        <v>514</v>
-      </c>
-      <c r="G179" t="n">
-        <v>400017.9513873837</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>135</v>
+      </c>
+      <c r="C187" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12609.1132</v>
+      </c>
+      <c r="G187" t="n">
+        <v>461864.9306242955</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>125</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>128</v>
-      </c>
-      <c r="C180" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>128</v>
-      </c>
-      <c r="F180" t="n">
-        <v>635.4807</v>
-      </c>
-      <c r="G180" t="n">
-        <v>400653.4320873838</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>128</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13823.8166</v>
+      </c>
+      <c r="G188" t="n">
+        <v>448041.1140242955</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>125</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2467.4124</v>
-      </c>
-      <c r="G181" t="n">
-        <v>400653.4320873838</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C189" t="n">
+        <v>135</v>
+      </c>
+      <c r="D189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>135</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3525.8631</v>
+      </c>
+      <c r="G189" t="n">
+        <v>444515.2509242955</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>125</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5961.7885</v>
-      </c>
-      <c r="G182" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>135</v>
+      </c>
+      <c r="C190" t="n">
+        <v>134</v>
+      </c>
+      <c r="D190" t="n">
+        <v>135</v>
+      </c>
+      <c r="E190" t="n">
+        <v>134</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8426.9476</v>
+      </c>
+      <c r="G190" t="n">
+        <v>436088.3033242955</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>125</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>56</v>
-      </c>
-      <c r="G183" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>134</v>
+      </c>
+      <c r="C191" t="n">
+        <v>134</v>
+      </c>
+      <c r="D191" t="n">
+        <v>134</v>
+      </c>
+      <c r="E191" t="n">
+        <v>134</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3305.39552238806</v>
+      </c>
+      <c r="G191" t="n">
+        <v>436088.3033242955</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>125</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>11487.9045</v>
-      </c>
-      <c r="G184" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>134</v>
+      </c>
+      <c r="C192" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>134</v>
+      </c>
+      <c r="E192" t="n">
+        <v>132</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3136.2139</v>
+      </c>
+      <c r="G192" t="n">
+        <v>432952.0894242955</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>125</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>129</v>
-      </c>
-      <c r="C185" t="n">
-        <v>132</v>
-      </c>
-      <c r="D185" t="n">
-        <v>132</v>
-      </c>
-      <c r="E185" t="n">
-        <v>129</v>
-      </c>
-      <c r="F185" t="n">
-        <v>18109.426</v>
-      </c>
-      <c r="G185" t="n">
-        <v>424724.6465873838</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>134</v>
+      </c>
+      <c r="D193" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>133</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2471.2747</v>
+      </c>
+      <c r="G193" t="n">
+        <v>435423.3641242955</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>125</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>133</v>
-      </c>
-      <c r="C186" t="n">
-        <v>136</v>
-      </c>
-      <c r="D186" t="n">
-        <v>136</v>
-      </c>
-      <c r="E186" t="n">
-        <v>133</v>
-      </c>
-      <c r="F186" t="n">
-        <v>24531.17083691177</v>
-      </c>
-      <c r="G186" t="n">
-        <v>449255.8174242955</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>132</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>134</v>
+      </c>
+      <c r="C194" t="n">
+        <v>134</v>
+      </c>
+      <c r="D194" t="n">
+        <v>134</v>
+      </c>
+      <c r="E194" t="n">
+        <v>134</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2629</v>
+      </c>
+      <c r="G194" t="n">
+        <v>435423.3641242955</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>125</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>135</v>
-      </c>
-      <c r="C187" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>12609.1132</v>
-      </c>
-      <c r="G187" t="n">
-        <v>461864.9306242955</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>134</v>
+      </c>
+      <c r="C195" t="n">
+        <v>133</v>
+      </c>
+      <c r="D195" t="n">
+        <v>134</v>
+      </c>
+      <c r="E195" t="n">
+        <v>133</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5993.1725</v>
+      </c>
+      <c r="G195" t="n">
+        <v>429430.1916242955</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>125</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="D188" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>13823.8166</v>
-      </c>
-      <c r="G188" t="n">
-        <v>448041.1140242955</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>17660.493</v>
+      </c>
+      <c r="G196" t="n">
+        <v>447090.6846242956</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>125</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C189" t="n">
-        <v>135</v>
-      </c>
-      <c r="D189" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E189" t="n">
-        <v>135</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3525.8631</v>
-      </c>
-      <c r="G189" t="n">
-        <v>444515.2509242955</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>171.427</v>
+      </c>
+      <c r="G197" t="n">
+        <v>447262.1116242956</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>125</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>135</v>
-      </c>
-      <c r="C190" t="n">
-        <v>134</v>
-      </c>
-      <c r="D190" t="n">
-        <v>135</v>
-      </c>
-      <c r="E190" t="n">
-        <v>134</v>
-      </c>
-      <c r="F190" t="n">
-        <v>8426.9476</v>
-      </c>
-      <c r="G190" t="n">
-        <v>436088.3033242955</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3006.9139</v>
+      </c>
+      <c r="G198" t="n">
+        <v>444255.1977242956</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>125</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>134</v>
-      </c>
-      <c r="C191" t="n">
-        <v>134</v>
-      </c>
-      <c r="D191" t="n">
-        <v>134</v>
-      </c>
-      <c r="E191" t="n">
-        <v>134</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3305.39552238806</v>
-      </c>
-      <c r="G191" t="n">
-        <v>436088.3033242955</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8855.4354</v>
+      </c>
+      <c r="G199" t="n">
+        <v>453110.6331242956</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>125</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>134</v>
-      </c>
-      <c r="C192" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>134</v>
-      </c>
-      <c r="E192" t="n">
-        <v>132</v>
-      </c>
-      <c r="F192" t="n">
-        <v>3136.2139</v>
-      </c>
-      <c r="G192" t="n">
-        <v>432952.0894242955</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>135</v>
+      </c>
+      <c r="D200" t="n">
+        <v>135</v>
+      </c>
+      <c r="E200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11035.1996</v>
+      </c>
+      <c r="G200" t="n">
+        <v>464145.8327242956</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>125</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="C193" t="n">
-        <v>134</v>
-      </c>
-      <c r="D193" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="E193" t="n">
-        <v>133</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2471.2747</v>
-      </c>
-      <c r="G193" t="n">
-        <v>435423.3641242955</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>134</v>
-      </c>
-      <c r="C194" t="n">
-        <v>134</v>
-      </c>
-      <c r="D194" t="n">
-        <v>134</v>
-      </c>
-      <c r="E194" t="n">
-        <v>134</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2629</v>
-      </c>
-      <c r="G194" t="n">
-        <v>435423.3641242955</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>134</v>
-      </c>
-      <c r="C195" t="n">
-        <v>133</v>
-      </c>
-      <c r="D195" t="n">
-        <v>134</v>
-      </c>
-      <c r="E195" t="n">
-        <v>133</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5993.1725</v>
-      </c>
-      <c r="G195" t="n">
-        <v>429430.1916242955</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="F196" t="n">
-        <v>17660.493</v>
-      </c>
-      <c r="G196" t="n">
-        <v>447090.6846242956</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="D197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>171.427</v>
-      </c>
-      <c r="G197" t="n">
-        <v>447262.1116242956</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D198" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="E198" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3006.9139</v>
-      </c>
-      <c r="G198" t="n">
-        <v>444255.1977242956</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="C199" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="F199" t="n">
-        <v>8855.4354</v>
-      </c>
-      <c r="G199" t="n">
-        <v>453110.6331242956</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="C200" t="n">
-        <v>135</v>
-      </c>
-      <c r="D200" t="n">
-        <v>135</v>
-      </c>
-      <c r="E200" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="F200" t="n">
-        <v>11035.1996</v>
-      </c>
-      <c r="G200" t="n">
-        <v>464145.8327242956</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>837715.8582628962</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>833579.4254628962</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>868147.5973628962</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>841927.4891628962</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>821030.4153628962</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>777435.2397628962</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>810693.7937048542</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>609386.1082048541</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>631628.620704854</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>614664.208904854</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>590820.930604854</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>594533.0542048541</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>570685.206904854</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>639778.879604854</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>593224.060604854</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>604221.4552180871</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>606582.4550180871</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>606582.4550180871</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>612295.211418087</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>612291.211418087</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>602833.454818087</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>565127.8011360263</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>568621.5122360262</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>582634.5872360262</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>582386.5140360262</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>571285.7720360262</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>592628.1477360262</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>588980.6229360262</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>591144.0117360262</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>578569.5170360261</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>578573.4477360261</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>552704.1954360261</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>550497.2759360261</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>550551.7576360261</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>550551.7576360261</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -5005,14 +5005,10 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>125</v>
-      </c>
-      <c r="J140" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5042,17 +5038,15 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>125</v>
+      </c>
       <c r="J141" t="n">
         <v>125</v>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>461071.2423360261</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>125</v>
@@ -5122,7 +5116,7 @@
         <v>438366.0217360261</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>126</v>
@@ -5163,7 +5157,7 @@
         <v>437816.0217360261</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>124.7</v>
@@ -5204,7 +5198,7 @@
         <v>437820.0217360261</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>124</v>
@@ -5245,9 +5239,11 @@
         <v>435593.3954360261</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>125.9</v>
+      </c>
       <c r="J146" t="n">
         <v>125</v>
       </c>
@@ -5284,7 +5280,7 @@
         <v>438351.4869360261</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>123</v>
@@ -5325,7 +5321,7 @@
         <v>458704.5666360261</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>124.8</v>
@@ -5366,7 +5362,7 @@
         <v>434387.2891360261</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>125.6</v>
@@ -5407,7 +5403,7 @@
         <v>428395.2376360261</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>124</v>
@@ -5448,7 +5444,7 @@
         <v>428395.2376360261</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>123.9</v>
@@ -5489,7 +5485,7 @@
         <v>431329.6302360261</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>123.9</v>
@@ -5530,7 +5526,7 @@
         <v>431329.6302360261</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>124</v>
@@ -5571,7 +5567,7 @@
         <v>431329.6302360261</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>124</v>
@@ -5612,7 +5608,7 @@
         <v>431298.2151360261</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>124</v>
@@ -5653,7 +5649,7 @@
         <v>397526.2745360261</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>123</v>
@@ -5694,7 +5690,7 @@
         <v>399585.2745360261</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>120.8</v>
@@ -5735,7 +5731,7 @@
         <v>398759.510836026</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>125.3</v>
@@ -5776,7 +5772,7 @@
         <v>381713.551936026</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>125</v>
@@ -5817,7 +5813,7 @@
         <v>391905.895536026</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>124.9</v>
@@ -5858,7 +5854,7 @@
         <v>391913.0051360261</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>125</v>
@@ -5899,7 +5895,7 @@
         <v>391913.0051360261</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>125.4</v>
@@ -5940,7 +5936,7 @@
         <v>383963.3583360261</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>125.4</v>
@@ -5981,7 +5977,7 @@
         <v>383208.8701360261</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>125</v>
@@ -6022,7 +6018,7 @@
         <v>384997.8701360261</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>124.9</v>
@@ -6063,7 +6059,7 @@
         <v>384662.8701360261</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>127.8</v>
@@ -6104,7 +6100,7 @@
         <v>384662.8701360261</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>126</v>
@@ -6145,7 +6141,7 @@
         <v>383457.8702360261</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>126</v>
@@ -6186,7 +6182,7 @@
         <v>390454.5569360261</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>125.6</v>
@@ -6227,7 +6223,7 @@
         <v>390454.5569360261</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>127.7</v>
@@ -6268,9 +6264,11 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>127.7</v>
+      </c>
       <c r="J171" t="n">
         <v>125</v>
       </c>
@@ -6307,9 +6305,11 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>128.9</v>
+      </c>
       <c r="J172" t="n">
         <v>125</v>
       </c>
@@ -6346,9 +6346,11 @@
         <v>397720.5456873837</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>128.9</v>
+      </c>
       <c r="J173" t="n">
         <v>125</v>
       </c>
@@ -6697,9 +6699,11 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>128.7</v>
+      </c>
       <c r="J182" t="n">
         <v>125</v>
       </c>
@@ -7416,6 +7420,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>827396.7106048542</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>783590.1554048541</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>668236.9210048541</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>655182.9491048541</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>659339.3836048541</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>649142.0101048541</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>649372.0101048541</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>641376.8466048541</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>636608.6082048541</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>609386.1082048541</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>631628.620704854</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>614664.208904854</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>590820.930604854</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>594533.0542048541</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>570685.206904854</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>639778.879604854</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>593224.060604854</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>604221.4552180871</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>606582.4550180871</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>606582.4550180871</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>612295.211418087</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>612291.211418087</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>602833.454818087</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>565127.8011360263</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>568621.5122360262</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>582634.5872360262</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>582386.5140360262</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>571285.7720360262</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>592628.1477360262</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>588980.6229360262</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>591144.0117360262</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>578569.5170360261</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>578573.4477360261</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>552704.1954360261</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>550497.2759360261</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>550551.7576360261</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>550551.7576360261</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -5005,10 +5005,14 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>125</v>
+      </c>
+      <c r="J140" t="n">
+        <v>125</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5046,7 +5050,11 @@
       <c r="J141" t="n">
         <v>125</v>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5116,11 +5124,9 @@
         <v>438366.0217360261</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>125</v>
       </c>
@@ -6059,11 +6065,9 @@
         <v>384662.8701360261</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>127.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>125</v>
       </c>
@@ -6223,11 +6227,9 @@
         <v>390454.5569360261</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>125</v>
       </c>
@@ -6264,11 +6266,9 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>125</v>
       </c>
@@ -6305,11 +6305,9 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>125</v>
       </c>
@@ -6346,11 +6344,9 @@
         <v>397720.5456873837</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>125</v>
       </c>
@@ -6699,11 +6695,9 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>128.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>125</v>
       </c>
@@ -7420,6 +7414,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -451,7 +451,7 @@
         <v>689948.0121628961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>706316.6784628961</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>135.5</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>756752.2437628962</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>138</v>
+      </c>
+      <c r="J4" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +601,7 @@
         <v>837715.8582628962</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +634,7 @@
         <v>833579.4254628962</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +667,7 @@
         <v>868147.5973628962</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +700,7 @@
         <v>841927.4891628962</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +733,7 @@
         <v>821030.4153628962</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +766,7 @@
         <v>777435.2397628962</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +832,7 @@
         <v>795699.3284048542</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +865,7 @@
         <v>830050.0818048542</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,7 +1030,7 @@
         <v>655182.9491048541</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1063,7 @@
         <v>659339.3836048541</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1096,7 @@
         <v>649142.0101048541</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1129,7 @@
         <v>649372.0101048541</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1162,7 @@
         <v>641376.8466048541</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1195,7 @@
         <v>636608.6082048541</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -5005,14 +5023,10 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>125</v>
-      </c>
-      <c r="J140" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5042,19 +5056,11 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>125</v>
-      </c>
-      <c r="J141" t="n">
-        <v>125</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5088,9 +5094,7 @@
       <c r="I142" t="n">
         <v>125</v>
       </c>
-      <c r="J142" t="n">
-        <v>125</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5124,12 +5128,12 @@
         <v>438366.0217360261</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>126</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,9 +5172,7 @@
       <c r="I144" t="n">
         <v>124.7</v>
       </c>
-      <c r="J144" t="n">
-        <v>125</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,9 +5211,7 @@
       <c r="I145" t="n">
         <v>124</v>
       </c>
-      <c r="J145" t="n">
-        <v>125</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,9 +5250,7 @@
       <c r="I146" t="n">
         <v>125.9</v>
       </c>
-      <c r="J146" t="n">
-        <v>125</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,9 +5289,7 @@
       <c r="I147" t="n">
         <v>123</v>
       </c>
-      <c r="J147" t="n">
-        <v>125</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,9 +5328,7 @@
       <c r="I148" t="n">
         <v>124.8</v>
       </c>
-      <c r="J148" t="n">
-        <v>125</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,9 +5367,7 @@
       <c r="I149" t="n">
         <v>125.6</v>
       </c>
-      <c r="J149" t="n">
-        <v>125</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,9 +5406,7 @@
       <c r="I150" t="n">
         <v>124</v>
       </c>
-      <c r="J150" t="n">
-        <v>125</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,9 +5445,7 @@
       <c r="I151" t="n">
         <v>123.9</v>
       </c>
-      <c r="J151" t="n">
-        <v>125</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,9 +5484,7 @@
       <c r="I152" t="n">
         <v>123.9</v>
       </c>
-      <c r="J152" t="n">
-        <v>125</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,9 +5523,7 @@
       <c r="I153" t="n">
         <v>124</v>
       </c>
-      <c r="J153" t="n">
-        <v>125</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,9 +5562,7 @@
       <c r="I154" t="n">
         <v>124</v>
       </c>
-      <c r="J154" t="n">
-        <v>125</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,9 +5601,7 @@
       <c r="I155" t="n">
         <v>124</v>
       </c>
-      <c r="J155" t="n">
-        <v>125</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,9 +5640,7 @@
       <c r="I156" t="n">
         <v>123</v>
       </c>
-      <c r="J156" t="n">
-        <v>125</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,9 +5679,7 @@
       <c r="I157" t="n">
         <v>120.8</v>
       </c>
-      <c r="J157" t="n">
-        <v>125</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,9 +5718,7 @@
       <c r="I158" t="n">
         <v>125.3</v>
       </c>
-      <c r="J158" t="n">
-        <v>125</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,9 +5757,7 @@
       <c r="I159" t="n">
         <v>125</v>
       </c>
-      <c r="J159" t="n">
-        <v>125</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,9 +5796,7 @@
       <c r="I160" t="n">
         <v>124.9</v>
       </c>
-      <c r="J160" t="n">
-        <v>125</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,9 +5835,7 @@
       <c r="I161" t="n">
         <v>125</v>
       </c>
-      <c r="J161" t="n">
-        <v>125</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,9 +5874,7 @@
       <c r="I162" t="n">
         <v>125.4</v>
       </c>
-      <c r="J162" t="n">
-        <v>125</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,9 +5913,7 @@
       <c r="I163" t="n">
         <v>125.4</v>
       </c>
-      <c r="J163" t="n">
-        <v>125</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,9 +5952,7 @@
       <c r="I164" t="n">
         <v>125</v>
       </c>
-      <c r="J164" t="n">
-        <v>125</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,9 +5991,7 @@
       <c r="I165" t="n">
         <v>124.9</v>
       </c>
-      <c r="J165" t="n">
-        <v>125</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,12 +6025,12 @@
         <v>384662.8701360261</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,9 +6069,7 @@
       <c r="I167" t="n">
         <v>126</v>
       </c>
-      <c r="J167" t="n">
-        <v>125</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,9 +6108,7 @@
       <c r="I168" t="n">
         <v>126</v>
       </c>
-      <c r="J168" t="n">
-        <v>125</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,9 +6147,7 @@
       <c r="I169" t="n">
         <v>125.6</v>
       </c>
-      <c r="J169" t="n">
-        <v>125</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,12 +6181,12 @@
         <v>390454.5569360261</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,12 +6220,12 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,12 +6259,12 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,12 +6298,12 @@
         <v>397720.5456873837</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,12 +6337,12 @@
         <v>401394.1766873837</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,12 +6376,12 @@
         <v>401394.1766873837</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,12 +6415,12 @@
         <v>399857.7158873837</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,12 +6454,12 @@
         <v>399857.7158873837</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6539,12 +6493,12 @@
         <v>399503.9513873837</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,12 +6532,12 @@
         <v>400017.9513873837</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,12 +6571,12 @@
         <v>400653.4320873838</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>128</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,12 +6610,12 @@
         <v>400653.4320873838</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,12 +6649,12 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,12 +6688,12 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,12 +6727,12 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,12 +6766,12 @@
         <v>424724.6465873838</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,12 +6805,12 @@
         <v>449255.8174242955</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>132</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,12 +6844,12 @@
         <v>461864.9306242955</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>136</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,12 +6883,12 @@
         <v>448041.1140242955</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,12 +6922,12 @@
         <v>444515.2509242955</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7007,12 +6961,12 @@
         <v>436088.3033242955</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>135</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7046,12 +7000,12 @@
         <v>436088.3033242955</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>134</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,12 +7039,12 @@
         <v>432952.0894242955</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>134</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,12 +7078,12 @@
         <v>435423.3641242955</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,12 +7117,12 @@
         <v>435423.3641242955</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>134</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,12 +7156,12 @@
         <v>429430.1916242955</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>134</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,12 +7195,12 @@
         <v>447090.6846242956</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>133</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,12 +7234,12 @@
         <v>447262.1116242956</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,12 +7273,12 @@
         <v>444255.1977242956</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,12 +7312,12 @@
         <v>453110.6331242956</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,12 +7351,12 @@
         <v>464145.8327242956</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-11 BackTest RDN.xlsx
+++ b/BackTest/2020-01-11 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>73230.012</v>
       </c>
       <c r="G2" t="n">
-        <v>689948.0121628961</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>16368.6663</v>
       </c>
       <c r="G3" t="n">
-        <v>706316.6784628961</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>50435.5653</v>
       </c>
       <c r="G4" t="n">
-        <v>756752.2437628962</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>138</v>
-      </c>
-      <c r="J4" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>21191.8905</v>
       </c>
       <c r="G5" t="n">
-        <v>777944.1342628961</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,18 +563,15 @@
         <v>59771.724</v>
       </c>
       <c r="G6" t="n">
-        <v>837715.8582628962</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +593,15 @@
         <v>4136.4328</v>
       </c>
       <c r="G7" t="n">
-        <v>833579.4254628962</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +623,15 @@
         <v>34568.1719</v>
       </c>
       <c r="G8" t="n">
-        <v>868147.5973628962</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +653,15 @@
         <v>26220.1082</v>
       </c>
       <c r="G9" t="n">
-        <v>841927.4891628962</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +683,15 @@
         <v>20897.0738</v>
       </c>
       <c r="G10" t="n">
-        <v>821030.4153628962</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,18 +713,15 @@
         <v>43595.1756</v>
       </c>
       <c r="G11" t="n">
-        <v>777435.2397628962</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,18 +743,15 @@
         <v>33258.55394195805</v>
       </c>
       <c r="G12" t="n">
-        <v>810693.7937048542</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,18 +773,15 @@
         <v>14994.4653</v>
       </c>
       <c r="G13" t="n">
-        <v>795699.3284048542</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,18 +803,15 @@
         <v>34350.7534</v>
       </c>
       <c r="G14" t="n">
-        <v>830050.0818048542</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,18 +833,15 @@
         <v>13436.9641</v>
       </c>
       <c r="G15" t="n">
-        <v>843487.0459048542</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,18 +863,15 @@
         <v>16090.3353</v>
       </c>
       <c r="G16" t="n">
-        <v>827396.7106048542</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,18 +893,15 @@
         <v>43806.5552</v>
       </c>
       <c r="G17" t="n">
-        <v>783590.1554048541</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,18 +923,15 @@
         <v>115353.2344</v>
       </c>
       <c r="G18" t="n">
-        <v>668236.9210048541</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,18 +953,15 @@
         <v>13053.9719</v>
       </c>
       <c r="G19" t="n">
-        <v>655182.9491048541</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,18 +983,15 @@
         <v>4156.4345</v>
       </c>
       <c r="G20" t="n">
-        <v>659339.3836048541</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,18 +1013,15 @@
         <v>10197.3735</v>
       </c>
       <c r="G21" t="n">
-        <v>649142.0101048541</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1126,18 +1043,15 @@
         <v>230</v>
       </c>
       <c r="G22" t="n">
-        <v>649372.0101048541</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,18 +1073,15 @@
         <v>7995.1635</v>
       </c>
       <c r="G23" t="n">
-        <v>641376.8466048541</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,18 +1103,15 @@
         <v>4768.2384</v>
       </c>
       <c r="G24" t="n">
-        <v>636608.6082048541</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1225,18 +1133,15 @@
         <v>7127.8272</v>
       </c>
       <c r="G25" t="n">
-        <v>643736.4354048541</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1258,18 +1163,15 @@
         <v>6904.0335</v>
       </c>
       <c r="G26" t="n">
-        <v>636832.4019048541</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1193,15 @@
         <v>27446.2937</v>
       </c>
       <c r="G27" t="n">
-        <v>609386.1082048541</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1223,15 @@
         <v>22242.5125</v>
       </c>
       <c r="G28" t="n">
-        <v>631628.620704854</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,18 +1253,15 @@
         <v>16964.4118</v>
       </c>
       <c r="G29" t="n">
-        <v>614664.208904854</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,18 +1283,15 @@
         <v>23843.2783</v>
       </c>
       <c r="G30" t="n">
-        <v>590820.930604854</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1423,18 +1313,15 @@
         <v>3712.1236</v>
       </c>
       <c r="G31" t="n">
-        <v>594533.0542048541</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1456,18 +1343,15 @@
         <v>23847.8473</v>
       </c>
       <c r="G32" t="n">
-        <v>570685.206904854</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1489,18 +1373,15 @@
         <v>69093.6727</v>
       </c>
       <c r="G33" t="n">
-        <v>639778.879604854</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,18 +1403,15 @@
         <v>46554.819</v>
       </c>
       <c r="G34" t="n">
-        <v>593224.060604854</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1555,18 +1433,15 @@
         <v>10997.39461323308</v>
       </c>
       <c r="G35" t="n">
-        <v>604221.4552180871</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,18 +1463,15 @@
         <v>2360.9998</v>
       </c>
       <c r="G36" t="n">
-        <v>606582.4550180871</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,18 +1493,15 @@
         <v>6711.6604</v>
       </c>
       <c r="G37" t="n">
-        <v>606582.4550180871</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1654,18 +1523,15 @@
         <v>5712.7564</v>
       </c>
       <c r="G38" t="n">
-        <v>612295.211418087</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,18 +1553,15 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>612291.211418087</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,18 +1583,15 @@
         <v>9457.756600000001</v>
       </c>
       <c r="G40" t="n">
-        <v>602833.454818087</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,18 +1613,15 @@
         <v>37705.65368206079</v>
       </c>
       <c r="G41" t="n">
-        <v>565127.8011360263</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1786,18 +1643,15 @@
         <v>3493.7111</v>
       </c>
       <c r="G42" t="n">
-        <v>568621.5122360262</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1819,18 +1673,15 @@
         <v>14013.075</v>
       </c>
       <c r="G43" t="n">
-        <v>582634.5872360262</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1852,18 +1703,15 @@
         <v>248.0732</v>
       </c>
       <c r="G44" t="n">
-        <v>582386.5140360262</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1885,18 +1733,15 @@
         <v>11100.742</v>
       </c>
       <c r="G45" t="n">
-        <v>571285.7720360262</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,18 +1763,15 @@
         <v>21342.3757</v>
       </c>
       <c r="G46" t="n">
-        <v>592628.1477360262</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +1793,15 @@
         <v>3647.5248</v>
       </c>
       <c r="G47" t="n">
-        <v>588980.6229360262</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,18 +1823,15 @@
         <v>33338.0921</v>
       </c>
       <c r="G48" t="n">
-        <v>588980.6229360262</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2017,18 +1853,15 @@
         <v>3268.3237</v>
       </c>
       <c r="G49" t="n">
-        <v>588980.6229360262</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,18 +1883,15 @@
         <v>15245.8628</v>
       </c>
       <c r="G50" t="n">
-        <v>604226.4857360262</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2083,18 +1913,15 @@
         <v>13082.474</v>
       </c>
       <c r="G51" t="n">
-        <v>591144.0117360262</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +1943,15 @@
         <v>12574.4947</v>
       </c>
       <c r="G52" t="n">
-        <v>578569.5170360261</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +1973,15 @@
         <v>3.9307</v>
       </c>
       <c r="G53" t="n">
-        <v>578573.4477360261</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2003,15 @@
         <v>25869.2523</v>
       </c>
       <c r="G54" t="n">
-        <v>552704.1954360261</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2033,15 @@
         <v>2206.9195</v>
       </c>
       <c r="G55" t="n">
-        <v>550497.2759360261</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2063,15 @@
         <v>54.4817</v>
       </c>
       <c r="G56" t="n">
-        <v>550551.7576360261</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2093,15 @@
         <v>2134.1622</v>
       </c>
       <c r="G57" t="n">
-        <v>550551.7576360261</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2123,15 @@
         <v>4570</v>
       </c>
       <c r="G58" t="n">
-        <v>550551.7576360261</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2153,15 @@
         <v>14.6505</v>
       </c>
       <c r="G59" t="n">
-        <v>550551.7576360261</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2183,15 @@
         <v>12.3897</v>
       </c>
       <c r="G60" t="n">
-        <v>550564.1473360262</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2213,15 @@
         <v>21.1864</v>
       </c>
       <c r="G61" t="n">
-        <v>550564.1473360262</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2243,15 @@
         <v>6.6742</v>
       </c>
       <c r="G62" t="n">
-        <v>550570.8215360262</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2273,15 @@
         <v>10830.1717</v>
       </c>
       <c r="G63" t="n">
-        <v>539740.6498360262</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2303,15 @@
         <v>46250.5491</v>
       </c>
       <c r="G64" t="n">
-        <v>493490.1007360262</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2333,15 @@
         <v>18574.4359</v>
       </c>
       <c r="G65" t="n">
-        <v>493490.1007360262</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2363,15 @@
         <v>35284.64</v>
       </c>
       <c r="G66" t="n">
-        <v>528774.7407360262</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2393,15 @@
         <v>5578.299</v>
       </c>
       <c r="G67" t="n">
-        <v>523196.4417360262</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2423,15 @@
         <v>374.9613</v>
       </c>
       <c r="G68" t="n">
-        <v>522821.4804360262</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2453,15 @@
         <v>752</v>
       </c>
       <c r="G69" t="n">
-        <v>523573.4804360262</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2483,15 @@
         <v>2518.5389</v>
       </c>
       <c r="G70" t="n">
-        <v>521054.9415360262</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2513,15 @@
         <v>135.3297</v>
       </c>
       <c r="G71" t="n">
-        <v>521190.2712360262</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2543,15 @@
         <v>1940.1226</v>
       </c>
       <c r="G72" t="n">
-        <v>523130.3938360262</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2573,15 @@
         <v>376</v>
       </c>
       <c r="G73" t="n">
-        <v>522754.3938360262</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2603,15 @@
         <v>12702.5842</v>
       </c>
       <c r="G74" t="n">
-        <v>535456.9780360262</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2633,15 @@
         <v>6005.6286</v>
       </c>
       <c r="G75" t="n">
-        <v>529451.3494360262</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +2663,15 @@
         <v>10976.0437</v>
       </c>
       <c r="G76" t="n">
-        <v>518475.3057360262</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +2693,15 @@
         <v>712</v>
       </c>
       <c r="G77" t="n">
-        <v>519187.3057360262</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2723,15 @@
         <v>401.8926</v>
       </c>
       <c r="G78" t="n">
-        <v>519187.3057360262</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +2753,15 @@
         <v>14440.6569</v>
       </c>
       <c r="G79" t="n">
-        <v>519187.3057360262</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +2783,15 @@
         <v>3883.458</v>
       </c>
       <c r="G80" t="n">
-        <v>515303.8477360262</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,18 +2813,15 @@
         <v>3081.1327</v>
       </c>
       <c r="G81" t="n">
-        <v>515303.8477360262</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3106,18 +2843,15 @@
         <v>3997</v>
       </c>
       <c r="G82" t="n">
-        <v>519300.8477360262</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3139,18 +2873,15 @@
         <v>2407.1744</v>
       </c>
       <c r="G83" t="n">
-        <v>516893.6733360262</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3172,18 +2903,15 @@
         <v>1515</v>
       </c>
       <c r="G84" t="n">
-        <v>515378.6733360262</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3205,18 +2933,15 @@
         <v>6588.7285</v>
       </c>
       <c r="G85" t="n">
-        <v>515378.6733360262</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3238,18 +2963,15 @@
         <v>5772.782</v>
       </c>
       <c r="G86" t="n">
-        <v>515378.6733360262</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3271,18 +2993,15 @@
         <v>6135.9839</v>
       </c>
       <c r="G87" t="n">
-        <v>509242.6894360262</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3304,18 +3023,15 @@
         <v>6168.5911</v>
       </c>
       <c r="G88" t="n">
-        <v>503074.0983360262</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3337,18 +3053,15 @@
         <v>11022.1271</v>
       </c>
       <c r="G89" t="n">
-        <v>503074.0983360262</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3370,18 +3083,15 @@
         <v>38249.5314</v>
       </c>
       <c r="G90" t="n">
-        <v>464824.5669360262</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3403,18 +3113,15 @@
         <v>9004.7618</v>
       </c>
       <c r="G91" t="n">
-        <v>455819.8051360262</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3436,18 +3143,15 @@
         <v>18610.7136</v>
       </c>
       <c r="G92" t="n">
-        <v>437209.0915360262</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3469,18 +3173,15 @@
         <v>25959.9531</v>
       </c>
       <c r="G93" t="n">
-        <v>463169.0446360262</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3502,18 +3203,15 @@
         <v>12527.7071</v>
       </c>
       <c r="G94" t="n">
-        <v>450641.3375360262</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3535,18 +3233,15 @@
         <v>6595.4266</v>
       </c>
       <c r="G95" t="n">
-        <v>450641.3375360262</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,18 +3263,15 @@
         <v>80.05419999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>450721.3917360262</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3601,18 +3293,15 @@
         <v>2240.8962</v>
       </c>
       <c r="G97" t="n">
-        <v>448480.4955360262</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3634,18 +3323,15 @@
         <v>2116.7923</v>
       </c>
       <c r="G98" t="n">
-        <v>446363.7032360262</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3667,18 +3353,15 @@
         <v>35719.2853</v>
       </c>
       <c r="G99" t="n">
-        <v>410644.4179360262</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3700,18 +3383,15 @@
         <v>7663.1212</v>
       </c>
       <c r="G100" t="n">
-        <v>418307.5391360262</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3733,18 +3413,15 @@
         <v>2575.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>415731.5392360262</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3766,18 +3443,15 @@
         <v>1588.9998</v>
       </c>
       <c r="G102" t="n">
-        <v>414142.5394360262</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3799,18 +3473,15 @@
         <v>14801.6287</v>
       </c>
       <c r="G103" t="n">
-        <v>428944.1681360262</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3832,18 +3503,15 @@
         <v>14940.0884</v>
       </c>
       <c r="G104" t="n">
-        <v>414004.0797360262</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,18 +3533,15 @@
         <v>5656</v>
       </c>
       <c r="G105" t="n">
-        <v>419660.0797360262</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3898,18 +3563,15 @@
         <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>419460.0797360262</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3931,18 +3593,15 @@
         <v>1189</v>
       </c>
       <c r="G107" t="n">
-        <v>418271.0797360262</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3964,18 +3623,15 @@
         <v>1545</v>
       </c>
       <c r="G108" t="n">
-        <v>416726.0797360262</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3997,18 +3653,15 @@
         <v>6386.5883</v>
       </c>
       <c r="G109" t="n">
-        <v>423112.6680360262</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4030,18 +3683,15 @@
         <v>827</v>
       </c>
       <c r="G110" t="n">
-        <v>423112.6680360262</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,18 +3713,15 @@
         <v>2961.7012</v>
       </c>
       <c r="G111" t="n">
-        <v>423112.6680360262</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4096,18 +3743,15 @@
         <v>2489.1525</v>
       </c>
       <c r="G112" t="n">
-        <v>423112.6680360262</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4129,18 +3773,15 @@
         <v>136.8418</v>
       </c>
       <c r="G113" t="n">
-        <v>422975.8262360262</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4162,18 +3803,15 @@
         <v>2971.8705</v>
       </c>
       <c r="G114" t="n">
-        <v>420003.9557360262</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4195,18 +3833,15 @@
         <v>5873.9678</v>
       </c>
       <c r="G115" t="n">
-        <v>425877.9235360262</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4228,18 +3863,15 @@
         <v>3748.9788</v>
       </c>
       <c r="G116" t="n">
-        <v>425877.9235360262</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4261,18 +3893,15 @@
         <v>7911.8489</v>
       </c>
       <c r="G117" t="n">
-        <v>433789.7724360262</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4294,18 +3923,15 @@
         <v>11933.7177</v>
       </c>
       <c r="G118" t="n">
-        <v>445723.4901360262</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4327,18 +3953,15 @@
         <v>55</v>
       </c>
       <c r="G119" t="n">
-        <v>445668.4901360262</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4360,18 +3983,15 @@
         <v>7207.5645</v>
       </c>
       <c r="G120" t="n">
-        <v>452876.0546360262</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4393,18 +4013,15 @@
         <v>7567.1719</v>
       </c>
       <c r="G121" t="n">
-        <v>452876.0546360262</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4426,18 +4043,15 @@
         <v>735</v>
       </c>
       <c r="G122" t="n">
-        <v>452876.0546360262</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4459,18 +4073,15 @@
         <v>5058.8652</v>
       </c>
       <c r="G123" t="n">
-        <v>447817.1894360262</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4492,18 +4103,15 @@
         <v>25</v>
       </c>
       <c r="G124" t="n">
-        <v>447842.1894360262</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4525,18 +4133,15 @@
         <v>568</v>
       </c>
       <c r="G125" t="n">
-        <v>447274.1894360262</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4558,18 +4163,15 @@
         <v>500.9882</v>
       </c>
       <c r="G126" t="n">
-        <v>446773.2012360261</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4591,18 +4193,15 @@
         <v>479</v>
       </c>
       <c r="G127" t="n">
-        <v>447252.2012360261</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4624,18 +4223,15 @@
         <v>499</v>
       </c>
       <c r="G128" t="n">
-        <v>447252.2012360261</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4657,18 +4253,15 @@
         <v>1464.8705</v>
       </c>
       <c r="G129" t="n">
-        <v>448717.0717360261</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4690,18 +4283,15 @@
         <v>0.1789</v>
       </c>
       <c r="G130" t="n">
-        <v>448717.0717360261</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4723,18 +4313,15 @@
         <v>145</v>
       </c>
       <c r="G131" t="n">
-        <v>448572.0717360261</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4756,18 +4343,15 @@
         <v>2869.282</v>
       </c>
       <c r="G132" t="n">
-        <v>451441.3537360262</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4789,18 +4373,15 @@
         <v>9927.509700000001</v>
       </c>
       <c r="G133" t="n">
-        <v>451441.3537360262</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4822,18 +4403,15 @@
         <v>4610</v>
       </c>
       <c r="G134" t="n">
-        <v>451441.3537360262</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4855,18 +4433,15 @@
         <v>1164.5388</v>
       </c>
       <c r="G135" t="n">
-        <v>451441.3537360262</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4888,18 +4463,15 @@
         <v>1708.0863</v>
       </c>
       <c r="G136" t="n">
-        <v>449733.2674360261</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4921,18 +4493,15 @@
         <v>1189</v>
       </c>
       <c r="G137" t="n">
-        <v>449733.2674360261</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4954,18 +4523,15 @@
         <v>4124.3437</v>
       </c>
       <c r="G138" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4987,18 +4553,15 @@
         <v>9103.3109</v>
       </c>
       <c r="G139" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5020,18 +4583,15 @@
         <v>6866.9229</v>
       </c>
       <c r="G140" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5053,18 +4613,15 @@
         <v>12556.6195</v>
       </c>
       <c r="G141" t="n">
-        <v>445608.9237360261</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5086,2286 +4643,1979 @@
         <v>15462.3186</v>
       </c>
       <c r="G142" t="n">
-        <v>461071.2423360261</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>123</v>
+      </c>
+      <c r="C143" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>121</v>
+      </c>
+      <c r="F143" t="n">
+        <v>22705.2206</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>124</v>
+      </c>
+      <c r="D144" t="n">
+        <v>124</v>
+      </c>
+      <c r="E144" t="n">
+        <v>123</v>
+      </c>
+      <c r="F144" t="n">
+        <v>550</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>123</v>
+      </c>
+      <c r="C146" t="n">
+        <v>123</v>
+      </c>
+      <c r="D146" t="n">
+        <v>123</v>
+      </c>
+      <c r="E146" t="n">
+        <v>123</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2226.6263</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2758.0915</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>123</v>
+      </c>
+      <c r="C148" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20353.0797</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>124</v>
+      </c>
+      <c r="D149" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>24317.2775</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>124</v>
+      </c>
+      <c r="E150" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5992.0515</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="F151" t="n">
+        <v>762.2328</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>124</v>
+      </c>
+      <c r="D152" t="n">
+        <v>124</v>
+      </c>
+      <c r="E152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2934.3926</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>123</v>
-      </c>
-      <c r="C143" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>121</v>
-      </c>
-      <c r="F143" t="n">
-        <v>22705.2206</v>
-      </c>
-      <c r="G143" t="n">
-        <v>438366.0217360261</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>126</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>124</v>
+      </c>
+      <c r="C153" t="n">
+        <v>124</v>
+      </c>
+      <c r="D153" t="n">
+        <v>124</v>
+      </c>
+      <c r="E153" t="n">
+        <v>124</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3821.0851</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>124</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="C144" t="n">
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>124</v>
       </c>
-      <c r="D144" t="n">
+      <c r="C154" t="n">
         <v>124</v>
       </c>
-      <c r="E144" t="n">
-        <v>123</v>
-      </c>
-      <c r="F144" t="n">
-        <v>550</v>
-      </c>
-      <c r="G144" t="n">
-        <v>437816.0217360261</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="D154" t="n">
+        <v>124</v>
+      </c>
+      <c r="E154" t="n">
+        <v>124</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5295.6057</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>124</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4</v>
-      </c>
-      <c r="G145" t="n">
-        <v>437820.0217360261</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>123</v>
+      </c>
+      <c r="C155" t="n">
+        <v>123</v>
+      </c>
+      <c r="D155" t="n">
+        <v>123</v>
+      </c>
+      <c r="E155" t="n">
+        <v>123</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31.4151</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
         <v>124</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>123</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C156" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="D156" t="n">
         <v>123</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E156" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>33771.9406</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
         <v>123</v>
       </c>
-      <c r="E146" t="n">
-        <v>123</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2226.6263</v>
-      </c>
-      <c r="G146" t="n">
-        <v>435593.3954360261</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="C147" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2758.0915</v>
-      </c>
-      <c r="G147" t="n">
-        <v>438351.4869360261</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>123</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>124</v>
+      </c>
+      <c r="C157" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>124</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2059</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>123</v>
-      </c>
-      <c r="C148" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>20353.0797</v>
-      </c>
-      <c r="G148" t="n">
-        <v>458704.5666360261</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>125</v>
+      </c>
+      <c r="C158" t="n">
+        <v>125</v>
+      </c>
+      <c r="D158" t="n">
+        <v>125</v>
+      </c>
+      <c r="E158" t="n">
+        <v>125</v>
+      </c>
+      <c r="F158" t="n">
+        <v>825.7637</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>124</v>
-      </c>
-      <c r="D149" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>24317.2775</v>
-      </c>
-      <c r="G149" t="n">
-        <v>434387.2891360261</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>125</v>
+      </c>
+      <c r="C159" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>125</v>
+      </c>
+      <c r="E159" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17045.9589</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>125</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>124</v>
-      </c>
-      <c r="E150" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5992.0515</v>
-      </c>
-      <c r="G150" t="n">
-        <v>428395.2376360261</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>124</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>125</v>
+      </c>
+      <c r="C160" t="n">
+        <v>125</v>
+      </c>
+      <c r="D160" t="n">
+        <v>125</v>
+      </c>
+      <c r="E160" t="n">
+        <v>125</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10192.3436</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="C151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="D151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="F151" t="n">
-        <v>762.2328</v>
-      </c>
-      <c r="G151" t="n">
-        <v>428395.2376360261</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7.1096</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>125</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="C152" t="n">
-        <v>124</v>
-      </c>
-      <c r="D152" t="n">
-        <v>124</v>
-      </c>
-      <c r="E152" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2934.3926</v>
-      </c>
-      <c r="G152" t="n">
-        <v>431329.6302360261</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>121</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16390.7324</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>124</v>
-      </c>
-      <c r="C153" t="n">
-        <v>124</v>
-      </c>
-      <c r="D153" t="n">
-        <v>124</v>
-      </c>
-      <c r="E153" t="n">
-        <v>124</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3821.0851</v>
-      </c>
-      <c r="G153" t="n">
-        <v>431329.6302360261</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>124</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>125</v>
+      </c>
+      <c r="C163" t="n">
+        <v>125</v>
+      </c>
+      <c r="D163" t="n">
+        <v>125</v>
+      </c>
+      <c r="E163" t="n">
+        <v>125</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7949.6468</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>124</v>
-      </c>
-      <c r="C154" t="n">
-        <v>124</v>
-      </c>
-      <c r="D154" t="n">
-        <v>124</v>
-      </c>
-      <c r="E154" t="n">
-        <v>124</v>
-      </c>
-      <c r="F154" t="n">
-        <v>5295.6057</v>
-      </c>
-      <c r="G154" t="n">
-        <v>431329.6302360261</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>124</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>754.4882</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>125</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>123</v>
-      </c>
-      <c r="C155" t="n">
-        <v>123</v>
-      </c>
-      <c r="D155" t="n">
-        <v>123</v>
-      </c>
-      <c r="E155" t="n">
-        <v>123</v>
-      </c>
-      <c r="F155" t="n">
-        <v>31.4151</v>
-      </c>
-      <c r="G155" t="n">
-        <v>431298.2151360261</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>124</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>123</v>
-      </c>
-      <c r="C156" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>123</v>
-      </c>
-      <c r="E156" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>33771.9406</v>
-      </c>
-      <c r="G156" t="n">
-        <v>397526.2745360261</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>123</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>126</v>
+      </c>
+      <c r="C166" t="n">
+        <v>126</v>
+      </c>
+      <c r="D166" t="n">
+        <v>126</v>
+      </c>
+      <c r="E166" t="n">
+        <v>126</v>
+      </c>
+      <c r="F166" t="n">
+        <v>335</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>124</v>
-      </c>
-      <c r="C157" t="n">
-        <v>125.3</v>
-      </c>
-      <c r="D157" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>124</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2059</v>
-      </c>
-      <c r="G157" t="n">
-        <v>399585.2745360261</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>126</v>
+      </c>
+      <c r="C167" t="n">
+        <v>126</v>
+      </c>
+      <c r="D167" t="n">
+        <v>126</v>
+      </c>
+      <c r="E167" t="n">
+        <v>126</v>
+      </c>
+      <c r="F167" t="n">
+        <v>335</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>125</v>
-      </c>
-      <c r="C158" t="n">
-        <v>125</v>
-      </c>
-      <c r="D158" t="n">
-        <v>125</v>
-      </c>
-      <c r="E158" t="n">
-        <v>125</v>
-      </c>
-      <c r="F158" t="n">
-        <v>825.7637</v>
-      </c>
-      <c r="G158" t="n">
-        <v>398759.510836026</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>125.3</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1204.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>126</v>
+      </c>
+      <c r="C169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E169" t="n">
         <v>125</v>
       </c>
-      <c r="C159" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>125</v>
-      </c>
-      <c r="E159" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>17045.9589</v>
-      </c>
-      <c r="G159" t="n">
-        <v>381713.551936026</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>125</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
+      <c r="F169" t="n">
+        <v>6996.6867</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>125</v>
-      </c>
-      <c r="C160" t="n">
-        <v>125</v>
-      </c>
-      <c r="D160" t="n">
-        <v>125</v>
-      </c>
-      <c r="E160" t="n">
-        <v>125</v>
-      </c>
-      <c r="F160" t="n">
-        <v>10192.3436</v>
-      </c>
-      <c r="G160" t="n">
-        <v>391905.895536026</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2309.4784</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>7.1096</v>
-      </c>
-      <c r="G161" t="n">
-        <v>391913.0051360261</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>125</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7665.988751357641</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>121</v>
-      </c>
-      <c r="F162" t="n">
-        <v>16390.7324</v>
-      </c>
-      <c r="G162" t="n">
-        <v>391913.0051360261</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>127</v>
+      </c>
+      <c r="C172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>127</v>
+      </c>
+      <c r="F172" t="n">
+        <v>748.0741</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>125</v>
-      </c>
-      <c r="C163" t="n">
-        <v>125</v>
-      </c>
-      <c r="D163" t="n">
-        <v>125</v>
-      </c>
-      <c r="E163" t="n">
-        <v>125</v>
-      </c>
-      <c r="F163" t="n">
-        <v>7949.6468</v>
-      </c>
-      <c r="G163" t="n">
-        <v>383963.3583360261</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="C164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="D164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="E164" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F164" t="n">
-        <v>754.4882</v>
-      </c>
-      <c r="G164" t="n">
-        <v>383208.8701360261</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>125</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3673.631</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1789</v>
-      </c>
-      <c r="G165" t="n">
-        <v>384997.8701360261</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10498.9587</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>126</v>
-      </c>
-      <c r="C166" t="n">
-        <v>126</v>
-      </c>
-      <c r="D166" t="n">
-        <v>126</v>
-      </c>
-      <c r="E166" t="n">
-        <v>126</v>
-      </c>
-      <c r="F166" t="n">
-        <v>335</v>
-      </c>
-      <c r="G166" t="n">
-        <v>384662.8701360261</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1536.4608</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>126</v>
-      </c>
-      <c r="C167" t="n">
-        <v>126</v>
-      </c>
-      <c r="D167" t="n">
-        <v>126</v>
-      </c>
-      <c r="E167" t="n">
-        <v>126</v>
-      </c>
-      <c r="F167" t="n">
-        <v>335</v>
-      </c>
-      <c r="G167" t="n">
-        <v>384662.8701360261</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>126</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>410.123</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="D168" t="n">
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>127</v>
+      </c>
+      <c r="C178" t="n">
         <v>126.6</v>
       </c>
-      <c r="E168" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1204.9999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>383457.8702360261</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>126</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="D178" t="n">
+        <v>127</v>
+      </c>
+      <c r="E178" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>353.7645</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>126</v>
-      </c>
-      <c r="C169" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>125</v>
-      </c>
-      <c r="F169" t="n">
-        <v>6996.6867</v>
-      </c>
-      <c r="G169" t="n">
-        <v>390454.5569360261</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>128</v>
+      </c>
+      <c r="C179" t="n">
+        <v>128</v>
+      </c>
+      <c r="D179" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>128</v>
+      </c>
+      <c r="F179" t="n">
+        <v>514</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2309.4784</v>
-      </c>
-      <c r="G170" t="n">
-        <v>390454.5569360261</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>128</v>
+      </c>
+      <c r="C180" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>128</v>
+      </c>
+      <c r="F180" t="n">
+        <v>635.4807</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E171" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>7665.988751357641</v>
-      </c>
-      <c r="G171" t="n">
-        <v>398120.5456873837</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2467.4124</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>127</v>
-      </c>
-      <c r="C172" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D172" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E172" t="n">
-        <v>127</v>
-      </c>
-      <c r="F172" t="n">
-        <v>748.0741</v>
-      </c>
-      <c r="G172" t="n">
-        <v>398120.5456873837</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5961.7885</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>400</v>
-      </c>
-      <c r="G173" t="n">
-        <v>397720.5456873837</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>56</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3673.631</v>
-      </c>
-      <c r="G174" t="n">
-        <v>401394.1766873837</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11487.9045</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10498.9587</v>
-      </c>
-      <c r="G175" t="n">
-        <v>401394.1766873837</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>129</v>
+      </c>
+      <c r="C185" t="n">
+        <v>132</v>
+      </c>
+      <c r="D185" t="n">
+        <v>132</v>
+      </c>
+      <c r="E185" t="n">
+        <v>129</v>
+      </c>
+      <c r="F185" t="n">
+        <v>18109.426</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E176" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1536.4608</v>
-      </c>
-      <c r="G176" t="n">
-        <v>399857.7158873837</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>133</v>
+      </c>
+      <c r="C186" t="n">
+        <v>136</v>
+      </c>
+      <c r="D186" t="n">
+        <v>136</v>
+      </c>
+      <c r="E186" t="n">
+        <v>133</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24531.17083691177</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>410.123</v>
-      </c>
-      <c r="G177" t="n">
-        <v>399857.7158873837</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>135</v>
+      </c>
+      <c r="C187" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12609.1132</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>127</v>
-      </c>
-      <c r="C178" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>127</v>
-      </c>
-      <c r="E178" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>353.7645</v>
-      </c>
-      <c r="G178" t="n">
-        <v>399503.9513873837</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13823.8166</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>128</v>
-      </c>
-      <c r="C179" t="n">
-        <v>128</v>
-      </c>
-      <c r="D179" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E179" t="n">
-        <v>128</v>
-      </c>
-      <c r="F179" t="n">
-        <v>514</v>
-      </c>
-      <c r="G179" t="n">
-        <v>400017.9513873837</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C189" t="n">
+        <v>135</v>
+      </c>
+      <c r="D189" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>135</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3525.8631</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>128</v>
-      </c>
-      <c r="C180" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>128</v>
-      </c>
-      <c r="F180" t="n">
-        <v>635.4807</v>
-      </c>
-      <c r="G180" t="n">
-        <v>400653.4320873838</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>128</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>135</v>
+      </c>
+      <c r="C190" t="n">
+        <v>134</v>
+      </c>
+      <c r="D190" t="n">
+        <v>135</v>
+      </c>
+      <c r="E190" t="n">
+        <v>134</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8426.9476</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2467.4124</v>
-      </c>
-      <c r="G181" t="n">
-        <v>400653.4320873838</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>134</v>
+      </c>
+      <c r="C191" t="n">
+        <v>134</v>
+      </c>
+      <c r="D191" t="n">
+        <v>134</v>
+      </c>
+      <c r="E191" t="n">
+        <v>134</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3305.39552238806</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5961.7885</v>
-      </c>
-      <c r="G182" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>134</v>
+      </c>
+      <c r="C192" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>134</v>
+      </c>
+      <c r="E192" t="n">
+        <v>132</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3136.2139</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>56</v>
-      </c>
-      <c r="G183" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>134</v>
+      </c>
+      <c r="D193" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>133</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2471.2747</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>11487.9045</v>
-      </c>
-      <c r="G184" t="n">
-        <v>406615.2205873838</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>134</v>
+      </c>
+      <c r="C194" t="n">
+        <v>134</v>
+      </c>
+      <c r="D194" t="n">
+        <v>134</v>
+      </c>
+      <c r="E194" t="n">
+        <v>134</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2629</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>129</v>
-      </c>
-      <c r="C185" t="n">
-        <v>132</v>
-      </c>
-      <c r="D185" t="n">
-        <v>132</v>
-      </c>
-      <c r="E185" t="n">
-        <v>129</v>
-      </c>
-      <c r="F185" t="n">
-        <v>18109.426</v>
-      </c>
-      <c r="G185" t="n">
-        <v>424724.6465873838</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>134</v>
+      </c>
+      <c r="C195" t="n">
+        <v>133</v>
+      </c>
+      <c r="D195" t="n">
+        <v>134</v>
+      </c>
+      <c r="E195" t="n">
+        <v>133</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5993.1725</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>133</v>
-      </c>
-      <c r="C186" t="n">
-        <v>136</v>
-      </c>
-      <c r="D186" t="n">
-        <v>136</v>
-      </c>
-      <c r="E186" t="n">
-        <v>133</v>
-      </c>
-      <c r="F186" t="n">
-        <v>24531.17083691177</v>
-      </c>
-      <c r="G186" t="n">
-        <v>449255.8174242955</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>132</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>17660.493</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>135</v>
-      </c>
-      <c r="C187" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>12609.1132</v>
-      </c>
-      <c r="G187" t="n">
-        <v>461864.9306242955</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>136</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>171.427</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="D188" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>13823.8166</v>
-      </c>
-      <c r="G188" t="n">
-        <v>448041.1140242955</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3006.9139</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="C189" t="n">
-        <v>135</v>
-      </c>
-      <c r="D189" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E189" t="n">
-        <v>135</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3525.8631</v>
-      </c>
-      <c r="G189" t="n">
-        <v>444515.2509242955</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8855.4354</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C200" t="n">
         <v>135</v>
       </c>
-      <c r="C190" t="n">
-        <v>134</v>
-      </c>
-      <c r="D190" t="n">
+      <c r="D200" t="n">
         <v>135</v>
       </c>
-      <c r="E190" t="n">
-        <v>134</v>
-      </c>
-      <c r="F190" t="n">
-        <v>8426.9476</v>
-      </c>
-      <c r="G190" t="n">
-        <v>436088.3033242955</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>135</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
+      <c r="E200" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11035.1996</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>134</v>
-      </c>
-      <c r="C191" t="n">
-        <v>134</v>
-      </c>
-      <c r="D191" t="n">
-        <v>134</v>
-      </c>
-      <c r="E191" t="n">
-        <v>134</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3305.39552238806</v>
-      </c>
-      <c r="G191" t="n">
-        <v>436088.3033242955</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>134</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>134</v>
-      </c>
-      <c r="C192" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>134</v>
-      </c>
-      <c r="E192" t="n">
-        <v>132</v>
-      </c>
-      <c r="F192" t="n">
-        <v>3136.2139</v>
-      </c>
-      <c r="G192" t="n">
-        <v>432952.0894242955</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>134</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="C193" t="n">
-        <v>134</v>
-      </c>
-      <c r="D193" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="E193" t="n">
-        <v>133</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2471.2747</v>
-      </c>
-      <c r="G193" t="n">
-        <v>435423.3641242955</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>134</v>
-      </c>
-      <c r="C194" t="n">
-        <v>134</v>
-      </c>
-      <c r="D194" t="n">
-        <v>134</v>
-      </c>
-      <c r="E194" t="n">
-        <v>134</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2629</v>
-      </c>
-      <c r="G194" t="n">
-        <v>435423.3641242955</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>134</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>134</v>
-      </c>
-      <c r="C195" t="n">
-        <v>133</v>
-      </c>
-      <c r="D195" t="n">
-        <v>134</v>
-      </c>
-      <c r="E195" t="n">
-        <v>133</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5993.1725</v>
-      </c>
-      <c r="G195" t="n">
-        <v>429430.1916242955</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>134</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="F196" t="n">
-        <v>17660.493</v>
-      </c>
-      <c r="G196" t="n">
-        <v>447090.6846242956</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>133</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="D197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>171.427</v>
-      </c>
-      <c r="G197" t="n">
-        <v>447262.1116242956</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="D198" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="E198" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3006.9139</v>
-      </c>
-      <c r="G198" t="n">
-        <v>444255.1977242956</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="C199" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="F199" t="n">
-        <v>8855.4354</v>
-      </c>
-      <c r="G199" t="n">
-        <v>453110.6331242956</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="C200" t="n">
-        <v>135</v>
-      </c>
-      <c r="D200" t="n">
-        <v>135</v>
-      </c>
-      <c r="E200" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="F200" t="n">
-        <v>11035.1996</v>
-      </c>
-      <c r="G200" t="n">
-        <v>464145.8327242956</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
